--- a/AAII_Financials/Quarterly/WFG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WFG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>WFG</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,155 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4846900</v>
+        <v>3003600</v>
       </c>
       <c r="E8" s="3">
-        <v>3005100</v>
+        <v>4813700</v>
       </c>
       <c r="F8" s="3">
-        <v>2166300</v>
+        <v>2984500</v>
       </c>
       <c r="G8" s="3">
-        <v>2167600</v>
+        <v>2151400</v>
       </c>
       <c r="H8" s="3">
-        <v>1636600</v>
+        <v>2152700</v>
       </c>
       <c r="I8" s="3">
-        <v>1141500</v>
+        <v>1625400</v>
       </c>
       <c r="J8" s="3">
+        <v>1133700</v>
+      </c>
+      <c r="K8" s="3">
         <v>1448100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1526300</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1584000</v>
+        <v>1545100</v>
       </c>
       <c r="E9" s="3">
-        <v>1332600</v>
+        <v>1573100</v>
       </c>
       <c r="F9" s="3">
-        <v>1149200</v>
+        <v>1323500</v>
       </c>
       <c r="G9" s="3">
-        <v>1074800</v>
+        <v>1141300</v>
       </c>
       <c r="H9" s="3">
-        <v>1095300</v>
+        <v>1067400</v>
       </c>
       <c r="I9" s="3">
-        <v>808000</v>
+        <v>1087800</v>
       </c>
       <c r="J9" s="3">
+        <v>802500</v>
+      </c>
+      <c r="K9" s="3">
         <v>1064600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1162000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3262900</v>
+        <v>1458500</v>
       </c>
       <c r="E10" s="3">
-        <v>1672500</v>
+        <v>3240500</v>
       </c>
       <c r="F10" s="3">
-        <v>1017100</v>
+        <v>1661000</v>
       </c>
       <c r="G10" s="3">
-        <v>1092800</v>
+        <v>1010100</v>
       </c>
       <c r="H10" s="3">
-        <v>541300</v>
+        <v>1085300</v>
       </c>
       <c r="I10" s="3">
-        <v>333500</v>
+        <v>537500</v>
       </c>
       <c r="J10" s="3">
+        <v>331200</v>
+      </c>
+      <c r="K10" s="3">
         <v>383500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>364300</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +887,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -881,8 +901,8 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -890,46 +910,52 @@
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>10300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>207800</v>
+        <v>187200</v>
       </c>
       <c r="E15" s="3">
-        <v>156500</v>
+        <v>206400</v>
       </c>
       <c r="F15" s="3">
-        <v>91100</v>
+        <v>155400</v>
       </c>
       <c r="G15" s="3">
+        <v>90400</v>
+      </c>
+      <c r="H15" s="3">
+        <v>84100</v>
+      </c>
+      <c r="I15" s="3">
+        <v>82800</v>
+      </c>
+      <c r="J15" s="3">
+        <v>66200</v>
+      </c>
+      <c r="K15" s="3">
         <v>84700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="L15" s="3">
         <v>83400</v>
       </c>
-      <c r="I15" s="3">
-        <v>66700</v>
-      </c>
-      <c r="J15" s="3">
-        <v>84700</v>
-      </c>
-      <c r="K15" s="3">
-        <v>83400</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2299700</v>
+        <v>2201100</v>
       </c>
       <c r="E17" s="3">
-        <v>1877700</v>
+        <v>2283900</v>
       </c>
       <c r="F17" s="3">
-        <v>1505800</v>
+        <v>1864800</v>
       </c>
       <c r="G17" s="3">
-        <v>1543000</v>
+        <v>1495400</v>
       </c>
       <c r="H17" s="3">
-        <v>1530100</v>
+        <v>1532400</v>
       </c>
       <c r="I17" s="3">
-        <v>1130000</v>
+        <v>1519600</v>
       </c>
       <c r="J17" s="3">
+        <v>1122200</v>
+      </c>
+      <c r="K17" s="3">
         <v>1487800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1595600</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2547200</v>
+        <v>802500</v>
       </c>
       <c r="E18" s="3">
-        <v>1127400</v>
+        <v>2529800</v>
       </c>
       <c r="F18" s="3">
-        <v>660500</v>
+        <v>1119700</v>
       </c>
       <c r="G18" s="3">
-        <v>624600</v>
+        <v>656000</v>
       </c>
       <c r="H18" s="3">
-        <v>106500</v>
+        <v>620300</v>
       </c>
       <c r="I18" s="3">
+        <v>105700</v>
+      </c>
+      <c r="J18" s="3">
         <v>11500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-39800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-69300</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,66 +1042,73 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-25700</v>
+        <v>-7600</v>
       </c>
       <c r="E20" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-11500</v>
       </c>
-      <c r="F20" s="3">
-        <v>-18000</v>
-      </c>
       <c r="G20" s="3">
-        <v>-28200</v>
+        <v>-17800</v>
       </c>
       <c r="H20" s="3">
-        <v>-20500</v>
+        <v>-28000</v>
       </c>
       <c r="I20" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="J20" s="3">
         <v>-3800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-19200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-12800</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2729400</v>
+        <v>982100</v>
       </c>
       <c r="E21" s="3">
-        <v>1272300</v>
+        <v>2710600</v>
       </c>
       <c r="F21" s="3">
-        <v>733600</v>
+        <v>1263600</v>
       </c>
       <c r="G21" s="3">
-        <v>681100</v>
+        <v>728600</v>
       </c>
       <c r="H21" s="3">
-        <v>192400</v>
+        <v>676400</v>
       </c>
       <c r="I21" s="3">
-        <v>74400</v>
+        <v>191100</v>
       </c>
       <c r="J21" s="3">
+        <v>73900</v>
+      </c>
+      <c r="K21" s="3">
         <v>25700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,66 +1136,75 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2521600</v>
+        <v>794900</v>
       </c>
       <c r="E23" s="3">
-        <v>1115900</v>
+        <v>2504300</v>
       </c>
       <c r="F23" s="3">
-        <v>642600</v>
+        <v>1108200</v>
       </c>
       <c r="G23" s="3">
-        <v>596400</v>
+        <v>638200</v>
       </c>
       <c r="H23" s="3">
-        <v>85900</v>
+        <v>592300</v>
       </c>
       <c r="I23" s="3">
-        <v>7700</v>
+        <v>85300</v>
       </c>
       <c r="J23" s="3">
+        <v>7600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-59000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-82100</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>613100</v>
+        <v>208900</v>
       </c>
       <c r="E24" s="3">
-        <v>262900</v>
+        <v>608900</v>
       </c>
       <c r="F24" s="3">
-        <v>173200</v>
+        <v>261100</v>
       </c>
       <c r="G24" s="3">
-        <v>147500</v>
+        <v>172000</v>
       </c>
       <c r="H24" s="3">
-        <v>24400</v>
+        <v>146500</v>
       </c>
       <c r="I24" s="3">
+        <v>24200</v>
+      </c>
+      <c r="J24" s="3">
         <v>-3800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-5100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-24400</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1908500</v>
+        <v>585900</v>
       </c>
       <c r="E26" s="3">
-        <v>852900</v>
+        <v>1895400</v>
       </c>
       <c r="F26" s="3">
-        <v>469400</v>
+        <v>847100</v>
       </c>
       <c r="G26" s="3">
-        <v>448900</v>
+        <v>466200</v>
       </c>
       <c r="H26" s="3">
-        <v>61600</v>
+        <v>445800</v>
       </c>
       <c r="I26" s="3">
+        <v>61100</v>
+      </c>
+      <c r="J26" s="3">
         <v>11500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-53900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-57700</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1908500</v>
+        <v>585900</v>
       </c>
       <c r="E27" s="3">
-        <v>852900</v>
+        <v>1895400</v>
       </c>
       <c r="F27" s="3">
-        <v>469400</v>
+        <v>847100</v>
       </c>
       <c r="G27" s="3">
-        <v>448900</v>
+        <v>466200</v>
       </c>
       <c r="H27" s="3">
-        <v>61600</v>
+        <v>445800</v>
       </c>
       <c r="I27" s="3">
+        <v>61100</v>
+      </c>
+      <c r="J27" s="3">
         <v>11500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-53900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-57700</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1424,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>25700</v>
+        <v>7600</v>
       </c>
       <c r="E32" s="3">
+        <v>25500</v>
+      </c>
+      <c r="F32" s="3">
         <v>11500</v>
       </c>
-      <c r="F32" s="3">
-        <v>18000</v>
-      </c>
       <c r="G32" s="3">
-        <v>28200</v>
+        <v>17800</v>
       </c>
       <c r="H32" s="3">
-        <v>20500</v>
+        <v>28000</v>
       </c>
       <c r="I32" s="3">
+        <v>20400</v>
+      </c>
+      <c r="J32" s="3">
         <v>3800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>19200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1908500</v>
+        <v>585900</v>
       </c>
       <c r="E33" s="3">
-        <v>852900</v>
+        <v>1895400</v>
       </c>
       <c r="F33" s="3">
-        <v>469400</v>
+        <v>847100</v>
       </c>
       <c r="G33" s="3">
-        <v>448900</v>
+        <v>466200</v>
       </c>
       <c r="H33" s="3">
-        <v>61600</v>
+        <v>445800</v>
       </c>
       <c r="I33" s="3">
+        <v>61100</v>
+      </c>
+      <c r="J33" s="3">
         <v>11500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-53900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-57700</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1908500</v>
+        <v>585900</v>
       </c>
       <c r="E35" s="3">
-        <v>852900</v>
+        <v>1895400</v>
       </c>
       <c r="F35" s="3">
-        <v>469400</v>
+        <v>847100</v>
       </c>
       <c r="G35" s="3">
-        <v>448900</v>
+        <v>466200</v>
       </c>
       <c r="H35" s="3">
-        <v>61600</v>
+        <v>445800</v>
       </c>
       <c r="I35" s="3">
+        <v>61100</v>
+      </c>
+      <c r="J35" s="3">
         <v>11500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-53900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-57700</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,37 +1619,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2861500</v>
+        <v>2681300</v>
       </c>
       <c r="E41" s="3">
-        <v>1795600</v>
+        <v>2841800</v>
       </c>
       <c r="F41" s="3">
-        <v>591300</v>
+        <v>1783300</v>
       </c>
       <c r="G41" s="3">
-        <v>401500</v>
+        <v>587200</v>
       </c>
       <c r="H41" s="3">
-        <v>162900</v>
+        <v>398700</v>
       </c>
       <c r="I41" s="3">
-        <v>120600</v>
+        <v>161800</v>
       </c>
       <c r="J41" s="3">
+        <v>119700</v>
+      </c>
+      <c r="K41" s="3">
         <v>20500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,124 +1681,139 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1024800</v>
+        <v>708200</v>
       </c>
       <c r="E43" s="3">
-        <v>870900</v>
+        <v>1017800</v>
       </c>
       <c r="F43" s="3">
-        <v>365500</v>
+        <v>864900</v>
       </c>
       <c r="G43" s="3">
-        <v>534800</v>
+        <v>363000</v>
       </c>
       <c r="H43" s="3">
-        <v>506600</v>
+        <v>531200</v>
       </c>
       <c r="I43" s="3">
-        <v>577200</v>
+        <v>503200</v>
       </c>
       <c r="J43" s="3">
+        <v>573200</v>
+      </c>
+      <c r="K43" s="3">
         <v>504100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>560500</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1239000</v>
+        <v>1194800</v>
       </c>
       <c r="E44" s="3">
-        <v>1458300</v>
+        <v>1230500</v>
       </c>
       <c r="F44" s="3">
-        <v>741300</v>
+        <v>1448300</v>
       </c>
       <c r="G44" s="3">
-        <v>869600</v>
+        <v>736300</v>
       </c>
       <c r="H44" s="3">
-        <v>840100</v>
+        <v>863600</v>
       </c>
       <c r="I44" s="3">
-        <v>1209500</v>
+        <v>834300</v>
       </c>
       <c r="J44" s="3">
+        <v>1201200</v>
+      </c>
+      <c r="K44" s="3">
         <v>935000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>844000</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>79500</v>
+        <v>67500</v>
       </c>
       <c r="E45" s="3">
-        <v>37200</v>
+        <v>79000</v>
       </c>
       <c r="F45" s="3">
-        <v>15400</v>
+        <v>36900</v>
       </c>
       <c r="G45" s="3">
+        <v>15300</v>
+      </c>
+      <c r="H45" s="3">
+        <v>22900</v>
+      </c>
+      <c r="I45" s="3">
+        <v>26700</v>
+      </c>
+      <c r="J45" s="3">
+        <v>17800</v>
+      </c>
+      <c r="K45" s="3">
+        <v>11500</v>
+      </c>
+      <c r="L45" s="3">
         <v>23100</v>
       </c>
-      <c r="H45" s="3">
-        <v>26900</v>
-      </c>
-      <c r="I45" s="3">
-        <v>18000</v>
-      </c>
-      <c r="J45" s="3">
-        <v>11500</v>
-      </c>
-      <c r="K45" s="3">
-        <v>23100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5204800</v>
+        <v>4651900</v>
       </c>
       <c r="E46" s="3">
-        <v>4162000</v>
+        <v>5169100</v>
       </c>
       <c r="F46" s="3">
-        <v>1713600</v>
+        <v>4133500</v>
       </c>
       <c r="G46" s="3">
-        <v>1829000</v>
+        <v>1701800</v>
       </c>
       <c r="H46" s="3">
-        <v>1536600</v>
+        <v>1816400</v>
       </c>
       <c r="I46" s="3">
-        <v>1925200</v>
+        <v>1526000</v>
       </c>
       <c r="J46" s="3">
+        <v>1912000</v>
+      </c>
+      <c r="K46" s="3">
         <v>1471100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1449300</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,66 +1841,75 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4649400</v>
+        <v>4584400</v>
       </c>
       <c r="E48" s="3">
-        <v>4730200</v>
+        <v>4617500</v>
       </c>
       <c r="F48" s="3">
-        <v>2125300</v>
+        <v>4697800</v>
       </c>
       <c r="G48" s="3">
-        <v>2764000</v>
+        <v>2110700</v>
       </c>
       <c r="H48" s="3">
-        <v>2793500</v>
+        <v>2745000</v>
       </c>
       <c r="I48" s="3">
-        <v>2864000</v>
+        <v>2774300</v>
       </c>
       <c r="J48" s="3">
+        <v>2844400</v>
+      </c>
+      <c r="K48" s="3">
         <v>2744800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2799900</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3592600</v>
+        <v>3487700</v>
       </c>
       <c r="E49" s="3">
-        <v>3620800</v>
+        <v>3567900</v>
       </c>
       <c r="F49" s="3">
-        <v>1235100</v>
+        <v>3595900</v>
       </c>
       <c r="G49" s="3">
-        <v>1608400</v>
+        <v>1226700</v>
       </c>
       <c r="H49" s="3">
-        <v>1631500</v>
+        <v>1597300</v>
       </c>
       <c r="I49" s="3">
-        <v>1666100</v>
+        <v>1620300</v>
       </c>
       <c r="J49" s="3">
+        <v>1654700</v>
+      </c>
+      <c r="K49" s="3">
         <v>1622500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1587900</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,37 +1969,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>291200</v>
+        <v>294200</v>
       </c>
       <c r="E52" s="3">
-        <v>278300</v>
+        <v>289200</v>
       </c>
       <c r="F52" s="3">
-        <v>284700</v>
+        <v>276400</v>
       </c>
       <c r="G52" s="3">
-        <v>177000</v>
+        <v>282800</v>
       </c>
       <c r="H52" s="3">
-        <v>165500</v>
+        <v>175800</v>
       </c>
       <c r="I52" s="3">
-        <v>169300</v>
+        <v>164300</v>
       </c>
       <c r="J52" s="3">
+        <v>168100</v>
+      </c>
+      <c r="K52" s="3">
         <v>148800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>150100</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13737900</v>
+        <v>13018200</v>
       </c>
       <c r="E54" s="3">
-        <v>12791400</v>
+        <v>13643700</v>
       </c>
       <c r="F54" s="3">
-        <v>5358700</v>
+        <v>12703600</v>
       </c>
       <c r="G54" s="3">
-        <v>6378400</v>
+        <v>5321900</v>
       </c>
       <c r="H54" s="3">
-        <v>6127000</v>
+        <v>6334600</v>
       </c>
       <c r="I54" s="3">
-        <v>6624600</v>
+        <v>6084900</v>
       </c>
       <c r="J54" s="3">
-        <v>5987200</v>
+        <v>6579200</v>
       </c>
       <c r="K54" s="3">
         <v>5987200</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3">
+        <v>5987200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,37 +2095,41 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>955500</v>
+        <v>1100600</v>
       </c>
       <c r="E57" s="3">
-        <v>1028600</v>
+        <v>949000</v>
       </c>
       <c r="F57" s="3">
-        <v>498900</v>
+        <v>1021600</v>
       </c>
       <c r="G57" s="3">
-        <v>699000</v>
+        <v>495500</v>
       </c>
       <c r="H57" s="3">
-        <v>497600</v>
+        <v>694200</v>
       </c>
       <c r="I57" s="3">
-        <v>559200</v>
+        <v>494200</v>
       </c>
       <c r="J57" s="3">
+        <v>555400</v>
+      </c>
+      <c r="K57" s="3">
         <v>507900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>504100</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2003,144 +2137,159 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>482300</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>9000</v>
+        <v>478900</v>
       </c>
       <c r="G58" s="3">
-        <v>12800</v>
+        <v>8900</v>
       </c>
       <c r="H58" s="3">
-        <v>472000</v>
+        <v>12700</v>
       </c>
       <c r="I58" s="3">
-        <v>887600</v>
+        <v>468800</v>
       </c>
       <c r="J58" s="3">
+        <v>881500</v>
+      </c>
+      <c r="K58" s="3">
         <v>513000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>405300</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>679800</v>
+        <v>528600</v>
       </c>
       <c r="E59" s="3">
-        <v>348900</v>
+        <v>675100</v>
       </c>
       <c r="F59" s="3">
-        <v>169300</v>
+        <v>346500</v>
       </c>
       <c r="G59" s="3">
-        <v>143700</v>
+        <v>168100</v>
       </c>
       <c r="H59" s="3">
-        <v>56400</v>
+        <v>142700</v>
       </c>
       <c r="I59" s="3">
-        <v>56400</v>
+        <v>56000</v>
       </c>
       <c r="J59" s="3">
-        <v>52600</v>
+        <v>56000</v>
       </c>
       <c r="K59" s="3">
         <v>52600</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>52600</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1635300</v>
+        <v>1629200</v>
       </c>
       <c r="E60" s="3">
-        <v>1859800</v>
+        <v>1624100</v>
       </c>
       <c r="F60" s="3">
-        <v>677200</v>
+        <v>1847000</v>
       </c>
       <c r="G60" s="3">
-        <v>855500</v>
+        <v>672600</v>
       </c>
       <c r="H60" s="3">
-        <v>1026100</v>
+        <v>849600</v>
       </c>
       <c r="I60" s="3">
-        <v>1503200</v>
+        <v>1019000</v>
       </c>
       <c r="J60" s="3">
+        <v>1492900</v>
+      </c>
+      <c r="K60" s="3">
         <v>1073500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>962000</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>640000</v>
+        <v>635600</v>
       </c>
       <c r="E61" s="3">
-        <v>1076100</v>
+        <v>635600</v>
       </c>
       <c r="F61" s="3">
-        <v>641300</v>
+        <v>1068700</v>
       </c>
       <c r="G61" s="3">
-        <v>855500</v>
+        <v>636900</v>
       </c>
       <c r="H61" s="3">
+        <v>849600</v>
+      </c>
+      <c r="I61" s="3">
+        <v>868700</v>
+      </c>
+      <c r="J61" s="3">
+        <v>904400</v>
+      </c>
+      <c r="K61" s="3">
+        <v>844000</v>
+      </c>
+      <c r="L61" s="3">
         <v>874700</v>
       </c>
-      <c r="I61" s="3">
-        <v>910600</v>
-      </c>
-      <c r="J61" s="3">
-        <v>844000</v>
-      </c>
-      <c r="K61" s="3">
-        <v>874700</v>
-      </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1408300</v>
+        <v>1289100</v>
       </c>
       <c r="E62" s="3">
-        <v>1372400</v>
+        <v>1398600</v>
       </c>
       <c r="F62" s="3">
-        <v>910600</v>
+        <v>1363000</v>
       </c>
       <c r="G62" s="3">
-        <v>1055600</v>
+        <v>904400</v>
       </c>
       <c r="H62" s="3">
-        <v>1058100</v>
+        <v>1048300</v>
       </c>
       <c r="I62" s="3">
-        <v>838800</v>
+        <v>1050900</v>
       </c>
       <c r="J62" s="3">
+        <v>833100</v>
+      </c>
+      <c r="K62" s="3">
         <v>896500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>840100</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3683600</v>
+        <v>3553900</v>
       </c>
       <c r="E66" s="3">
-        <v>4308300</v>
+        <v>3658400</v>
       </c>
       <c r="F66" s="3">
-        <v>2180400</v>
+        <v>4278700</v>
       </c>
       <c r="G66" s="3">
-        <v>2766600</v>
+        <v>2165500</v>
       </c>
       <c r="H66" s="3">
-        <v>2959000</v>
+        <v>2747600</v>
       </c>
       <c r="I66" s="3">
-        <v>3252700</v>
+        <v>2938700</v>
       </c>
       <c r="J66" s="3">
+        <v>3230400</v>
+      </c>
+      <c r="K66" s="3">
         <v>2814000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2676800</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5461300</v>
+        <v>5400900</v>
       </c>
       <c r="E72" s="3">
-        <v>3746500</v>
+        <v>5423800</v>
       </c>
       <c r="F72" s="3">
-        <v>2869200</v>
+        <v>3720800</v>
       </c>
       <c r="G72" s="3">
-        <v>2797400</v>
+        <v>2849500</v>
       </c>
       <c r="H72" s="3">
-        <v>2334300</v>
+        <v>2778200</v>
       </c>
       <c r="I72" s="3">
-        <v>2497200</v>
+        <v>2318300</v>
       </c>
       <c r="J72" s="3">
+        <v>2480100</v>
+      </c>
+      <c r="K72" s="3">
         <v>2384400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2503600</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10054300</v>
+        <v>9464300</v>
       </c>
       <c r="E76" s="3">
-        <v>8483100</v>
+        <v>9985300</v>
       </c>
       <c r="F76" s="3">
-        <v>3178300</v>
+        <v>8424900</v>
       </c>
       <c r="G76" s="3">
-        <v>3611800</v>
+        <v>3156500</v>
       </c>
       <c r="H76" s="3">
-        <v>3168000</v>
+        <v>3587000</v>
       </c>
       <c r="I76" s="3">
-        <v>3372000</v>
+        <v>3146300</v>
       </c>
       <c r="J76" s="3">
+        <v>3348800</v>
+      </c>
+      <c r="K76" s="3">
         <v>3173200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3310400</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1908500</v>
+        <v>585900</v>
       </c>
       <c r="E81" s="3">
-        <v>852900</v>
+        <v>1895400</v>
       </c>
       <c r="F81" s="3">
-        <v>469400</v>
+        <v>847100</v>
       </c>
       <c r="G81" s="3">
-        <v>448900</v>
+        <v>466200</v>
       </c>
       <c r="H81" s="3">
-        <v>61600</v>
+        <v>445800</v>
       </c>
       <c r="I81" s="3">
+        <v>61100</v>
+      </c>
+      <c r="J81" s="3">
         <v>11500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-53900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-57700</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +2832,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>207800</v>
+        <v>187200</v>
       </c>
       <c r="E83" s="3">
-        <v>156500</v>
+        <v>206400</v>
       </c>
       <c r="F83" s="3">
-        <v>91100</v>
+        <v>155400</v>
       </c>
       <c r="G83" s="3">
+        <v>90400</v>
+      </c>
+      <c r="H83" s="3">
+        <v>84100</v>
+      </c>
+      <c r="I83" s="3">
+        <v>82800</v>
+      </c>
+      <c r="J83" s="3">
+        <v>89200</v>
+      </c>
+      <c r="K83" s="3">
         <v>84700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="L83" s="3">
         <v>83400</v>
       </c>
-      <c r="I83" s="3">
-        <v>89800</v>
-      </c>
-      <c r="J83" s="3">
-        <v>84700</v>
-      </c>
-      <c r="K83" s="3">
-        <v>83400</v>
-      </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2419000</v>
+        <v>1164300</v>
       </c>
       <c r="E89" s="3">
-        <v>592600</v>
+        <v>2402400</v>
       </c>
       <c r="F89" s="3">
-        <v>468100</v>
+        <v>588500</v>
       </c>
       <c r="G89" s="3">
-        <v>786200</v>
+        <v>464900</v>
       </c>
       <c r="H89" s="3">
-        <v>523300</v>
+        <v>780800</v>
       </c>
       <c r="I89" s="3">
-        <v>-116700</v>
+        <v>519700</v>
       </c>
       <c r="J89" s="3">
+        <v>-115900</v>
+      </c>
+      <c r="K89" s="3">
         <v>51300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>148800</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3070,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-84700</v>
+        <v>-135000</v>
       </c>
       <c r="E91" s="3">
-        <v>-79500</v>
+        <v>-84100</v>
       </c>
       <c r="F91" s="3">
-        <v>-79500</v>
+        <v>-79000</v>
       </c>
       <c r="G91" s="3">
-        <v>-77000</v>
+        <v>-79000</v>
       </c>
       <c r="H91" s="3">
-        <v>-94900</v>
+        <v>-76400</v>
       </c>
       <c r="I91" s="3">
-        <v>-57700</v>
+        <v>-94300</v>
       </c>
       <c r="J91" s="3">
+        <v>-57300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-111600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-170600</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3164,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-82100</v>
+        <v>-133700</v>
       </c>
       <c r="E94" s="3">
-        <v>746500</v>
+        <v>-81500</v>
       </c>
       <c r="F94" s="3">
-        <v>-73100</v>
+        <v>741400</v>
       </c>
       <c r="G94" s="3">
-        <v>-69300</v>
+        <v>-72600</v>
       </c>
       <c r="H94" s="3">
-        <v>-89800</v>
+        <v>-68800</v>
       </c>
       <c r="I94" s="3">
-        <v>-52600</v>
+        <v>-89200</v>
       </c>
       <c r="J94" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-111600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-162900</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,37 +3212,41 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-24400</v>
+        <v>-30600</v>
       </c>
       <c r="E96" s="3">
-        <v>-14100</v>
+        <v>-24200</v>
       </c>
       <c r="F96" s="3">
-        <v>-18000</v>
+        <v>-14000</v>
       </c>
       <c r="G96" s="3">
-        <v>-16700</v>
+        <v>-17800</v>
       </c>
       <c r="H96" s="3">
-        <v>-23100</v>
+        <v>-16600</v>
       </c>
       <c r="I96" s="3">
-        <v>-12800</v>
+        <v>-22900</v>
       </c>
       <c r="J96" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-11500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-21800</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,91 +3338,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1282600</v>
+        <v>-1178300</v>
       </c>
       <c r="E100" s="3">
-        <v>-139800</v>
+        <v>-1273800</v>
       </c>
       <c r="F100" s="3">
-        <v>-33300</v>
+        <v>-138800</v>
       </c>
       <c r="G100" s="3">
-        <v>-487400</v>
+        <v>-33100</v>
       </c>
       <c r="H100" s="3">
-        <v>-454000</v>
+        <v>-484000</v>
       </c>
       <c r="I100" s="3">
-        <v>364300</v>
+        <v>-450900</v>
       </c>
       <c r="J100" s="3">
+        <v>361800</v>
+      </c>
+      <c r="K100" s="3">
         <v>39800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>57700</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E101" s="3">
         <v>11500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>5100</v>
       </c>
-      <c r="F101" s="3">
-        <v>-10300</v>
-      </c>
       <c r="G101" s="3">
-        <v>9000</v>
+        <v>-10200</v>
       </c>
       <c r="H101" s="3">
+        <v>8900</v>
+      </c>
+      <c r="I101" s="3">
         <v>-6400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-5100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>3800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1065800</v>
+        <v>-160500</v>
       </c>
       <c r="E102" s="3">
-        <v>1204400</v>
+        <v>1058500</v>
       </c>
       <c r="F102" s="3">
-        <v>351400</v>
+        <v>1196100</v>
       </c>
       <c r="G102" s="3">
-        <v>238600</v>
+        <v>349000</v>
       </c>
       <c r="H102" s="3">
-        <v>42300</v>
+        <v>236900</v>
       </c>
       <c r="I102" s="3">
-        <v>120600</v>
+        <v>42000</v>
       </c>
       <c r="J102" s="3">
+        <v>119700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-16700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>42300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WFG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WFG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>WFG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,167 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3003600</v>
+        <v>2597000</v>
       </c>
       <c r="E8" s="3">
-        <v>4813700</v>
+        <v>3004800</v>
       </c>
       <c r="F8" s="3">
-        <v>2984500</v>
+        <v>4815600</v>
       </c>
       <c r="G8" s="3">
-        <v>2151400</v>
+        <v>2985700</v>
       </c>
       <c r="H8" s="3">
-        <v>2152700</v>
+        <v>1648900</v>
       </c>
       <c r="I8" s="3">
-        <v>1625400</v>
+        <v>1615800</v>
       </c>
       <c r="J8" s="3">
+        <v>1173600</v>
+      </c>
+      <c r="K8" s="3">
         <v>1133700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1448100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1526300</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1545100</v>
+        <v>1475600</v>
       </c>
       <c r="E9" s="3">
-        <v>1573100</v>
+        <v>1545700</v>
       </c>
       <c r="F9" s="3">
-        <v>1323500</v>
+        <v>1573800</v>
       </c>
       <c r="G9" s="3">
-        <v>1141300</v>
+        <v>1324000</v>
       </c>
       <c r="H9" s="3">
-        <v>1067400</v>
+        <v>874200</v>
       </c>
       <c r="I9" s="3">
-        <v>1087800</v>
+        <v>800300</v>
       </c>
       <c r="J9" s="3">
+        <v>783700</v>
+      </c>
+      <c r="K9" s="3">
         <v>802500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1064600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1162000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1458500</v>
+        <v>1121400</v>
       </c>
       <c r="E10" s="3">
-        <v>3240500</v>
+        <v>1459100</v>
       </c>
       <c r="F10" s="3">
-        <v>1661000</v>
+        <v>3241800</v>
       </c>
       <c r="G10" s="3">
-        <v>1010100</v>
+        <v>1661700</v>
       </c>
       <c r="H10" s="3">
-        <v>1085300</v>
+        <v>774800</v>
       </c>
       <c r="I10" s="3">
-        <v>537500</v>
+        <v>815600</v>
       </c>
       <c r="J10" s="3">
+        <v>389900</v>
+      </c>
+      <c r="K10" s="3">
         <v>331200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>383500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>364300</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,8 +838,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -858,8 +871,11 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,8 +906,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -904,8 +923,8 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -913,49 +932,55 @@
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>10300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>187200</v>
+        <v>195000</v>
       </c>
       <c r="E15" s="3">
+        <v>187300</v>
+      </c>
+      <c r="F15" s="3">
         <v>206400</v>
       </c>
-      <c r="F15" s="3">
-        <v>155400</v>
-      </c>
       <c r="G15" s="3">
-        <v>90400</v>
+        <v>155500</v>
       </c>
       <c r="H15" s="3">
-        <v>84100</v>
+        <v>68800</v>
       </c>
       <c r="I15" s="3">
-        <v>82800</v>
+        <v>63700</v>
       </c>
       <c r="J15" s="3">
+        <v>59900</v>
+      </c>
+      <c r="K15" s="3">
         <v>66200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>84700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>83400</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +990,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2201100</v>
+        <v>2023600</v>
       </c>
       <c r="E17" s="3">
-        <v>2283900</v>
+        <v>2202000</v>
       </c>
       <c r="F17" s="3">
-        <v>1864800</v>
+        <v>2284800</v>
       </c>
       <c r="G17" s="3">
-        <v>1495400</v>
+        <v>1865600</v>
       </c>
       <c r="H17" s="3">
-        <v>1532400</v>
+        <v>1145600</v>
       </c>
       <c r="I17" s="3">
-        <v>1519600</v>
+        <v>1149400</v>
       </c>
       <c r="J17" s="3">
+        <v>1095900</v>
+      </c>
+      <c r="K17" s="3">
         <v>1122200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1487800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1595600</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>802500</v>
+        <v>573400</v>
       </c>
       <c r="E18" s="3">
-        <v>2529800</v>
+        <v>802800</v>
       </c>
       <c r="F18" s="3">
-        <v>1119700</v>
+        <v>2530800</v>
       </c>
       <c r="G18" s="3">
-        <v>656000</v>
+        <v>1120100</v>
       </c>
       <c r="H18" s="3">
-        <v>620300</v>
+        <v>503300</v>
       </c>
       <c r="I18" s="3">
-        <v>105700</v>
+        <v>466400</v>
       </c>
       <c r="J18" s="3">
+        <v>77700</v>
+      </c>
+      <c r="K18" s="3">
         <v>11500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-39800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-69300</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,72 +1075,79 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-7600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-25500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-11500</v>
       </c>
-      <c r="G20" s="3">
-        <v>-17800</v>
-      </c>
       <c r="H20" s="3">
-        <v>-28000</v>
+        <v>-12700</v>
       </c>
       <c r="I20" s="3">
         <v>-20400</v>
       </c>
       <c r="J20" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-3800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-19200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-12800</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>982100</v>
+        <v>753100</v>
       </c>
       <c r="E21" s="3">
-        <v>2710600</v>
+        <v>982500</v>
       </c>
       <c r="F21" s="3">
-        <v>1263600</v>
+        <v>2711700</v>
       </c>
       <c r="G21" s="3">
-        <v>728600</v>
+        <v>1264100</v>
       </c>
       <c r="H21" s="3">
-        <v>676400</v>
+        <v>559400</v>
       </c>
       <c r="I21" s="3">
-        <v>191100</v>
+        <v>509700</v>
       </c>
       <c r="J21" s="3">
+        <v>122300</v>
+      </c>
+      <c r="K21" s="3">
         <v>73900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>25700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1139,72 +1178,81 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>794900</v>
+        <v>558100</v>
       </c>
       <c r="E23" s="3">
-        <v>2504300</v>
+        <v>795200</v>
       </c>
       <c r="F23" s="3">
-        <v>1108200</v>
+        <v>2505300</v>
       </c>
       <c r="G23" s="3">
-        <v>638200</v>
+        <v>1108600</v>
       </c>
       <c r="H23" s="3">
-        <v>592300</v>
+        <v>490600</v>
       </c>
       <c r="I23" s="3">
-        <v>85300</v>
+        <v>446000</v>
       </c>
       <c r="J23" s="3">
+        <v>62400</v>
+      </c>
+      <c r="K23" s="3">
         <v>7600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-59000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-82100</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>208900</v>
+        <v>132500</v>
       </c>
       <c r="E24" s="3">
-        <v>608900</v>
+        <v>209000</v>
       </c>
       <c r="F24" s="3">
-        <v>261100</v>
+        <v>609100</v>
       </c>
       <c r="G24" s="3">
-        <v>172000</v>
+        <v>261200</v>
       </c>
       <c r="H24" s="3">
-        <v>146500</v>
+        <v>131300</v>
       </c>
       <c r="I24" s="3">
-        <v>24200</v>
+        <v>112100</v>
       </c>
       <c r="J24" s="3">
+        <v>17800</v>
+      </c>
+      <c r="K24" s="3">
         <v>-3800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-5100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-24400</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1283,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>585900</v>
+        <v>425600</v>
       </c>
       <c r="E26" s="3">
-        <v>1895400</v>
+        <v>586200</v>
       </c>
       <c r="F26" s="3">
-        <v>847100</v>
+        <v>1896200</v>
       </c>
       <c r="G26" s="3">
-        <v>466200</v>
+        <v>847400</v>
       </c>
       <c r="H26" s="3">
-        <v>445800</v>
+        <v>359400</v>
       </c>
       <c r="I26" s="3">
-        <v>61100</v>
+        <v>333900</v>
       </c>
       <c r="J26" s="3">
+        <v>44600</v>
+      </c>
+      <c r="K26" s="3">
         <v>11500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-53900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-57700</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>585900</v>
+        <v>425600</v>
       </c>
       <c r="E27" s="3">
-        <v>1895400</v>
+        <v>586200</v>
       </c>
       <c r="F27" s="3">
-        <v>847100</v>
+        <v>1896200</v>
       </c>
       <c r="G27" s="3">
-        <v>466200</v>
+        <v>847400</v>
       </c>
       <c r="H27" s="3">
-        <v>445800</v>
+        <v>359400</v>
       </c>
       <c r="I27" s="3">
-        <v>61100</v>
+        <v>333900</v>
       </c>
       <c r="J27" s="3">
+        <v>44600</v>
+      </c>
+      <c r="K27" s="3">
         <v>11500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-53900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-57700</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1388,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1423,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1458,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,72 +1493,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E32" s="3">
         <v>7600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>25500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>11500</v>
       </c>
-      <c r="G32" s="3">
-        <v>17800</v>
-      </c>
       <c r="H32" s="3">
-        <v>28000</v>
+        <v>12700</v>
       </c>
       <c r="I32" s="3">
         <v>20400</v>
       </c>
       <c r="J32" s="3">
+        <v>15300</v>
+      </c>
+      <c r="K32" s="3">
         <v>3800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>19200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>585900</v>
+        <v>425600</v>
       </c>
       <c r="E33" s="3">
-        <v>1895400</v>
+        <v>586200</v>
       </c>
       <c r="F33" s="3">
-        <v>847100</v>
+        <v>1896200</v>
       </c>
       <c r="G33" s="3">
-        <v>466200</v>
+        <v>847400</v>
       </c>
       <c r="H33" s="3">
-        <v>445800</v>
+        <v>359400</v>
       </c>
       <c r="I33" s="3">
-        <v>61100</v>
+        <v>333900</v>
       </c>
       <c r="J33" s="3">
+        <v>44600</v>
+      </c>
+      <c r="K33" s="3">
         <v>11500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-53900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-57700</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1598,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>585900</v>
+        <v>425600</v>
       </c>
       <c r="E35" s="3">
-        <v>1895400</v>
+        <v>586200</v>
       </c>
       <c r="F35" s="3">
-        <v>847100</v>
+        <v>1896200</v>
       </c>
       <c r="G35" s="3">
-        <v>466200</v>
+        <v>847400</v>
       </c>
       <c r="H35" s="3">
-        <v>445800</v>
+        <v>359400</v>
       </c>
       <c r="I35" s="3">
-        <v>61100</v>
+        <v>333900</v>
       </c>
       <c r="J35" s="3">
+        <v>44600</v>
+      </c>
+      <c r="K35" s="3">
         <v>11500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-53900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-57700</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1690,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,40 +1705,44 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2681300</v>
+        <v>1998100</v>
       </c>
       <c r="E41" s="3">
-        <v>2841800</v>
+        <v>2682400</v>
       </c>
       <c r="F41" s="3">
-        <v>1783300</v>
+        <v>2843000</v>
       </c>
       <c r="G41" s="3">
-        <v>587200</v>
+        <v>1784000</v>
       </c>
       <c r="H41" s="3">
-        <v>398700</v>
+        <v>587500</v>
       </c>
       <c r="I41" s="3">
+        <v>398900</v>
+      </c>
+      <c r="J41" s="3">
         <v>161800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>119700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>20500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,136 +1773,151 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>708200</v>
+        <v>700900</v>
       </c>
       <c r="E43" s="3">
-        <v>1017800</v>
+        <v>708500</v>
       </c>
       <c r="F43" s="3">
-        <v>864900</v>
+        <v>1018200</v>
       </c>
       <c r="G43" s="3">
-        <v>363000</v>
+        <v>865200</v>
       </c>
       <c r="H43" s="3">
-        <v>531200</v>
+        <v>363200</v>
       </c>
       <c r="I43" s="3">
-        <v>503200</v>
+        <v>531400</v>
       </c>
       <c r="J43" s="3">
+        <v>503300</v>
+      </c>
+      <c r="K43" s="3">
         <v>573200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>504100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>560500</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1194800</v>
+        <v>1352000</v>
       </c>
       <c r="E44" s="3">
-        <v>1230500</v>
+        <v>1195300</v>
       </c>
       <c r="F44" s="3">
-        <v>1448300</v>
+        <v>1231000</v>
       </c>
       <c r="G44" s="3">
-        <v>736300</v>
+        <v>1448900</v>
       </c>
       <c r="H44" s="3">
-        <v>863600</v>
+        <v>736500</v>
       </c>
       <c r="I44" s="3">
-        <v>834300</v>
+        <v>864000</v>
       </c>
       <c r="J44" s="3">
+        <v>834700</v>
+      </c>
+      <c r="K44" s="3">
         <v>1201200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>935000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>844000</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>48400</v>
+      </c>
+      <c r="E45" s="3">
         <v>67500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>79000</v>
       </c>
-      <c r="F45" s="3">
-        <v>36900</v>
-      </c>
       <c r="G45" s="3">
+        <v>37000</v>
+      </c>
+      <c r="H45" s="3">
         <v>15300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>22900</v>
       </c>
-      <c r="I45" s="3">
-        <v>26700</v>
-      </c>
       <c r="J45" s="3">
+        <v>26800</v>
+      </c>
+      <c r="K45" s="3">
         <v>17800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>11500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>23100</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4651900</v>
+        <v>4099400</v>
       </c>
       <c r="E46" s="3">
-        <v>5169100</v>
+        <v>4653700</v>
       </c>
       <c r="F46" s="3">
-        <v>4133500</v>
+        <v>5171100</v>
       </c>
       <c r="G46" s="3">
-        <v>1701800</v>
+        <v>4135100</v>
       </c>
       <c r="H46" s="3">
-        <v>1816400</v>
+        <v>1702500</v>
       </c>
       <c r="I46" s="3">
-        <v>1526000</v>
+        <v>1817200</v>
       </c>
       <c r="J46" s="3">
+        <v>1526600</v>
+      </c>
+      <c r="K46" s="3">
         <v>1912000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1471100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1449300</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1844,72 +1948,81 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4584400</v>
+        <v>5224600</v>
       </c>
       <c r="E48" s="3">
-        <v>4617500</v>
+        <v>4586200</v>
       </c>
       <c r="F48" s="3">
-        <v>4697800</v>
+        <v>4619300</v>
       </c>
       <c r="G48" s="3">
-        <v>2110700</v>
+        <v>4699600</v>
       </c>
       <c r="H48" s="3">
-        <v>2745000</v>
+        <v>2111500</v>
       </c>
       <c r="I48" s="3">
-        <v>2774300</v>
+        <v>2746100</v>
       </c>
       <c r="J48" s="3">
+        <v>2775400</v>
+      </c>
+      <c r="K48" s="3">
         <v>2844400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2744800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2799900</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3487700</v>
+        <v>3578200</v>
       </c>
       <c r="E49" s="3">
-        <v>3567900</v>
+        <v>3489000</v>
       </c>
       <c r="F49" s="3">
-        <v>3595900</v>
+        <v>3569300</v>
       </c>
       <c r="G49" s="3">
-        <v>1226700</v>
+        <v>3597300</v>
       </c>
       <c r="H49" s="3">
-        <v>1597300</v>
+        <v>1227200</v>
       </c>
       <c r="I49" s="3">
-        <v>1620300</v>
+        <v>1598000</v>
       </c>
       <c r="J49" s="3">
+        <v>1620900</v>
+      </c>
+      <c r="K49" s="3">
         <v>1654700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1622500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1587900</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2053,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,40 +2088,46 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>294200</v>
+        <v>392500</v>
       </c>
       <c r="E52" s="3">
-        <v>289200</v>
+        <v>294400</v>
       </c>
       <c r="F52" s="3">
-        <v>276400</v>
+        <v>289300</v>
       </c>
       <c r="G52" s="3">
-        <v>282800</v>
+        <v>276500</v>
       </c>
       <c r="H52" s="3">
-        <v>175800</v>
+        <v>282900</v>
       </c>
       <c r="I52" s="3">
-        <v>164300</v>
+        <v>175900</v>
       </c>
       <c r="J52" s="3">
+        <v>164400</v>
+      </c>
+      <c r="K52" s="3">
         <v>168100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>148800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>150100</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2158,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13018200</v>
+        <v>13294800</v>
       </c>
       <c r="E54" s="3">
-        <v>13643700</v>
+        <v>13023300</v>
       </c>
       <c r="F54" s="3">
-        <v>12703600</v>
+        <v>13649000</v>
       </c>
       <c r="G54" s="3">
-        <v>5321900</v>
+        <v>12708600</v>
       </c>
       <c r="H54" s="3">
-        <v>6334600</v>
+        <v>5324000</v>
       </c>
       <c r="I54" s="3">
-        <v>6084900</v>
+        <v>6337100</v>
       </c>
       <c r="J54" s="3">
+        <v>6087300</v>
+      </c>
+      <c r="K54" s="3">
         <v>6579200</v>
-      </c>
-      <c r="K54" s="3">
-        <v>5987200</v>
       </c>
       <c r="L54" s="3">
         <v>5987200</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3">
+        <v>5987200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2210,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,40 +2225,44 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1100600</v>
+        <v>1080600</v>
       </c>
       <c r="E57" s="3">
-        <v>949000</v>
+        <v>1101000</v>
       </c>
       <c r="F57" s="3">
-        <v>1021600</v>
+        <v>949400</v>
       </c>
       <c r="G57" s="3">
-        <v>495500</v>
+        <v>1022000</v>
       </c>
       <c r="H57" s="3">
-        <v>694200</v>
+        <v>495700</v>
       </c>
       <c r="I57" s="3">
-        <v>494200</v>
+        <v>694500</v>
       </c>
       <c r="J57" s="3">
+        <v>494400</v>
+      </c>
+      <c r="K57" s="3">
         <v>555400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>507900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>504100</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2140,156 +2273,171 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>478900</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>479100</v>
+      </c>
+      <c r="H58" s="3">
         <v>8900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>12700</v>
       </c>
-      <c r="I58" s="3">
-        <v>468800</v>
-      </c>
       <c r="J58" s="3">
+        <v>468900</v>
+      </c>
+      <c r="K58" s="3">
         <v>881500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>513000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>405300</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>528600</v>
+        <v>456200</v>
       </c>
       <c r="E59" s="3">
-        <v>675100</v>
+        <v>528800</v>
       </c>
       <c r="F59" s="3">
-        <v>346500</v>
+        <v>675400</v>
       </c>
       <c r="G59" s="3">
-        <v>168100</v>
+        <v>346600</v>
       </c>
       <c r="H59" s="3">
+        <v>168200</v>
+      </c>
+      <c r="I59" s="3">
         <v>142700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
+        <v>56100</v>
+      </c>
+      <c r="K59" s="3">
         <v>56000</v>
-      </c>
-      <c r="J59" s="3">
-        <v>56000</v>
-      </c>
-      <c r="K59" s="3">
-        <v>52600</v>
       </c>
       <c r="L59" s="3">
         <v>52600</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3">
+        <v>52600</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1629200</v>
+        <v>1536800</v>
       </c>
       <c r="E60" s="3">
-        <v>1624100</v>
+        <v>1629800</v>
       </c>
       <c r="F60" s="3">
-        <v>1847000</v>
+        <v>1624700</v>
       </c>
       <c r="G60" s="3">
-        <v>672600</v>
+        <v>1847700</v>
       </c>
       <c r="H60" s="3">
-        <v>849600</v>
+        <v>672800</v>
       </c>
       <c r="I60" s="3">
-        <v>1019000</v>
+        <v>850000</v>
       </c>
       <c r="J60" s="3">
+        <v>1019400</v>
+      </c>
+      <c r="K60" s="3">
         <v>1492900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1073500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>962000</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>635600</v>
+        <v>635900</v>
       </c>
       <c r="E61" s="3">
-        <v>635600</v>
+        <v>635900</v>
       </c>
       <c r="F61" s="3">
-        <v>1068700</v>
+        <v>635900</v>
       </c>
       <c r="G61" s="3">
-        <v>636900</v>
+        <v>1069100</v>
       </c>
       <c r="H61" s="3">
-        <v>849600</v>
+        <v>637200</v>
       </c>
       <c r="I61" s="3">
-        <v>868700</v>
+        <v>850000</v>
       </c>
       <c r="J61" s="3">
+        <v>869100</v>
+      </c>
+      <c r="K61" s="3">
         <v>904400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>844000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>874700</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1289100</v>
+        <v>1366000</v>
       </c>
       <c r="E62" s="3">
-        <v>1398600</v>
+        <v>1289600</v>
       </c>
       <c r="F62" s="3">
-        <v>1363000</v>
+        <v>1399200</v>
       </c>
       <c r="G62" s="3">
-        <v>904400</v>
+        <v>1363500</v>
       </c>
       <c r="H62" s="3">
-        <v>1048300</v>
+        <v>904800</v>
       </c>
       <c r="I62" s="3">
-        <v>1050900</v>
+        <v>1048700</v>
       </c>
       <c r="J62" s="3">
+        <v>1051300</v>
+      </c>
+      <c r="K62" s="3">
         <v>833100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>896500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>840100</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2468,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2503,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2538,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3553900</v>
+        <v>3538700</v>
       </c>
       <c r="E66" s="3">
-        <v>3658400</v>
+        <v>3555300</v>
       </c>
       <c r="F66" s="3">
-        <v>4278700</v>
+        <v>3659800</v>
       </c>
       <c r="G66" s="3">
-        <v>2165500</v>
+        <v>4280400</v>
       </c>
       <c r="H66" s="3">
-        <v>2747600</v>
+        <v>2166300</v>
       </c>
       <c r="I66" s="3">
-        <v>2938700</v>
+        <v>2748700</v>
       </c>
       <c r="J66" s="3">
+        <v>2939800</v>
+      </c>
+      <c r="K66" s="3">
         <v>3230400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2814000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2676800</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2590,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2623,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2658,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2693,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2728,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5400900</v>
+        <v>5738200</v>
       </c>
       <c r="E72" s="3">
-        <v>5423800</v>
+        <v>5403000</v>
       </c>
       <c r="F72" s="3">
-        <v>3720800</v>
+        <v>5426000</v>
       </c>
       <c r="G72" s="3">
-        <v>2849500</v>
+        <v>3722200</v>
       </c>
       <c r="H72" s="3">
-        <v>2778200</v>
+        <v>2850600</v>
       </c>
       <c r="I72" s="3">
-        <v>2318300</v>
+        <v>2779200</v>
       </c>
       <c r="J72" s="3">
+        <v>2319200</v>
+      </c>
+      <c r="K72" s="3">
         <v>2480100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2384400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2503600</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2798,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2833,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +2868,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9464300</v>
+        <v>9756000</v>
       </c>
       <c r="E76" s="3">
-        <v>9985300</v>
+        <v>9468000</v>
       </c>
       <c r="F76" s="3">
-        <v>8424900</v>
+        <v>9989200</v>
       </c>
       <c r="G76" s="3">
-        <v>3156500</v>
+        <v>8428200</v>
       </c>
       <c r="H76" s="3">
-        <v>3587000</v>
+        <v>3157700</v>
       </c>
       <c r="I76" s="3">
-        <v>3146300</v>
+        <v>3588400</v>
       </c>
       <c r="J76" s="3">
+        <v>3147500</v>
+      </c>
+      <c r="K76" s="3">
         <v>3348800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3173200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3310400</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +2938,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>585900</v>
+        <v>425600</v>
       </c>
       <c r="E81" s="3">
-        <v>1895400</v>
+        <v>586200</v>
       </c>
       <c r="F81" s="3">
-        <v>847100</v>
+        <v>1896200</v>
       </c>
       <c r="G81" s="3">
-        <v>466200</v>
+        <v>847400</v>
       </c>
       <c r="H81" s="3">
-        <v>445800</v>
+        <v>359400</v>
       </c>
       <c r="I81" s="3">
-        <v>61100</v>
+        <v>333900</v>
       </c>
       <c r="J81" s="3">
+        <v>44600</v>
+      </c>
+      <c r="K81" s="3">
         <v>11500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-53900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-57700</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,40 +3030,44 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>187200</v>
+        <v>195000</v>
       </c>
       <c r="E83" s="3">
+        <v>187300</v>
+      </c>
+      <c r="F83" s="3">
         <v>206400</v>
       </c>
-      <c r="F83" s="3">
-        <v>155400</v>
-      </c>
       <c r="G83" s="3">
-        <v>90400</v>
+        <v>155500</v>
       </c>
       <c r="H83" s="3">
+        <v>90500</v>
+      </c>
+      <c r="I83" s="3">
         <v>84100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>82800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>89200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>84700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>83400</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3098,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3133,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3168,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3203,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3238,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1164300</v>
+        <v>369500</v>
       </c>
       <c r="E89" s="3">
-        <v>2402400</v>
+        <v>1164700</v>
       </c>
       <c r="F89" s="3">
-        <v>588500</v>
+        <v>2403300</v>
       </c>
       <c r="G89" s="3">
-        <v>464900</v>
+        <v>588700</v>
       </c>
       <c r="H89" s="3">
-        <v>780800</v>
+        <v>465100</v>
       </c>
       <c r="I89" s="3">
-        <v>519700</v>
+        <v>781100</v>
       </c>
       <c r="J89" s="3">
+        <v>519900</v>
+      </c>
+      <c r="K89" s="3">
         <v>-115900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>51300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>148800</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,40 +3290,44 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-135000</v>
+        <v>-511000</v>
       </c>
       <c r="E91" s="3">
+        <v>-135100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-84100</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-79000</v>
       </c>
       <c r="G91" s="3">
         <v>-79000</v>
       </c>
       <c r="H91" s="3">
-        <v>-76400</v>
+        <v>-57300</v>
       </c>
       <c r="I91" s="3">
-        <v>-94300</v>
+        <v>-59900</v>
       </c>
       <c r="J91" s="3">
+        <v>-54800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-57300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-111600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-170600</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3358,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,40 +3393,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-133700</v>
+        <v>-890700</v>
       </c>
       <c r="E94" s="3">
-        <v>-81500</v>
+        <v>-133800</v>
       </c>
       <c r="F94" s="3">
-        <v>741400</v>
+        <v>-81600</v>
       </c>
       <c r="G94" s="3">
-        <v>-72600</v>
+        <v>741600</v>
       </c>
       <c r="H94" s="3">
-        <v>-68800</v>
+        <v>-53500</v>
       </c>
       <c r="I94" s="3">
-        <v>-89200</v>
+        <v>-53500</v>
       </c>
       <c r="J94" s="3">
         <v>-52200</v>
       </c>
       <c r="K94" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="L94" s="3">
         <v>-111600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-162900</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,40 +3445,44 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="E96" s="3">
         <v>-30600</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-24200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-14000</v>
       </c>
-      <c r="G96" s="3">
-        <v>-17800</v>
-      </c>
       <c r="H96" s="3">
-        <v>-16600</v>
+        <v>-14000</v>
       </c>
       <c r="I96" s="3">
-        <v>-22900</v>
+        <v>-12700</v>
       </c>
       <c r="J96" s="3">
         <v>-12700</v>
       </c>
       <c r="K96" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="L96" s="3">
         <v>-11500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-21800</v>
       </c>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3513,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3548,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,100 +3583,112 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1178300</v>
+        <v>-165700</v>
       </c>
       <c r="E100" s="3">
-        <v>-1273800</v>
+        <v>-1178700</v>
       </c>
       <c r="F100" s="3">
-        <v>-138800</v>
+        <v>-1274300</v>
       </c>
       <c r="G100" s="3">
-        <v>-33100</v>
+        <v>-138900</v>
       </c>
       <c r="H100" s="3">
-        <v>-484000</v>
+        <v>-25500</v>
       </c>
       <c r="I100" s="3">
-        <v>-450900</v>
+        <v>-360600</v>
       </c>
       <c r="J100" s="3">
+        <v>-425600</v>
+      </c>
+      <c r="K100" s="3">
         <v>361800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>39800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>57700</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-12700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>11500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>5100</v>
       </c>
-      <c r="G101" s="3">
-        <v>-10200</v>
-      </c>
       <c r="H101" s="3">
-        <v>8900</v>
+        <v>16600</v>
       </c>
       <c r="I101" s="3">
-        <v>-6400</v>
+        <v>1300</v>
       </c>
       <c r="J101" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K101" s="3">
         <v>-5100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-160500</v>
+        <v>-684300</v>
       </c>
       <c r="E102" s="3">
-        <v>1058500</v>
+        <v>-160600</v>
       </c>
       <c r="F102" s="3">
-        <v>1196100</v>
+        <v>1058900</v>
       </c>
       <c r="G102" s="3">
-        <v>349000</v>
+        <v>1196600</v>
       </c>
       <c r="H102" s="3">
-        <v>236900</v>
+        <v>349200</v>
       </c>
       <c r="I102" s="3">
-        <v>42000</v>
+        <v>237000</v>
       </c>
       <c r="J102" s="3">
+        <v>42100</v>
+      </c>
+      <c r="K102" s="3">
         <v>119700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-16700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>42300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WFG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WFG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>WFG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,180 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2597000</v>
+        <v>4056700</v>
       </c>
       <c r="E8" s="3">
-        <v>3004800</v>
+        <v>2658400</v>
       </c>
       <c r="F8" s="3">
-        <v>4815600</v>
+        <v>3075800</v>
       </c>
       <c r="G8" s="3">
-        <v>2985700</v>
+        <v>4929300</v>
       </c>
       <c r="H8" s="3">
-        <v>1648900</v>
+        <v>3056200</v>
       </c>
       <c r="I8" s="3">
-        <v>1615800</v>
+        <v>1687900</v>
       </c>
       <c r="J8" s="3">
+        <v>1654000</v>
+      </c>
+      <c r="K8" s="3">
         <v>1173600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1133700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1448100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1526300</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1475600</v>
+        <v>1535300</v>
       </c>
       <c r="E9" s="3">
-        <v>1545700</v>
+        <v>1510500</v>
       </c>
       <c r="F9" s="3">
-        <v>1573800</v>
+        <v>1582200</v>
       </c>
       <c r="G9" s="3">
-        <v>1324000</v>
+        <v>1610900</v>
       </c>
       <c r="H9" s="3">
-        <v>874200</v>
+        <v>1355300</v>
       </c>
       <c r="I9" s="3">
-        <v>800300</v>
+        <v>894800</v>
       </c>
       <c r="J9" s="3">
+        <v>819200</v>
+      </c>
+      <c r="K9" s="3">
         <v>783700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>802500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1064600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1162000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1121400</v>
+        <v>2521400</v>
       </c>
       <c r="E10" s="3">
-        <v>1459100</v>
+        <v>1147900</v>
       </c>
       <c r="F10" s="3">
-        <v>3241800</v>
+        <v>1493500</v>
       </c>
       <c r="G10" s="3">
-        <v>1661700</v>
+        <v>3318400</v>
       </c>
       <c r="H10" s="3">
-        <v>774800</v>
+        <v>1700900</v>
       </c>
       <c r="I10" s="3">
-        <v>815600</v>
+        <v>793100</v>
       </c>
       <c r="J10" s="3">
+        <v>834800</v>
+      </c>
+      <c r="K10" s="3">
         <v>389900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>331200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>383500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>364300</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -839,8 +852,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -874,8 +888,11 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,13 +926,16 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>17000</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -926,8 +946,8 @@
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -935,52 +955,58 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>10300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>195000</v>
+        <v>204800</v>
       </c>
       <c r="E15" s="3">
-        <v>187300</v>
+        <v>199600</v>
       </c>
       <c r="F15" s="3">
-        <v>206400</v>
+        <v>191700</v>
       </c>
       <c r="G15" s="3">
-        <v>155500</v>
+        <v>211300</v>
       </c>
       <c r="H15" s="3">
-        <v>68800</v>
+        <v>159100</v>
       </c>
       <c r="I15" s="3">
-        <v>63700</v>
+        <v>70400</v>
       </c>
       <c r="J15" s="3">
+        <v>65200</v>
+      </c>
+      <c r="K15" s="3">
         <v>59900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>66200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>84700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>83400</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,78 +1017,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2023600</v>
+        <v>2195300</v>
       </c>
       <c r="E17" s="3">
-        <v>2202000</v>
+        <v>2071400</v>
       </c>
       <c r="F17" s="3">
-        <v>2284800</v>
+        <v>2254000</v>
       </c>
       <c r="G17" s="3">
-        <v>1865600</v>
+        <v>2338800</v>
       </c>
       <c r="H17" s="3">
-        <v>1145600</v>
+        <v>1909600</v>
       </c>
       <c r="I17" s="3">
-        <v>1149400</v>
+        <v>1172700</v>
       </c>
       <c r="J17" s="3">
+        <v>1176600</v>
+      </c>
+      <c r="K17" s="3">
         <v>1095900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1122200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1487800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1595600</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>573400</v>
+        <v>1861400</v>
       </c>
       <c r="E18" s="3">
-        <v>802800</v>
+        <v>587000</v>
       </c>
       <c r="F18" s="3">
-        <v>2530800</v>
+        <v>821800</v>
       </c>
       <c r="G18" s="3">
-        <v>1120100</v>
+        <v>2590500</v>
       </c>
       <c r="H18" s="3">
-        <v>503300</v>
+        <v>1146600</v>
       </c>
       <c r="I18" s="3">
-        <v>466400</v>
+        <v>515200</v>
       </c>
       <c r="J18" s="3">
+        <v>477400</v>
+      </c>
+      <c r="K18" s="3">
         <v>77700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>11500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-39800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-69300</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,78 +1109,85 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-15300</v>
       </c>
-      <c r="E20" s="3">
-        <v>-7600</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-25500</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-11500</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-12700</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-20400</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-15300</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-19200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-12800</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>753100</v>
+        <v>2057000</v>
       </c>
       <c r="E21" s="3">
-        <v>982500</v>
+        <v>770900</v>
       </c>
       <c r="F21" s="3">
-        <v>2711700</v>
+        <v>1005700</v>
       </c>
       <c r="G21" s="3">
-        <v>1264100</v>
+        <v>2775800</v>
       </c>
       <c r="H21" s="3">
-        <v>559400</v>
+        <v>1294000</v>
       </c>
       <c r="I21" s="3">
-        <v>509700</v>
+        <v>572600</v>
       </c>
       <c r="J21" s="3">
+        <v>521800</v>
+      </c>
+      <c r="K21" s="3">
         <v>122300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>73900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>25700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1181,78 +1221,87 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>558100</v>
+        <v>1852200</v>
       </c>
       <c r="E23" s="3">
-        <v>795200</v>
+        <v>571300</v>
       </c>
       <c r="F23" s="3">
-        <v>2505300</v>
+        <v>813900</v>
       </c>
       <c r="G23" s="3">
-        <v>1108600</v>
+        <v>2564500</v>
       </c>
       <c r="H23" s="3">
-        <v>490600</v>
+        <v>1134800</v>
       </c>
       <c r="I23" s="3">
-        <v>446000</v>
+        <v>502200</v>
       </c>
       <c r="J23" s="3">
+        <v>456500</v>
+      </c>
+      <c r="K23" s="3">
         <v>62400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-59000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-82100</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>132500</v>
+        <v>430500</v>
       </c>
       <c r="E24" s="3">
-        <v>209000</v>
+        <v>135700</v>
       </c>
       <c r="F24" s="3">
-        <v>609100</v>
+        <v>213900</v>
       </c>
       <c r="G24" s="3">
-        <v>261200</v>
+        <v>623500</v>
       </c>
       <c r="H24" s="3">
-        <v>131300</v>
+        <v>267400</v>
       </c>
       <c r="I24" s="3">
-        <v>112100</v>
+        <v>134400</v>
       </c>
       <c r="J24" s="3">
+        <v>114800</v>
+      </c>
+      <c r="K24" s="3">
         <v>17800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-3800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-5100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-24400</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,78 +1335,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>425600</v>
+        <v>1421800</v>
       </c>
       <c r="E26" s="3">
-        <v>586200</v>
+        <v>435700</v>
       </c>
       <c r="F26" s="3">
-        <v>1896200</v>
+        <v>600000</v>
       </c>
       <c r="G26" s="3">
-        <v>847400</v>
+        <v>1940900</v>
       </c>
       <c r="H26" s="3">
-        <v>359400</v>
+        <v>867400</v>
       </c>
       <c r="I26" s="3">
-        <v>333900</v>
+        <v>367800</v>
       </c>
       <c r="J26" s="3">
+        <v>341800</v>
+      </c>
+      <c r="K26" s="3">
         <v>44600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>11500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-53900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-57700</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>425600</v>
+        <v>1421800</v>
       </c>
       <c r="E27" s="3">
-        <v>586200</v>
+        <v>435700</v>
       </c>
       <c r="F27" s="3">
-        <v>1896200</v>
+        <v>600000</v>
       </c>
       <c r="G27" s="3">
-        <v>847400</v>
+        <v>1940900</v>
       </c>
       <c r="H27" s="3">
-        <v>359400</v>
+        <v>867400</v>
       </c>
       <c r="I27" s="3">
-        <v>333900</v>
+        <v>367800</v>
       </c>
       <c r="J27" s="3">
+        <v>341800</v>
+      </c>
+      <c r="K27" s="3">
         <v>44600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>11500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-53900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-57700</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1426,8 +1487,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,78 +1563,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>15700</v>
+      </c>
+      <c r="F32" s="3">
+        <v>7800</v>
+      </c>
+      <c r="G32" s="3">
+        <v>26100</v>
+      </c>
+      <c r="H32" s="3">
+        <v>11700</v>
+      </c>
+      <c r="I32" s="3">
+        <v>13000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>20900</v>
+      </c>
+      <c r="K32" s="3">
         <v>15300</v>
       </c>
-      <c r="E32" s="3">
-        <v>7600</v>
-      </c>
-      <c r="F32" s="3">
-        <v>25500</v>
-      </c>
-      <c r="G32" s="3">
-        <v>11500</v>
-      </c>
-      <c r="H32" s="3">
-        <v>12700</v>
-      </c>
-      <c r="I32" s="3">
-        <v>20400</v>
-      </c>
-      <c r="J32" s="3">
-        <v>15300</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>19200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>425600</v>
+        <v>1421800</v>
       </c>
       <c r="E33" s="3">
-        <v>586200</v>
+        <v>435700</v>
       </c>
       <c r="F33" s="3">
-        <v>1896200</v>
+        <v>600000</v>
       </c>
       <c r="G33" s="3">
-        <v>847400</v>
+        <v>1940900</v>
       </c>
       <c r="H33" s="3">
-        <v>359400</v>
+        <v>867400</v>
       </c>
       <c r="I33" s="3">
-        <v>333900</v>
+        <v>367800</v>
       </c>
       <c r="J33" s="3">
+        <v>341800</v>
+      </c>
+      <c r="K33" s="3">
         <v>44600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>11500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-53900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-57700</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,83 +1677,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>425600</v>
+        <v>1421800</v>
       </c>
       <c r="E35" s="3">
-        <v>586200</v>
+        <v>435700</v>
       </c>
       <c r="F35" s="3">
-        <v>1896200</v>
+        <v>600000</v>
       </c>
       <c r="G35" s="3">
-        <v>847400</v>
+        <v>1940900</v>
       </c>
       <c r="H35" s="3">
-        <v>359400</v>
+        <v>867400</v>
       </c>
       <c r="I35" s="3">
-        <v>333900</v>
+        <v>367800</v>
       </c>
       <c r="J35" s="3">
+        <v>341800</v>
+      </c>
+      <c r="K35" s="3">
         <v>44600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>11500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-53900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-57700</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,43 +1792,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1998100</v>
+        <v>2368800</v>
       </c>
       <c r="E41" s="3">
-        <v>2682400</v>
+        <v>2045300</v>
       </c>
       <c r="F41" s="3">
-        <v>2843000</v>
+        <v>2745800</v>
       </c>
       <c r="G41" s="3">
-        <v>1784000</v>
+        <v>2910100</v>
       </c>
       <c r="H41" s="3">
-        <v>587500</v>
+        <v>1826200</v>
       </c>
       <c r="I41" s="3">
-        <v>398900</v>
+        <v>601300</v>
       </c>
       <c r="J41" s="3">
+        <v>408300</v>
+      </c>
+      <c r="K41" s="3">
         <v>161800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>119700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>20500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1776,148 +1866,163 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>700900</v>
+        <v>1055300</v>
       </c>
       <c r="E43" s="3">
-        <v>708500</v>
+        <v>717400</v>
       </c>
       <c r="F43" s="3">
-        <v>1018200</v>
+        <v>725200</v>
       </c>
       <c r="G43" s="3">
-        <v>865200</v>
+        <v>1042200</v>
       </c>
       <c r="H43" s="3">
-        <v>363200</v>
+        <v>885700</v>
       </c>
       <c r="I43" s="3">
-        <v>531400</v>
+        <v>371800</v>
       </c>
       <c r="J43" s="3">
+        <v>543900</v>
+      </c>
+      <c r="K43" s="3">
         <v>503300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>573200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>504100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>560500</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1352000</v>
+        <v>1774000</v>
       </c>
       <c r="E44" s="3">
-        <v>1195300</v>
+        <v>1384000</v>
       </c>
       <c r="F44" s="3">
-        <v>1231000</v>
+        <v>1223500</v>
       </c>
       <c r="G44" s="3">
-        <v>1448900</v>
+        <v>1260100</v>
       </c>
       <c r="H44" s="3">
-        <v>736500</v>
+        <v>1483100</v>
       </c>
       <c r="I44" s="3">
-        <v>864000</v>
+        <v>753900</v>
       </c>
       <c r="J44" s="3">
+        <v>884400</v>
+      </c>
+      <c r="K44" s="3">
         <v>834700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1201200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>935000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>844000</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>48400</v>
+        <v>45700</v>
       </c>
       <c r="E45" s="3">
-        <v>67500</v>
+        <v>49600</v>
       </c>
       <c r="F45" s="3">
-        <v>79000</v>
+        <v>69100</v>
       </c>
       <c r="G45" s="3">
-        <v>37000</v>
+        <v>80900</v>
       </c>
       <c r="H45" s="3">
-        <v>15300</v>
+        <v>37800</v>
       </c>
       <c r="I45" s="3">
-        <v>22900</v>
+        <v>15700</v>
       </c>
       <c r="J45" s="3">
+        <v>23500</v>
+      </c>
+      <c r="K45" s="3">
         <v>26800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>17800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>11500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>23100</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4099400</v>
+        <v>5243700</v>
       </c>
       <c r="E46" s="3">
-        <v>4653700</v>
+        <v>4196300</v>
       </c>
       <c r="F46" s="3">
-        <v>5171100</v>
+        <v>4763700</v>
       </c>
       <c r="G46" s="3">
-        <v>4135100</v>
+        <v>5293300</v>
       </c>
       <c r="H46" s="3">
-        <v>1702500</v>
+        <v>4232800</v>
       </c>
       <c r="I46" s="3">
-        <v>1817200</v>
+        <v>1742700</v>
       </c>
       <c r="J46" s="3">
+        <v>1860100</v>
+      </c>
+      <c r="K46" s="3">
         <v>1526600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1912000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1471100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1449300</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1951,78 +2056,87 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5224600</v>
+        <v>5231900</v>
       </c>
       <c r="E48" s="3">
-        <v>4586200</v>
+        <v>5348000</v>
       </c>
       <c r="F48" s="3">
-        <v>4619300</v>
+        <v>4694500</v>
       </c>
       <c r="G48" s="3">
-        <v>4699600</v>
+        <v>4728500</v>
       </c>
       <c r="H48" s="3">
-        <v>2111500</v>
+        <v>4810600</v>
       </c>
       <c r="I48" s="3">
-        <v>2746100</v>
+        <v>2161400</v>
       </c>
       <c r="J48" s="3">
+        <v>2811000</v>
+      </c>
+      <c r="K48" s="3">
         <v>2775400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2844400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2744800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2799900</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3578200</v>
+        <v>3630100</v>
       </c>
       <c r="E49" s="3">
-        <v>3489000</v>
+        <v>3662800</v>
       </c>
       <c r="F49" s="3">
-        <v>3569300</v>
+        <v>3571400</v>
       </c>
       <c r="G49" s="3">
-        <v>3597300</v>
+        <v>3653600</v>
       </c>
       <c r="H49" s="3">
-        <v>1227200</v>
+        <v>3682300</v>
       </c>
       <c r="I49" s="3">
-        <v>1598000</v>
+        <v>1256100</v>
       </c>
       <c r="J49" s="3">
+        <v>1635700</v>
+      </c>
+      <c r="K49" s="3">
         <v>1620900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1654700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1622500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1587900</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,43 +2208,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>392500</v>
+        <v>412200</v>
       </c>
       <c r="E52" s="3">
-        <v>294400</v>
+        <v>401800</v>
       </c>
       <c r="F52" s="3">
-        <v>289300</v>
+        <v>301300</v>
       </c>
       <c r="G52" s="3">
-        <v>276500</v>
+        <v>296100</v>
       </c>
       <c r="H52" s="3">
-        <v>282900</v>
+        <v>283100</v>
       </c>
       <c r="I52" s="3">
-        <v>175900</v>
+        <v>289600</v>
       </c>
       <c r="J52" s="3">
+        <v>180000</v>
+      </c>
+      <c r="K52" s="3">
         <v>164400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>168100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>148800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>150100</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,43 +2284,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13294800</v>
+        <v>14518000</v>
       </c>
       <c r="E54" s="3">
-        <v>13023300</v>
+        <v>13608800</v>
       </c>
       <c r="F54" s="3">
-        <v>13649000</v>
+        <v>13331000</v>
       </c>
       <c r="G54" s="3">
-        <v>12708600</v>
+        <v>13971400</v>
       </c>
       <c r="H54" s="3">
-        <v>5324000</v>
+        <v>13008800</v>
       </c>
       <c r="I54" s="3">
-        <v>6337100</v>
+        <v>5449800</v>
       </c>
       <c r="J54" s="3">
+        <v>6486800</v>
+      </c>
+      <c r="K54" s="3">
         <v>6087300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6579200</v>
-      </c>
-      <c r="L54" s="3">
-        <v>5987200</v>
       </c>
       <c r="M54" s="3">
         <v>5987200</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3">
+        <v>5987200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,48 +2356,52 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1080600</v>
+        <v>1160900</v>
       </c>
       <c r="E57" s="3">
-        <v>1101000</v>
+        <v>1106100</v>
       </c>
       <c r="F57" s="3">
-        <v>949400</v>
+        <v>1127000</v>
       </c>
       <c r="G57" s="3">
-        <v>1022000</v>
+        <v>971800</v>
       </c>
       <c r="H57" s="3">
-        <v>495700</v>
+        <v>1046100</v>
       </c>
       <c r="I57" s="3">
-        <v>694500</v>
+        <v>507400</v>
       </c>
       <c r="J57" s="3">
+        <v>710900</v>
+      </c>
+      <c r="K57" s="3">
         <v>494400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>555400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>507900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>504100</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -2276,168 +2410,183 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>479100</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>8900</v>
+        <v>490500</v>
       </c>
       <c r="I58" s="3">
-        <v>12700</v>
+        <v>9100</v>
       </c>
       <c r="J58" s="3">
+        <v>13000</v>
+      </c>
+      <c r="K58" s="3">
         <v>468900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>881500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>513000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>405300</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>456200</v>
+        <v>315700</v>
       </c>
       <c r="E59" s="3">
-        <v>528800</v>
+        <v>467000</v>
       </c>
       <c r="F59" s="3">
-        <v>675400</v>
+        <v>541300</v>
       </c>
       <c r="G59" s="3">
-        <v>346600</v>
+        <v>691300</v>
       </c>
       <c r="H59" s="3">
-        <v>168200</v>
+        <v>354800</v>
       </c>
       <c r="I59" s="3">
-        <v>142700</v>
+        <v>172200</v>
       </c>
       <c r="J59" s="3">
+        <v>146100</v>
+      </c>
+      <c r="K59" s="3">
         <v>56100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>56000</v>
-      </c>
-      <c r="L59" s="3">
-        <v>52600</v>
       </c>
       <c r="M59" s="3">
         <v>52600</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3">
+        <v>52600</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1536800</v>
+        <v>1476600</v>
       </c>
       <c r="E60" s="3">
-        <v>1629800</v>
+        <v>1573100</v>
       </c>
       <c r="F60" s="3">
-        <v>1624700</v>
+        <v>1668300</v>
       </c>
       <c r="G60" s="3">
-        <v>1847700</v>
+        <v>1663100</v>
       </c>
       <c r="H60" s="3">
-        <v>672800</v>
+        <v>1891400</v>
       </c>
       <c r="I60" s="3">
-        <v>850000</v>
+        <v>688700</v>
       </c>
       <c r="J60" s="3">
+        <v>870000</v>
+      </c>
+      <c r="K60" s="3">
         <v>1019400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1492900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1073500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>962000</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>635900</v>
+        <v>650900</v>
       </c>
       <c r="E61" s="3">
-        <v>635900</v>
+        <v>650900</v>
       </c>
       <c r="F61" s="3">
-        <v>635900</v>
+        <v>650900</v>
       </c>
       <c r="G61" s="3">
-        <v>1069100</v>
+        <v>650900</v>
       </c>
       <c r="H61" s="3">
-        <v>637200</v>
+        <v>1094400</v>
       </c>
       <c r="I61" s="3">
-        <v>850000</v>
+        <v>652200</v>
       </c>
       <c r="J61" s="3">
+        <v>870000</v>
+      </c>
+      <c r="K61" s="3">
         <v>869100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>904400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>844000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>874700</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1366000</v>
+        <v>1223500</v>
       </c>
       <c r="E62" s="3">
-        <v>1289600</v>
+        <v>1398300</v>
       </c>
       <c r="F62" s="3">
-        <v>1399200</v>
+        <v>1320100</v>
       </c>
       <c r="G62" s="3">
-        <v>1363500</v>
+        <v>1432200</v>
       </c>
       <c r="H62" s="3">
-        <v>904800</v>
+        <v>1395700</v>
       </c>
       <c r="I62" s="3">
-        <v>1048700</v>
+        <v>926100</v>
       </c>
       <c r="J62" s="3">
+        <v>1073500</v>
+      </c>
+      <c r="K62" s="3">
         <v>1051300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>833100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>896500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>840100</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,43 +2696,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3538700</v>
+        <v>3351000</v>
       </c>
       <c r="E66" s="3">
-        <v>3555300</v>
+        <v>3622300</v>
       </c>
       <c r="F66" s="3">
-        <v>3659800</v>
+        <v>3639300</v>
       </c>
       <c r="G66" s="3">
-        <v>4280400</v>
+        <v>3746200</v>
       </c>
       <c r="H66" s="3">
-        <v>2166300</v>
+        <v>4381500</v>
       </c>
       <c r="I66" s="3">
-        <v>2748700</v>
+        <v>2217500</v>
       </c>
       <c r="J66" s="3">
+        <v>2813600</v>
+      </c>
+      <c r="K66" s="3">
         <v>2939800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3230400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2814000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2676800</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2696,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,43 +2902,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5738200</v>
+        <v>7191200</v>
       </c>
       <c r="E72" s="3">
-        <v>5403000</v>
+        <v>5873700</v>
       </c>
       <c r="F72" s="3">
-        <v>5426000</v>
+        <v>5530700</v>
       </c>
       <c r="G72" s="3">
-        <v>3722200</v>
+        <v>5554100</v>
       </c>
       <c r="H72" s="3">
-        <v>2850600</v>
+        <v>3810200</v>
       </c>
       <c r="I72" s="3">
-        <v>2779200</v>
+        <v>2917900</v>
       </c>
       <c r="J72" s="3">
+        <v>2844900</v>
+      </c>
+      <c r="K72" s="3">
         <v>2319200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2480100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2384400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2503600</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,43 +3054,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9756000</v>
+        <v>11167000</v>
       </c>
       <c r="E76" s="3">
-        <v>9468000</v>
+        <v>9986500</v>
       </c>
       <c r="F76" s="3">
-        <v>9989200</v>
+        <v>9691700</v>
       </c>
       <c r="G76" s="3">
-        <v>8428200</v>
+        <v>10225200</v>
       </c>
       <c r="H76" s="3">
-        <v>3157700</v>
+        <v>8627300</v>
       </c>
       <c r="I76" s="3">
-        <v>3588400</v>
+        <v>3232300</v>
       </c>
       <c r="J76" s="3">
+        <v>3673200</v>
+      </c>
+      <c r="K76" s="3">
         <v>3147500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3348800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3173200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3310400</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,83 +3130,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>425600</v>
+        <v>1421800</v>
       </c>
       <c r="E81" s="3">
-        <v>586200</v>
+        <v>435700</v>
       </c>
       <c r="F81" s="3">
-        <v>1896200</v>
+        <v>600000</v>
       </c>
       <c r="G81" s="3">
-        <v>847400</v>
+        <v>1940900</v>
       </c>
       <c r="H81" s="3">
-        <v>359400</v>
+        <v>867400</v>
       </c>
       <c r="I81" s="3">
-        <v>333900</v>
+        <v>367800</v>
       </c>
       <c r="J81" s="3">
+        <v>341800</v>
+      </c>
+      <c r="K81" s="3">
         <v>44600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>11500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-53900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-57700</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,43 +3229,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>195000</v>
+        <v>204800</v>
       </c>
       <c r="E83" s="3">
-        <v>187300</v>
+        <v>199600</v>
       </c>
       <c r="F83" s="3">
-        <v>206400</v>
+        <v>191700</v>
       </c>
       <c r="G83" s="3">
-        <v>155500</v>
+        <v>211300</v>
       </c>
       <c r="H83" s="3">
-        <v>90500</v>
+        <v>159100</v>
       </c>
       <c r="I83" s="3">
-        <v>84100</v>
+        <v>92600</v>
       </c>
       <c r="J83" s="3">
+        <v>86100</v>
+      </c>
+      <c r="K83" s="3">
         <v>82800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>89200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>84700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>83400</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,43 +3455,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>369500</v>
+        <v>734400</v>
       </c>
       <c r="E89" s="3">
-        <v>1164700</v>
+        <v>378300</v>
       </c>
       <c r="F89" s="3">
-        <v>2403300</v>
+        <v>1192200</v>
       </c>
       <c r="G89" s="3">
-        <v>588700</v>
+        <v>2460100</v>
       </c>
       <c r="H89" s="3">
-        <v>465100</v>
+        <v>602600</v>
       </c>
       <c r="I89" s="3">
-        <v>781100</v>
+        <v>476100</v>
       </c>
       <c r="J89" s="3">
+        <v>799600</v>
+      </c>
+      <c r="K89" s="3">
         <v>519900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-115900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>51300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>148800</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,43 +3511,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-511000</v>
+        <v>-121300</v>
       </c>
       <c r="E91" s="3">
-        <v>-135100</v>
+        <v>-523100</v>
       </c>
       <c r="F91" s="3">
-        <v>-84100</v>
+        <v>-138300</v>
       </c>
       <c r="G91" s="3">
-        <v>-79000</v>
+        <v>-86100</v>
       </c>
       <c r="H91" s="3">
+        <v>-80900</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-58700</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-61300</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-54800</v>
+      </c>
+      <c r="L91" s="3">
         <v>-57300</v>
       </c>
-      <c r="I91" s="3">
-        <v>-59900</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-54800</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-57300</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-111600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-170600</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,43 +3623,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-890700</v>
+        <v>-120000</v>
       </c>
       <c r="E94" s="3">
-        <v>-133800</v>
+        <v>-911800</v>
       </c>
       <c r="F94" s="3">
-        <v>-81600</v>
+        <v>-137000</v>
       </c>
       <c r="G94" s="3">
-        <v>741600</v>
+        <v>-83500</v>
       </c>
       <c r="H94" s="3">
-        <v>-53500</v>
+        <v>759200</v>
       </c>
       <c r="I94" s="3">
-        <v>-53500</v>
+        <v>-54800</v>
       </c>
       <c r="J94" s="3">
-        <v>-52200</v>
+        <v>-54800</v>
       </c>
       <c r="K94" s="3">
         <v>-52200</v>
       </c>
       <c r="L94" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="M94" s="3">
         <v>-111600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-162900</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,43 +3679,47 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-26800</v>
+        <v>-27400</v>
       </c>
       <c r="E96" s="3">
-        <v>-30600</v>
+        <v>-27400</v>
       </c>
       <c r="F96" s="3">
-        <v>-24200</v>
+        <v>-31300</v>
       </c>
       <c r="G96" s="3">
-        <v>-14000</v>
+        <v>-24800</v>
       </c>
       <c r="H96" s="3">
-        <v>-14000</v>
+        <v>-14300</v>
       </c>
       <c r="I96" s="3">
-        <v>-12700</v>
+        <v>-14300</v>
       </c>
       <c r="J96" s="3">
-        <v>-12700</v>
+        <v>-13000</v>
       </c>
       <c r="K96" s="3">
         <v>-12700</v>
       </c>
       <c r="L96" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="M96" s="3">
         <v>-11500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-21800</v>
       </c>
     </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,109 +3829,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-165700</v>
+        <v>-283100</v>
       </c>
       <c r="E100" s="3">
-        <v>-1178700</v>
+        <v>-169600</v>
       </c>
       <c r="F100" s="3">
-        <v>-1274300</v>
+        <v>-1206600</v>
       </c>
       <c r="G100" s="3">
-        <v>-138900</v>
+        <v>-1304400</v>
       </c>
       <c r="H100" s="3">
-        <v>-25500</v>
+        <v>-142200</v>
       </c>
       <c r="I100" s="3">
-        <v>-360600</v>
+        <v>-26100</v>
       </c>
       <c r="J100" s="3">
+        <v>-369100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-425600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>361800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>39800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>57700</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E101" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="G101" s="3">
+        <v>11700</v>
+      </c>
+      <c r="H101" s="3">
+        <v>5200</v>
+      </c>
+      <c r="I101" s="3">
+        <v>17000</v>
+      </c>
+      <c r="J101" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K101" s="3">
         <v>2500</v>
       </c>
-      <c r="E101" s="3">
-        <v>-12700</v>
-      </c>
-      <c r="F101" s="3">
-        <v>11500</v>
-      </c>
-      <c r="G101" s="3">
-        <v>5100</v>
-      </c>
-      <c r="H101" s="3">
-        <v>16600</v>
-      </c>
-      <c r="I101" s="3">
-        <v>1300</v>
-      </c>
-      <c r="J101" s="3">
-        <v>2500</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-5100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-684300</v>
+        <v>323500</v>
       </c>
       <c r="E102" s="3">
-        <v>-160600</v>
+        <v>-700500</v>
       </c>
       <c r="F102" s="3">
-        <v>1058900</v>
+        <v>-164400</v>
       </c>
       <c r="G102" s="3">
-        <v>1196600</v>
+        <v>1084000</v>
       </c>
       <c r="H102" s="3">
-        <v>349200</v>
+        <v>1224800</v>
       </c>
       <c r="I102" s="3">
-        <v>237000</v>
+        <v>357400</v>
       </c>
       <c r="J102" s="3">
+        <v>242600</v>
+      </c>
+      <c r="K102" s="3">
         <v>42100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>119700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-16700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>42300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WFG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WFG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>WFG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,180 +665,193 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4056700</v>
+        <v>3731200</v>
       </c>
       <c r="E8" s="3">
-        <v>2658400</v>
+        <v>4019400</v>
       </c>
       <c r="F8" s="3">
-        <v>3075800</v>
+        <v>2633900</v>
       </c>
       <c r="G8" s="3">
-        <v>4929300</v>
+        <v>3047500</v>
       </c>
       <c r="H8" s="3">
-        <v>3056200</v>
+        <v>4884000</v>
       </c>
       <c r="I8" s="3">
-        <v>1687900</v>
+        <v>3028100</v>
       </c>
       <c r="J8" s="3">
+        <v>1672400</v>
+      </c>
+      <c r="K8" s="3">
         <v>1654000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1173600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1133700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1448100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1526300</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1535300</v>
+        <v>1790000</v>
       </c>
       <c r="E9" s="3">
-        <v>1510500</v>
+        <v>1521200</v>
       </c>
       <c r="F9" s="3">
-        <v>1582200</v>
+        <v>1496600</v>
       </c>
       <c r="G9" s="3">
-        <v>1610900</v>
+        <v>1567700</v>
       </c>
       <c r="H9" s="3">
-        <v>1355300</v>
+        <v>1596100</v>
       </c>
       <c r="I9" s="3">
-        <v>894800</v>
+        <v>1342800</v>
       </c>
       <c r="J9" s="3">
+        <v>886600</v>
+      </c>
+      <c r="K9" s="3">
         <v>819200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>783700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>802500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1064600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1162000</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2521400</v>
+        <v>1941200</v>
       </c>
       <c r="E10" s="3">
-        <v>1147900</v>
+        <v>2498200</v>
       </c>
       <c r="F10" s="3">
-        <v>1493500</v>
+        <v>1137300</v>
       </c>
       <c r="G10" s="3">
-        <v>3318400</v>
+        <v>1479800</v>
       </c>
       <c r="H10" s="3">
-        <v>1700900</v>
+        <v>3287900</v>
       </c>
       <c r="I10" s="3">
-        <v>793100</v>
+        <v>1685300</v>
       </c>
       <c r="J10" s="3">
+        <v>785800</v>
+      </c>
+      <c r="K10" s="3">
         <v>834800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>389900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>331200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>383500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>364300</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -853,8 +866,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -891,8 +905,11 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,16 +946,19 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>17000</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>16800</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -949,8 +969,8 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -958,55 +978,61 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>10300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>204800</v>
+        <v>186100</v>
       </c>
       <c r="E15" s="3">
-        <v>199600</v>
+        <v>202900</v>
       </c>
       <c r="F15" s="3">
-        <v>191700</v>
+        <v>197700</v>
       </c>
       <c r="G15" s="3">
-        <v>211300</v>
+        <v>190000</v>
       </c>
       <c r="H15" s="3">
-        <v>159100</v>
+        <v>209400</v>
       </c>
       <c r="I15" s="3">
-        <v>70400</v>
+        <v>157700</v>
       </c>
       <c r="J15" s="3">
+        <v>69800</v>
+      </c>
+      <c r="K15" s="3">
         <v>65200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>59900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>66200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>84700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>83400</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2195300</v>
+        <v>2463300</v>
       </c>
       <c r="E17" s="3">
-        <v>2071400</v>
+        <v>2175100</v>
       </c>
       <c r="F17" s="3">
-        <v>2254000</v>
+        <v>2052300</v>
       </c>
       <c r="G17" s="3">
-        <v>2338800</v>
+        <v>2233300</v>
       </c>
       <c r="H17" s="3">
-        <v>1909600</v>
+        <v>2317300</v>
       </c>
       <c r="I17" s="3">
-        <v>1172700</v>
+        <v>1892100</v>
       </c>
       <c r="J17" s="3">
+        <v>1161900</v>
+      </c>
+      <c r="K17" s="3">
         <v>1176600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1095900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1122200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1487800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1595600</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1861400</v>
+        <v>1267800</v>
       </c>
       <c r="E18" s="3">
-        <v>587000</v>
+        <v>1844300</v>
       </c>
       <c r="F18" s="3">
-        <v>821800</v>
+        <v>581600</v>
       </c>
       <c r="G18" s="3">
-        <v>2590500</v>
+        <v>814200</v>
       </c>
       <c r="H18" s="3">
-        <v>1146600</v>
+        <v>2566700</v>
       </c>
       <c r="I18" s="3">
-        <v>515200</v>
+        <v>1136000</v>
       </c>
       <c r="J18" s="3">
+        <v>510500</v>
+      </c>
+      <c r="K18" s="3">
         <v>477400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>77700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>11500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-39800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-69300</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,107 +1143,114 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-9100</v>
+        <v>33600</v>
       </c>
       <c r="E20" s="3">
-        <v>-15700</v>
+        <v>-9000</v>
       </c>
       <c r="F20" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="G20" s="3">
         <v>-7800</v>
       </c>
-      <c r="G20" s="3">
-        <v>-26100</v>
-      </c>
       <c r="H20" s="3">
-        <v>-11700</v>
+        <v>-25800</v>
       </c>
       <c r="I20" s="3">
-        <v>-13000</v>
+        <v>-11600</v>
       </c>
       <c r="J20" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-20900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-15300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-19200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-12800</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2057000</v>
+        <v>1487600</v>
       </c>
       <c r="E21" s="3">
-        <v>770900</v>
+        <v>2038100</v>
       </c>
       <c r="F21" s="3">
-        <v>1005700</v>
+        <v>763800</v>
       </c>
       <c r="G21" s="3">
-        <v>2775800</v>
+        <v>996400</v>
       </c>
       <c r="H21" s="3">
-        <v>1294000</v>
+        <v>2750200</v>
       </c>
       <c r="I21" s="3">
-        <v>572600</v>
+        <v>1282100</v>
       </c>
       <c r="J21" s="3">
+        <v>567400</v>
+      </c>
+      <c r="K21" s="3">
         <v>521800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>122300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>73900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>25700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>6500</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1224,84 +1264,93 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1852200</v>
+        <v>1295000</v>
       </c>
       <c r="E23" s="3">
-        <v>571300</v>
+        <v>1835200</v>
       </c>
       <c r="F23" s="3">
-        <v>813900</v>
+        <v>566100</v>
       </c>
       <c r="G23" s="3">
-        <v>2564500</v>
+        <v>806500</v>
       </c>
       <c r="H23" s="3">
-        <v>1134800</v>
+        <v>2540900</v>
       </c>
       <c r="I23" s="3">
-        <v>502200</v>
+        <v>1124400</v>
       </c>
       <c r="J23" s="3">
+        <v>497600</v>
+      </c>
+      <c r="K23" s="3">
         <v>456500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>62400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>7600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-59000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-82100</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>430500</v>
+        <v>310200</v>
       </c>
       <c r="E24" s="3">
-        <v>135700</v>
+        <v>426500</v>
       </c>
       <c r="F24" s="3">
-        <v>213900</v>
+        <v>134400</v>
       </c>
       <c r="G24" s="3">
-        <v>623500</v>
+        <v>212000</v>
       </c>
       <c r="H24" s="3">
-        <v>267400</v>
+        <v>617800</v>
       </c>
       <c r="I24" s="3">
-        <v>134400</v>
+        <v>264900</v>
       </c>
       <c r="J24" s="3">
+        <v>133100</v>
+      </c>
+      <c r="K24" s="3">
         <v>114800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>17800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-3800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-5100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-24400</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1421800</v>
+        <v>984800</v>
       </c>
       <c r="E26" s="3">
-        <v>435700</v>
+        <v>1408700</v>
       </c>
       <c r="F26" s="3">
-        <v>600000</v>
+        <v>431700</v>
       </c>
       <c r="G26" s="3">
-        <v>1940900</v>
+        <v>594500</v>
       </c>
       <c r="H26" s="3">
-        <v>867400</v>
+        <v>1923100</v>
       </c>
       <c r="I26" s="3">
-        <v>367800</v>
+        <v>859400</v>
       </c>
       <c r="J26" s="3">
+        <v>364500</v>
+      </c>
+      <c r="K26" s="3">
         <v>341800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>44600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>11500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-53900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-57700</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1421800</v>
+        <v>984800</v>
       </c>
       <c r="E27" s="3">
-        <v>435700</v>
+        <v>1408700</v>
       </c>
       <c r="F27" s="3">
-        <v>600000</v>
+        <v>431700</v>
       </c>
       <c r="G27" s="3">
-        <v>1940900</v>
+        <v>594500</v>
       </c>
       <c r="H27" s="3">
-        <v>867400</v>
+        <v>1923100</v>
       </c>
       <c r="I27" s="3">
-        <v>367800</v>
+        <v>859400</v>
       </c>
       <c r="J27" s="3">
+        <v>364500</v>
+      </c>
+      <c r="K27" s="3">
         <v>341800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>44600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>11500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-53900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-57700</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,84 +1633,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>9100</v>
+        <v>-33600</v>
       </c>
       <c r="E32" s="3">
-        <v>15700</v>
+        <v>9000</v>
       </c>
       <c r="F32" s="3">
+        <v>15500</v>
+      </c>
+      <c r="G32" s="3">
         <v>7800</v>
       </c>
-      <c r="G32" s="3">
-        <v>26100</v>
-      </c>
       <c r="H32" s="3">
-        <v>11700</v>
+        <v>25800</v>
       </c>
       <c r="I32" s="3">
-        <v>13000</v>
+        <v>11600</v>
       </c>
       <c r="J32" s="3">
+        <v>12900</v>
+      </c>
+      <c r="K32" s="3">
         <v>20900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>15300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>19200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1421800</v>
+        <v>984800</v>
       </c>
       <c r="E33" s="3">
-        <v>435700</v>
+        <v>1408700</v>
       </c>
       <c r="F33" s="3">
-        <v>600000</v>
+        <v>431700</v>
       </c>
       <c r="G33" s="3">
-        <v>1940900</v>
+        <v>594500</v>
       </c>
       <c r="H33" s="3">
-        <v>867400</v>
+        <v>1923100</v>
       </c>
       <c r="I33" s="3">
-        <v>367800</v>
+        <v>859400</v>
       </c>
       <c r="J33" s="3">
+        <v>364500</v>
+      </c>
+      <c r="K33" s="3">
         <v>341800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>44600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>11500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-53900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-57700</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1421800</v>
+        <v>984800</v>
       </c>
       <c r="E35" s="3">
-        <v>435700</v>
+        <v>1408700</v>
       </c>
       <c r="F35" s="3">
-        <v>600000</v>
+        <v>431700</v>
       </c>
       <c r="G35" s="3">
-        <v>1940900</v>
+        <v>594500</v>
       </c>
       <c r="H35" s="3">
-        <v>867400</v>
+        <v>1923100</v>
       </c>
       <c r="I35" s="3">
-        <v>367800</v>
+        <v>859400</v>
       </c>
       <c r="J35" s="3">
+        <v>364500</v>
+      </c>
+      <c r="K35" s="3">
         <v>341800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>44600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>11500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-53900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-57700</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,46 +1879,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2368800</v>
+        <v>1655600</v>
       </c>
       <c r="E41" s="3">
-        <v>2045300</v>
+        <v>2347000</v>
       </c>
       <c r="F41" s="3">
-        <v>2745800</v>
+        <v>2026500</v>
       </c>
       <c r="G41" s="3">
-        <v>2910100</v>
+        <v>2720500</v>
       </c>
       <c r="H41" s="3">
-        <v>1826200</v>
+        <v>2883300</v>
       </c>
       <c r="I41" s="3">
-        <v>601300</v>
+        <v>1809400</v>
       </c>
       <c r="J41" s="3">
+        <v>595800</v>
+      </c>
+      <c r="K41" s="3">
         <v>408300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>161800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>119700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>20500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,160 +1959,175 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1055300</v>
+        <v>748300</v>
       </c>
       <c r="E43" s="3">
-        <v>717400</v>
+        <v>1045600</v>
       </c>
       <c r="F43" s="3">
-        <v>725200</v>
+        <v>710800</v>
       </c>
       <c r="G43" s="3">
-        <v>1042200</v>
+        <v>718600</v>
       </c>
       <c r="H43" s="3">
-        <v>885700</v>
+        <v>1032600</v>
       </c>
       <c r="I43" s="3">
-        <v>371800</v>
+        <v>877500</v>
       </c>
       <c r="J43" s="3">
+        <v>368300</v>
+      </c>
+      <c r="K43" s="3">
         <v>543900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>503300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>573200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>504100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>560500</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1774000</v>
+        <v>1406100</v>
       </c>
       <c r="E44" s="3">
-        <v>1384000</v>
+        <v>1757700</v>
       </c>
       <c r="F44" s="3">
-        <v>1223500</v>
+        <v>1371200</v>
       </c>
       <c r="G44" s="3">
-        <v>1260100</v>
+        <v>1212300</v>
       </c>
       <c r="H44" s="3">
-        <v>1483100</v>
+        <v>1248500</v>
       </c>
       <c r="I44" s="3">
-        <v>753900</v>
+        <v>1469500</v>
       </c>
       <c r="J44" s="3">
+        <v>747000</v>
+      </c>
+      <c r="K44" s="3">
         <v>884400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>834700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1201200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>935000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>844000</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>45700</v>
+        <v>98200</v>
       </c>
       <c r="E45" s="3">
-        <v>49600</v>
+        <v>45200</v>
       </c>
       <c r="F45" s="3">
-        <v>69100</v>
+        <v>49100</v>
       </c>
       <c r="G45" s="3">
-        <v>80900</v>
+        <v>68500</v>
       </c>
       <c r="H45" s="3">
-        <v>37800</v>
+        <v>80100</v>
       </c>
       <c r="I45" s="3">
-        <v>15700</v>
+        <v>37500</v>
       </c>
       <c r="J45" s="3">
+        <v>15500</v>
+      </c>
+      <c r="K45" s="3">
         <v>23500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>26800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>17800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>11500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>23100</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5243700</v>
+        <v>3908200</v>
       </c>
       <c r="E46" s="3">
-        <v>4196300</v>
+        <v>5195400</v>
       </c>
       <c r="F46" s="3">
-        <v>4763700</v>
+        <v>4157700</v>
       </c>
       <c r="G46" s="3">
-        <v>5293300</v>
+        <v>4719800</v>
       </c>
       <c r="H46" s="3">
-        <v>4232800</v>
+        <v>5244600</v>
       </c>
       <c r="I46" s="3">
-        <v>1742700</v>
+        <v>4193800</v>
       </c>
       <c r="J46" s="3">
+        <v>1726600</v>
+      </c>
+      <c r="K46" s="3">
         <v>1860100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1526600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1912000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1471100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1449300</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2059,84 +2164,93 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5231900</v>
+        <v>5124400</v>
       </c>
       <c r="E48" s="3">
-        <v>5348000</v>
+        <v>5183800</v>
       </c>
       <c r="F48" s="3">
-        <v>4694500</v>
+        <v>5298800</v>
       </c>
       <c r="G48" s="3">
-        <v>4728500</v>
+        <v>4651300</v>
       </c>
       <c r="H48" s="3">
-        <v>4810600</v>
+        <v>4685000</v>
       </c>
       <c r="I48" s="3">
-        <v>2161400</v>
+        <v>4766400</v>
       </c>
       <c r="J48" s="3">
+        <v>2141500</v>
+      </c>
+      <c r="K48" s="3">
         <v>2811000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2775400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2844400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2744800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2799900</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3630100</v>
+        <v>3556700</v>
       </c>
       <c r="E49" s="3">
-        <v>3662800</v>
+        <v>3596700</v>
       </c>
       <c r="F49" s="3">
-        <v>3571400</v>
+        <v>3629100</v>
       </c>
       <c r="G49" s="3">
-        <v>3653600</v>
+        <v>3538600</v>
       </c>
       <c r="H49" s="3">
-        <v>3682300</v>
+        <v>3620000</v>
       </c>
       <c r="I49" s="3">
-        <v>1256100</v>
+        <v>3648400</v>
       </c>
       <c r="J49" s="3">
+        <v>1244600</v>
+      </c>
+      <c r="K49" s="3">
         <v>1635700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1620900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1654700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1622500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1587900</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,46 +2328,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>412200</v>
+        <v>522100</v>
       </c>
       <c r="E52" s="3">
-        <v>401800</v>
+        <v>408400</v>
       </c>
       <c r="F52" s="3">
-        <v>301300</v>
+        <v>398100</v>
       </c>
       <c r="G52" s="3">
-        <v>296100</v>
+        <v>298500</v>
       </c>
       <c r="H52" s="3">
-        <v>283100</v>
+        <v>293400</v>
       </c>
       <c r="I52" s="3">
-        <v>289600</v>
+        <v>280500</v>
       </c>
       <c r="J52" s="3">
+        <v>286900</v>
+      </c>
+      <c r="K52" s="3">
         <v>180000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>164400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>168100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>148800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>150100</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,46 +2410,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>14518000</v>
+        <v>13111400</v>
       </c>
       <c r="E54" s="3">
-        <v>13608800</v>
+        <v>14384400</v>
       </c>
       <c r="F54" s="3">
-        <v>13331000</v>
+        <v>13483600</v>
       </c>
       <c r="G54" s="3">
-        <v>13971400</v>
+        <v>13208300</v>
       </c>
       <c r="H54" s="3">
-        <v>13008800</v>
+        <v>13842900</v>
       </c>
       <c r="I54" s="3">
-        <v>5449800</v>
+        <v>12889100</v>
       </c>
       <c r="J54" s="3">
+        <v>5399600</v>
+      </c>
+      <c r="K54" s="3">
         <v>6486800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6087300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6579200</v>
-      </c>
-      <c r="M54" s="3">
-        <v>5987200</v>
       </c>
       <c r="N54" s="3">
         <v>5987200</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3">
+        <v>5987200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,54 +2487,58 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1160900</v>
+        <v>980900</v>
       </c>
       <c r="E57" s="3">
-        <v>1106100</v>
+        <v>1150200</v>
       </c>
       <c r="F57" s="3">
-        <v>1127000</v>
+        <v>1096000</v>
       </c>
       <c r="G57" s="3">
-        <v>971800</v>
+        <v>1116600</v>
       </c>
       <c r="H57" s="3">
-        <v>1046100</v>
+        <v>962800</v>
       </c>
       <c r="I57" s="3">
-        <v>507400</v>
+        <v>1036500</v>
       </c>
       <c r="J57" s="3">
+        <v>502700</v>
+      </c>
+      <c r="K57" s="3">
         <v>710900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>494400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>555400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>507900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>504100</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -2413,180 +2547,195 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>490500</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>9100</v>
+        <v>485900</v>
       </c>
       <c r="J58" s="3">
+        <v>9000</v>
+      </c>
+      <c r="K58" s="3">
         <v>13000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>468900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>881500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>513000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>405300</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>315700</v>
+        <v>108600</v>
       </c>
       <c r="E59" s="3">
-        <v>467000</v>
+        <v>312800</v>
       </c>
       <c r="F59" s="3">
-        <v>541300</v>
+        <v>462700</v>
       </c>
       <c r="G59" s="3">
-        <v>691300</v>
+        <v>536300</v>
       </c>
       <c r="H59" s="3">
-        <v>354800</v>
+        <v>685000</v>
       </c>
       <c r="I59" s="3">
-        <v>172200</v>
+        <v>351500</v>
       </c>
       <c r="J59" s="3">
+        <v>170600</v>
+      </c>
+      <c r="K59" s="3">
         <v>146100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>56100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>56000</v>
-      </c>
-      <c r="M59" s="3">
-        <v>52600</v>
       </c>
       <c r="N59" s="3">
         <v>52600</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>52600</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1476600</v>
+        <v>1089500</v>
       </c>
       <c r="E60" s="3">
-        <v>1573100</v>
+        <v>1463000</v>
       </c>
       <c r="F60" s="3">
-        <v>1668300</v>
+        <v>1558600</v>
       </c>
       <c r="G60" s="3">
-        <v>1663100</v>
+        <v>1653000</v>
       </c>
       <c r="H60" s="3">
-        <v>1891400</v>
+        <v>1647800</v>
       </c>
       <c r="I60" s="3">
-        <v>688700</v>
+        <v>1874000</v>
       </c>
       <c r="J60" s="3">
+        <v>682400</v>
+      </c>
+      <c r="K60" s="3">
         <v>870000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1019400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1492900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1073500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>962000</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>650900</v>
+        <v>644900</v>
       </c>
       <c r="E61" s="3">
-        <v>650900</v>
+        <v>644900</v>
       </c>
       <c r="F61" s="3">
-        <v>650900</v>
+        <v>644900</v>
       </c>
       <c r="G61" s="3">
-        <v>650900</v>
+        <v>644900</v>
       </c>
       <c r="H61" s="3">
-        <v>1094400</v>
+        <v>644900</v>
       </c>
       <c r="I61" s="3">
-        <v>652200</v>
+        <v>1084300</v>
       </c>
       <c r="J61" s="3">
+        <v>646200</v>
+      </c>
+      <c r="K61" s="3">
         <v>870000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>869100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>904400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>844000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>874700</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1223500</v>
+        <v>1223900</v>
       </c>
       <c r="E62" s="3">
-        <v>1398300</v>
+        <v>1212300</v>
       </c>
       <c r="F62" s="3">
-        <v>1320100</v>
+        <v>1385500</v>
       </c>
       <c r="G62" s="3">
-        <v>1432200</v>
+        <v>1307900</v>
       </c>
       <c r="H62" s="3">
-        <v>1395700</v>
+        <v>1419100</v>
       </c>
       <c r="I62" s="3">
-        <v>926100</v>
+        <v>1382900</v>
       </c>
       <c r="J62" s="3">
+        <v>917600</v>
+      </c>
+      <c r="K62" s="3">
         <v>1073500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1051300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>833100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>896500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>840100</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,46 +2854,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3351000</v>
+        <v>2958300</v>
       </c>
       <c r="E66" s="3">
-        <v>3622300</v>
+        <v>3320200</v>
       </c>
       <c r="F66" s="3">
-        <v>3639300</v>
+        <v>3589000</v>
       </c>
       <c r="G66" s="3">
-        <v>3746200</v>
+        <v>3605800</v>
       </c>
       <c r="H66" s="3">
-        <v>4381500</v>
+        <v>3711800</v>
       </c>
       <c r="I66" s="3">
-        <v>2217500</v>
+        <v>4341200</v>
       </c>
       <c r="J66" s="3">
+        <v>2197100</v>
+      </c>
+      <c r="K66" s="3">
         <v>2813600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2939800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3230400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2814000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2676800</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,46 +3076,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7191200</v>
+        <v>6959600</v>
       </c>
       <c r="E72" s="3">
-        <v>5873700</v>
+        <v>7125000</v>
       </c>
       <c r="F72" s="3">
-        <v>5530700</v>
+        <v>5819700</v>
       </c>
       <c r="G72" s="3">
-        <v>5554100</v>
+        <v>5479800</v>
       </c>
       <c r="H72" s="3">
-        <v>3810200</v>
+        <v>5503000</v>
       </c>
       <c r="I72" s="3">
-        <v>2917900</v>
+        <v>3775100</v>
       </c>
       <c r="J72" s="3">
+        <v>2891100</v>
+      </c>
+      <c r="K72" s="3">
         <v>2844900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2319200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2480100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2384400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2503600</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,46 +3240,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>11167000</v>
+        <v>10153100</v>
       </c>
       <c r="E76" s="3">
-        <v>9986500</v>
+        <v>11064200</v>
       </c>
       <c r="F76" s="3">
-        <v>9691700</v>
+        <v>9894600</v>
       </c>
       <c r="G76" s="3">
-        <v>10225200</v>
+        <v>9602500</v>
       </c>
       <c r="H76" s="3">
-        <v>8627300</v>
+        <v>10131100</v>
       </c>
       <c r="I76" s="3">
-        <v>3232300</v>
+        <v>8547900</v>
       </c>
       <c r="J76" s="3">
+        <v>3202600</v>
+      </c>
+      <c r="K76" s="3">
         <v>3673200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3147500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3348800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3173200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3310400</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1421800</v>
+        <v>984800</v>
       </c>
       <c r="E81" s="3">
-        <v>435700</v>
+        <v>1408700</v>
       </c>
       <c r="F81" s="3">
-        <v>600000</v>
+        <v>431700</v>
       </c>
       <c r="G81" s="3">
-        <v>1940900</v>
+        <v>594500</v>
       </c>
       <c r="H81" s="3">
-        <v>867400</v>
+        <v>1923100</v>
       </c>
       <c r="I81" s="3">
-        <v>367800</v>
+        <v>859400</v>
       </c>
       <c r="J81" s="3">
+        <v>364500</v>
+      </c>
+      <c r="K81" s="3">
         <v>341800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>44600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>11500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-53900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-57700</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,46 +3428,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>204800</v>
+        <v>186100</v>
       </c>
       <c r="E83" s="3">
-        <v>199600</v>
+        <v>202900</v>
       </c>
       <c r="F83" s="3">
-        <v>191700</v>
+        <v>197700</v>
       </c>
       <c r="G83" s="3">
-        <v>211300</v>
+        <v>190000</v>
       </c>
       <c r="H83" s="3">
-        <v>159100</v>
+        <v>209400</v>
       </c>
       <c r="I83" s="3">
-        <v>92600</v>
+        <v>157700</v>
       </c>
       <c r="J83" s="3">
+        <v>91800</v>
+      </c>
+      <c r="K83" s="3">
         <v>86100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>82800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>89200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>84700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>83400</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,46 +3672,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>734400</v>
+        <v>1375100</v>
       </c>
       <c r="E89" s="3">
-        <v>378300</v>
+        <v>727600</v>
       </c>
       <c r="F89" s="3">
-        <v>1192200</v>
+        <v>374800</v>
       </c>
       <c r="G89" s="3">
-        <v>2460100</v>
+        <v>1181300</v>
       </c>
       <c r="H89" s="3">
-        <v>602600</v>
+        <v>2437500</v>
       </c>
       <c r="I89" s="3">
-        <v>476100</v>
+        <v>597100</v>
       </c>
       <c r="J89" s="3">
+        <v>471700</v>
+      </c>
+      <c r="K89" s="3">
         <v>799600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>519900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-115900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>51300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>148800</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,46 +3732,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-121300</v>
+        <v>-113700</v>
       </c>
       <c r="E91" s="3">
-        <v>-523100</v>
+        <v>-120200</v>
       </c>
       <c r="F91" s="3">
-        <v>-138300</v>
+        <v>-518300</v>
       </c>
       <c r="G91" s="3">
-        <v>-86100</v>
+        <v>-137000</v>
       </c>
       <c r="H91" s="3">
-        <v>-80900</v>
+        <v>-85300</v>
       </c>
       <c r="I91" s="3">
-        <v>-58700</v>
+        <v>-80100</v>
       </c>
       <c r="J91" s="3">
+        <v>-58200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-61300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-54800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-57300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-111600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-170600</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,46 +3853,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-120000</v>
+        <v>-111100</v>
       </c>
       <c r="E94" s="3">
-        <v>-911800</v>
+        <v>-118900</v>
       </c>
       <c r="F94" s="3">
-        <v>-137000</v>
+        <v>-903400</v>
       </c>
       <c r="G94" s="3">
-        <v>-83500</v>
+        <v>-135700</v>
       </c>
       <c r="H94" s="3">
-        <v>759200</v>
+        <v>-82700</v>
       </c>
       <c r="I94" s="3">
+        <v>752200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-54300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-54800</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-54800</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-52200</v>
       </c>
       <c r="L94" s="3">
         <v>-52200</v>
       </c>
       <c r="M94" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="N94" s="3">
         <v>-111600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-162900</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,46 +3913,50 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-27400</v>
+        <v>-33600</v>
       </c>
       <c r="E96" s="3">
-        <v>-27400</v>
+        <v>-27100</v>
       </c>
       <c r="F96" s="3">
-        <v>-31300</v>
+        <v>-27100</v>
       </c>
       <c r="G96" s="3">
-        <v>-24800</v>
+        <v>-31000</v>
       </c>
       <c r="H96" s="3">
-        <v>-14300</v>
+        <v>-24600</v>
       </c>
       <c r="I96" s="3">
-        <v>-14300</v>
+        <v>-14200</v>
       </c>
       <c r="J96" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-13000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-12700</v>
       </c>
       <c r="L96" s="3">
         <v>-12700</v>
       </c>
       <c r="M96" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="N96" s="3">
         <v>-11500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-21800</v>
       </c>
     </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,118 +4075,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-283100</v>
+        <v>-1958000</v>
       </c>
       <c r="E100" s="3">
-        <v>-169600</v>
+        <v>-280500</v>
       </c>
       <c r="F100" s="3">
-        <v>-1206600</v>
+        <v>-168000</v>
       </c>
       <c r="G100" s="3">
-        <v>-1304400</v>
+        <v>-1195500</v>
       </c>
       <c r="H100" s="3">
-        <v>-142200</v>
+        <v>-1292400</v>
       </c>
       <c r="I100" s="3">
-        <v>-26100</v>
+        <v>-140900</v>
       </c>
       <c r="J100" s="3">
+        <v>-25800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-369100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-425600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>361800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>39800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>57700</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-7800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2600</v>
       </c>
-      <c r="F101" s="3">
-        <v>-13000</v>
-      </c>
       <c r="G101" s="3">
-        <v>11700</v>
+        <v>-12900</v>
       </c>
       <c r="H101" s="3">
+        <v>11600</v>
+      </c>
+      <c r="I101" s="3">
         <v>5200</v>
       </c>
-      <c r="I101" s="3">
-        <v>17000</v>
-      </c>
       <c r="J101" s="3">
+        <v>16800</v>
+      </c>
+      <c r="K101" s="3">
         <v>1300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-5100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>3800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>323500</v>
+        <v>-691400</v>
       </c>
       <c r="E102" s="3">
-        <v>-700500</v>
+        <v>320500</v>
       </c>
       <c r="F102" s="3">
-        <v>-164400</v>
+        <v>-694000</v>
       </c>
       <c r="G102" s="3">
-        <v>1084000</v>
+        <v>-162800</v>
       </c>
       <c r="H102" s="3">
-        <v>1224800</v>
+        <v>1074000</v>
       </c>
       <c r="I102" s="3">
-        <v>357400</v>
+        <v>1213600</v>
       </c>
       <c r="J102" s="3">
+        <v>354100</v>
+      </c>
+      <c r="K102" s="3">
         <v>242600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>42100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>119700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-16700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>42300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WFG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WFG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>WFG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,206 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3731200</v>
+        <v>2780800</v>
       </c>
       <c r="E8" s="3">
-        <v>4019400</v>
+        <v>3844900</v>
       </c>
       <c r="F8" s="3">
-        <v>2633900</v>
+        <v>4141900</v>
       </c>
       <c r="G8" s="3">
-        <v>3047500</v>
+        <v>2714200</v>
       </c>
       <c r="H8" s="3">
-        <v>4884000</v>
+        <v>3140400</v>
       </c>
       <c r="I8" s="3">
-        <v>3028100</v>
+        <v>5032900</v>
       </c>
       <c r="J8" s="3">
+        <v>3120400</v>
+      </c>
+      <c r="K8" s="3">
         <v>1672400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1654000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1173600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1133700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1448100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1526300</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1790000</v>
+        <v>1825900</v>
       </c>
       <c r="E9" s="3">
-        <v>1521200</v>
+        <v>1844500</v>
       </c>
       <c r="F9" s="3">
-        <v>1496600</v>
+        <v>1567500</v>
       </c>
       <c r="G9" s="3">
-        <v>1567700</v>
+        <v>1542200</v>
       </c>
       <c r="H9" s="3">
-        <v>1596100</v>
+        <v>1615500</v>
       </c>
       <c r="I9" s="3">
-        <v>1342800</v>
+        <v>1644800</v>
       </c>
       <c r="J9" s="3">
+        <v>1383700</v>
+      </c>
+      <c r="K9" s="3">
         <v>886600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>819200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>783700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>802500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1064600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1162000</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1941200</v>
+        <v>954900</v>
       </c>
       <c r="E10" s="3">
-        <v>2498200</v>
+        <v>2000400</v>
       </c>
       <c r="F10" s="3">
-        <v>1137300</v>
+        <v>2574400</v>
       </c>
       <c r="G10" s="3">
-        <v>1479800</v>
+        <v>1172000</v>
       </c>
       <c r="H10" s="3">
-        <v>3287900</v>
+        <v>1524900</v>
       </c>
       <c r="I10" s="3">
-        <v>1685300</v>
+        <v>3388100</v>
       </c>
       <c r="J10" s="3">
+        <v>1736700</v>
+      </c>
+      <c r="K10" s="3">
         <v>785800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>834800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>389900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>331200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>383500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>364300</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -958,10 +978,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>16800</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>17300</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -972,8 +992,8 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -981,58 +1001,64 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>10300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>186100</v>
+        <v>186500</v>
       </c>
       <c r="E15" s="3">
-        <v>202900</v>
+        <v>191800</v>
       </c>
       <c r="F15" s="3">
-        <v>197700</v>
+        <v>209100</v>
       </c>
       <c r="G15" s="3">
-        <v>190000</v>
+        <v>203800</v>
       </c>
       <c r="H15" s="3">
-        <v>209400</v>
+        <v>195800</v>
       </c>
       <c r="I15" s="3">
-        <v>157700</v>
+        <v>215800</v>
       </c>
       <c r="J15" s="3">
+        <v>162500</v>
+      </c>
+      <c r="K15" s="3">
         <v>69800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>65200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>59900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>66200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>84700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>83400</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2463300</v>
+        <v>2406600</v>
       </c>
       <c r="E17" s="3">
-        <v>2175100</v>
+        <v>2538400</v>
       </c>
       <c r="F17" s="3">
-        <v>2052300</v>
+        <v>2241400</v>
       </c>
       <c r="G17" s="3">
-        <v>2233300</v>
+        <v>2114900</v>
       </c>
       <c r="H17" s="3">
-        <v>2317300</v>
+        <v>2301400</v>
       </c>
       <c r="I17" s="3">
-        <v>1892100</v>
+        <v>2387900</v>
       </c>
       <c r="J17" s="3">
+        <v>1949800</v>
+      </c>
+      <c r="K17" s="3">
         <v>1161900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1176600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1095900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1122200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1487800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1595600</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1267800</v>
+        <v>374200</v>
       </c>
       <c r="E18" s="3">
-        <v>1844300</v>
+        <v>1306500</v>
       </c>
       <c r="F18" s="3">
-        <v>581600</v>
+        <v>1900500</v>
       </c>
       <c r="G18" s="3">
-        <v>814200</v>
+        <v>599300</v>
       </c>
       <c r="H18" s="3">
-        <v>2566700</v>
+        <v>839000</v>
       </c>
       <c r="I18" s="3">
-        <v>1136000</v>
+        <v>2645000</v>
       </c>
       <c r="J18" s="3">
+        <v>1170700</v>
+      </c>
+      <c r="K18" s="3">
         <v>510500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>477400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>77700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>11500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-39800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-69300</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,98 +1177,105 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>33600</v>
+        <v>29300</v>
       </c>
       <c r="E20" s="3">
-        <v>-9000</v>
+        <v>34600</v>
       </c>
       <c r="F20" s="3">
-        <v>-15500</v>
+        <v>-9300</v>
       </c>
       <c r="G20" s="3">
-        <v>-7800</v>
+        <v>-16000</v>
       </c>
       <c r="H20" s="3">
-        <v>-25800</v>
+        <v>-8000</v>
       </c>
       <c r="I20" s="3">
-        <v>-11600</v>
+        <v>-26600</v>
       </c>
       <c r="J20" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-12900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-20900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-15300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-19200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-12800</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1487600</v>
+        <v>590000</v>
       </c>
       <c r="E21" s="3">
-        <v>2038100</v>
+        <v>1532900</v>
       </c>
       <c r="F21" s="3">
-        <v>763800</v>
+        <v>2100200</v>
       </c>
       <c r="G21" s="3">
-        <v>996400</v>
+        <v>787100</v>
       </c>
       <c r="H21" s="3">
-        <v>2750200</v>
+        <v>1026800</v>
       </c>
       <c r="I21" s="3">
-        <v>1282100</v>
+        <v>2834100</v>
       </c>
       <c r="J21" s="3">
+        <v>1321100</v>
+      </c>
+      <c r="K21" s="3">
         <v>567400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>521800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>122300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>73900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>25700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>6500</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>8</v>
+        <v>9300</v>
+      </c>
+      <c r="E22" s="3">
+        <v>6700</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>8</v>
@@ -1252,8 +1292,8 @@
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1267,90 +1307,99 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1295000</v>
+        <v>394200</v>
       </c>
       <c r="E23" s="3">
-        <v>1835200</v>
+        <v>1334500</v>
       </c>
       <c r="F23" s="3">
-        <v>566100</v>
+        <v>1891200</v>
       </c>
       <c r="G23" s="3">
-        <v>806500</v>
+        <v>583300</v>
       </c>
       <c r="H23" s="3">
-        <v>2540900</v>
+        <v>831000</v>
       </c>
       <c r="I23" s="3">
-        <v>1124400</v>
+        <v>2618300</v>
       </c>
       <c r="J23" s="3">
+        <v>1158700</v>
+      </c>
+      <c r="K23" s="3">
         <v>497600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>456500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>62400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>7600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-59000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-82100</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>310200</v>
+        <v>106500</v>
       </c>
       <c r="E24" s="3">
-        <v>426500</v>
+        <v>319600</v>
       </c>
       <c r="F24" s="3">
-        <v>134400</v>
+        <v>439500</v>
       </c>
       <c r="G24" s="3">
-        <v>212000</v>
+        <v>138500</v>
       </c>
       <c r="H24" s="3">
-        <v>617800</v>
+        <v>218400</v>
       </c>
       <c r="I24" s="3">
-        <v>264900</v>
+        <v>636600</v>
       </c>
       <c r="J24" s="3">
+        <v>273000</v>
+      </c>
+      <c r="K24" s="3">
         <v>133100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>114800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>17800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-3800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-5100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-24400</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>984800</v>
+        <v>287700</v>
       </c>
       <c r="E26" s="3">
-        <v>1408700</v>
+        <v>1014800</v>
       </c>
       <c r="F26" s="3">
-        <v>431700</v>
+        <v>1451700</v>
       </c>
       <c r="G26" s="3">
-        <v>594500</v>
+        <v>444800</v>
       </c>
       <c r="H26" s="3">
-        <v>1923100</v>
+        <v>612600</v>
       </c>
       <c r="I26" s="3">
-        <v>859400</v>
+        <v>1981700</v>
       </c>
       <c r="J26" s="3">
+        <v>885600</v>
+      </c>
+      <c r="K26" s="3">
         <v>364500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>341800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>44600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>11500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-53900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-57700</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>984800</v>
+        <v>287700</v>
       </c>
       <c r="E27" s="3">
-        <v>1408700</v>
+        <v>1014800</v>
       </c>
       <c r="F27" s="3">
-        <v>431700</v>
+        <v>1451700</v>
       </c>
       <c r="G27" s="3">
-        <v>594500</v>
+        <v>444800</v>
       </c>
       <c r="H27" s="3">
-        <v>1923100</v>
+        <v>612600</v>
       </c>
       <c r="I27" s="3">
-        <v>859400</v>
+        <v>1981700</v>
       </c>
       <c r="J27" s="3">
+        <v>885600</v>
+      </c>
+      <c r="K27" s="3">
         <v>364500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>341800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>44600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>11500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-53900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-57700</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-33600</v>
+        <v>-29300</v>
       </c>
       <c r="E32" s="3">
-        <v>9000</v>
+        <v>-34600</v>
       </c>
       <c r="F32" s="3">
-        <v>15500</v>
+        <v>9300</v>
       </c>
       <c r="G32" s="3">
-        <v>7800</v>
+        <v>16000</v>
       </c>
       <c r="H32" s="3">
-        <v>25800</v>
+        <v>8000</v>
       </c>
       <c r="I32" s="3">
-        <v>11600</v>
+        <v>26600</v>
       </c>
       <c r="J32" s="3">
+        <v>12000</v>
+      </c>
+      <c r="K32" s="3">
         <v>12900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>20900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>15300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>19200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>984800</v>
+        <v>287700</v>
       </c>
       <c r="E33" s="3">
-        <v>1408700</v>
+        <v>1014800</v>
       </c>
       <c r="F33" s="3">
-        <v>431700</v>
+        <v>1451700</v>
       </c>
       <c r="G33" s="3">
-        <v>594500</v>
+        <v>444800</v>
       </c>
       <c r="H33" s="3">
-        <v>1923100</v>
+        <v>612600</v>
       </c>
       <c r="I33" s="3">
-        <v>859400</v>
+        <v>1981700</v>
       </c>
       <c r="J33" s="3">
+        <v>885600</v>
+      </c>
+      <c r="K33" s="3">
         <v>364500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>341800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>44600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>11500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-53900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-57700</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>984800</v>
+        <v>287700</v>
       </c>
       <c r="E35" s="3">
-        <v>1408700</v>
+        <v>1014800</v>
       </c>
       <c r="F35" s="3">
-        <v>431700</v>
+        <v>1451700</v>
       </c>
       <c r="G35" s="3">
-        <v>594500</v>
+        <v>444800</v>
       </c>
       <c r="H35" s="3">
-        <v>1923100</v>
+        <v>612600</v>
       </c>
       <c r="I35" s="3">
-        <v>859400</v>
+        <v>1981700</v>
       </c>
       <c r="J35" s="3">
+        <v>885600</v>
+      </c>
+      <c r="K35" s="3">
         <v>364500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>341800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>44600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>11500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-53900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-57700</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,49 +1966,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1655600</v>
+        <v>1762000</v>
       </c>
       <c r="E41" s="3">
-        <v>2347000</v>
+        <v>1706000</v>
       </c>
       <c r="F41" s="3">
-        <v>2026500</v>
+        <v>2418500</v>
       </c>
       <c r="G41" s="3">
-        <v>2720500</v>
+        <v>2088300</v>
       </c>
       <c r="H41" s="3">
-        <v>2883300</v>
+        <v>2803400</v>
       </c>
       <c r="I41" s="3">
-        <v>1809400</v>
+        <v>2971200</v>
       </c>
       <c r="J41" s="3">
+        <v>1864500</v>
+      </c>
+      <c r="K41" s="3">
         <v>595800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>408300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>161800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>119700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>20500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,172 +2052,187 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>748300</v>
+        <v>735200</v>
       </c>
       <c r="E43" s="3">
-        <v>1045600</v>
+        <v>771100</v>
       </c>
       <c r="F43" s="3">
-        <v>710800</v>
+        <v>1077400</v>
       </c>
       <c r="G43" s="3">
-        <v>718600</v>
+        <v>732500</v>
       </c>
       <c r="H43" s="3">
-        <v>1032600</v>
+        <v>740500</v>
       </c>
       <c r="I43" s="3">
-        <v>877500</v>
+        <v>1064100</v>
       </c>
       <c r="J43" s="3">
+        <v>904300</v>
+      </c>
+      <c r="K43" s="3">
         <v>368300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>543900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>503300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>573200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>504100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>560500</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1406100</v>
+        <v>1373100</v>
       </c>
       <c r="E44" s="3">
-        <v>1757700</v>
+        <v>1449000</v>
       </c>
       <c r="F44" s="3">
-        <v>1371200</v>
+        <v>1811200</v>
       </c>
       <c r="G44" s="3">
-        <v>1212300</v>
+        <v>1413000</v>
       </c>
       <c r="H44" s="3">
-        <v>1248500</v>
+        <v>1249200</v>
       </c>
       <c r="I44" s="3">
-        <v>1469500</v>
+        <v>1286500</v>
       </c>
       <c r="J44" s="3">
+        <v>1514300</v>
+      </c>
+      <c r="K44" s="3">
         <v>747000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>884400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>834700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1201200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>935000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>844000</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>98200</v>
+        <v>133200</v>
       </c>
       <c r="E45" s="3">
-        <v>45200</v>
+        <v>101200</v>
       </c>
       <c r="F45" s="3">
-        <v>49100</v>
+        <v>46600</v>
       </c>
       <c r="G45" s="3">
-        <v>68500</v>
+        <v>50600</v>
       </c>
       <c r="H45" s="3">
-        <v>80100</v>
+        <v>70600</v>
       </c>
       <c r="I45" s="3">
-        <v>37500</v>
+        <v>82600</v>
       </c>
       <c r="J45" s="3">
+        <v>38600</v>
+      </c>
+      <c r="K45" s="3">
         <v>15500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>23500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>26800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>17800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>11500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>23100</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3908200</v>
+        <v>4003400</v>
       </c>
       <c r="E46" s="3">
-        <v>5195400</v>
+        <v>4027400</v>
       </c>
       <c r="F46" s="3">
-        <v>4157700</v>
+        <v>5353800</v>
       </c>
       <c r="G46" s="3">
-        <v>4719800</v>
+        <v>4284400</v>
       </c>
       <c r="H46" s="3">
-        <v>5244600</v>
+        <v>4863700</v>
       </c>
       <c r="I46" s="3">
-        <v>4193800</v>
+        <v>5404400</v>
       </c>
       <c r="J46" s="3">
+        <v>4321700</v>
+      </c>
+      <c r="K46" s="3">
         <v>1726600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1860100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1526600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1912000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1471100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1449300</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,90 +2272,99 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5124400</v>
+        <v>5239300</v>
       </c>
       <c r="E48" s="3">
-        <v>5183800</v>
+        <v>5280600</v>
       </c>
       <c r="F48" s="3">
-        <v>5298800</v>
+        <v>5341800</v>
       </c>
       <c r="G48" s="3">
-        <v>4651300</v>
+        <v>5460400</v>
       </c>
       <c r="H48" s="3">
-        <v>4685000</v>
+        <v>4793100</v>
       </c>
       <c r="I48" s="3">
-        <v>4766400</v>
+        <v>4827800</v>
       </c>
       <c r="J48" s="3">
+        <v>4911700</v>
+      </c>
+      <c r="K48" s="3">
         <v>2141500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2811000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2775400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2844400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2744800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2799900</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3556700</v>
+        <v>3622500</v>
       </c>
       <c r="E49" s="3">
-        <v>3596700</v>
+        <v>3665100</v>
       </c>
       <c r="F49" s="3">
-        <v>3629100</v>
+        <v>3706400</v>
       </c>
       <c r="G49" s="3">
-        <v>3538600</v>
+        <v>3739700</v>
       </c>
       <c r="H49" s="3">
-        <v>3620000</v>
+        <v>3646500</v>
       </c>
       <c r="I49" s="3">
-        <v>3648400</v>
+        <v>3730400</v>
       </c>
       <c r="J49" s="3">
+        <v>3759700</v>
+      </c>
+      <c r="K49" s="3">
         <v>1244600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1635700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1620900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1654700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1622500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1587900</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,49 +2448,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>522100</v>
+        <v>614000</v>
       </c>
       <c r="E52" s="3">
-        <v>408400</v>
+        <v>538000</v>
       </c>
       <c r="F52" s="3">
-        <v>398100</v>
+        <v>420800</v>
       </c>
       <c r="G52" s="3">
-        <v>298500</v>
+        <v>410200</v>
       </c>
       <c r="H52" s="3">
-        <v>293400</v>
+        <v>307600</v>
       </c>
       <c r="I52" s="3">
-        <v>280500</v>
+        <v>302300</v>
       </c>
       <c r="J52" s="3">
+        <v>289000</v>
+      </c>
+      <c r="K52" s="3">
         <v>286900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>180000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>164400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>168100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>148800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>150100</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13111400</v>
+        <v>13479100</v>
       </c>
       <c r="E54" s="3">
-        <v>14384400</v>
+        <v>13511100</v>
       </c>
       <c r="F54" s="3">
-        <v>13483600</v>
+        <v>14822900</v>
       </c>
       <c r="G54" s="3">
-        <v>13208300</v>
+        <v>13894700</v>
       </c>
       <c r="H54" s="3">
-        <v>13842900</v>
+        <v>13611000</v>
       </c>
       <c r="I54" s="3">
-        <v>12889100</v>
+        <v>14264900</v>
       </c>
       <c r="J54" s="3">
+        <v>13282000</v>
+      </c>
+      <c r="K54" s="3">
         <v>5399600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6486800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6087300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6579200</v>
-      </c>
-      <c r="N54" s="3">
-        <v>5987200</v>
       </c>
       <c r="O54" s="3">
         <v>5987200</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3">
+        <v>5987200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,49 +2618,53 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>980900</v>
+        <v>1097400</v>
       </c>
       <c r="E57" s="3">
-        <v>1150200</v>
+        <v>1010800</v>
       </c>
       <c r="F57" s="3">
-        <v>1096000</v>
+        <v>1185300</v>
       </c>
       <c r="G57" s="3">
-        <v>1116600</v>
+        <v>1129400</v>
       </c>
       <c r="H57" s="3">
-        <v>962800</v>
+        <v>1150700</v>
       </c>
       <c r="I57" s="3">
-        <v>1036500</v>
+        <v>992200</v>
       </c>
       <c r="J57" s="3">
+        <v>1068100</v>
+      </c>
+      <c r="K57" s="3">
         <v>502700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>710900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>494400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>555400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>507900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>504100</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2540,8 +2674,8 @@
       <c r="E58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -2550,192 +2684,207 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>485900</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>500800</v>
+      </c>
+      <c r="K58" s="3">
         <v>9000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>13000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>468900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>881500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>513000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>405300</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>108600</v>
+        <v>93200</v>
       </c>
       <c r="E59" s="3">
-        <v>312800</v>
+        <v>111900</v>
       </c>
       <c r="F59" s="3">
-        <v>462700</v>
+        <v>322300</v>
       </c>
       <c r="G59" s="3">
-        <v>536300</v>
+        <v>476800</v>
       </c>
       <c r="H59" s="3">
-        <v>685000</v>
+        <v>552700</v>
       </c>
       <c r="I59" s="3">
-        <v>351500</v>
+        <v>705900</v>
       </c>
       <c r="J59" s="3">
+        <v>362200</v>
+      </c>
+      <c r="K59" s="3">
         <v>170600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>146100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>56100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>56000</v>
-      </c>
-      <c r="N59" s="3">
-        <v>52600</v>
       </c>
       <c r="O59" s="3">
         <v>52600</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>52600</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1089500</v>
+        <v>1190600</v>
       </c>
       <c r="E60" s="3">
-        <v>1463000</v>
+        <v>1122700</v>
       </c>
       <c r="F60" s="3">
-        <v>1558600</v>
+        <v>1507600</v>
       </c>
       <c r="G60" s="3">
-        <v>1653000</v>
+        <v>1606200</v>
       </c>
       <c r="H60" s="3">
-        <v>1647800</v>
+        <v>1703400</v>
       </c>
       <c r="I60" s="3">
-        <v>1874000</v>
+        <v>1698000</v>
       </c>
       <c r="J60" s="3">
+        <v>1931100</v>
+      </c>
+      <c r="K60" s="3">
         <v>682400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>870000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1019400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1492900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1073500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>962000</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>644900</v>
+        <v>664600</v>
       </c>
       <c r="E61" s="3">
-        <v>644900</v>
+        <v>664600</v>
       </c>
       <c r="F61" s="3">
-        <v>644900</v>
+        <v>664600</v>
       </c>
       <c r="G61" s="3">
-        <v>644900</v>
+        <v>664600</v>
       </c>
       <c r="H61" s="3">
-        <v>644900</v>
+        <v>664600</v>
       </c>
       <c r="I61" s="3">
-        <v>1084300</v>
+        <v>664600</v>
       </c>
       <c r="J61" s="3">
+        <v>1117400</v>
+      </c>
+      <c r="K61" s="3">
         <v>646200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>870000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>869100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>904400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>844000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>874700</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1223900</v>
+        <v>1250600</v>
       </c>
       <c r="E62" s="3">
-        <v>1212300</v>
+        <v>1261200</v>
       </c>
       <c r="F62" s="3">
-        <v>1385500</v>
+        <v>1249200</v>
       </c>
       <c r="G62" s="3">
-        <v>1307900</v>
+        <v>1427700</v>
       </c>
       <c r="H62" s="3">
-        <v>1419100</v>
+        <v>1347800</v>
       </c>
       <c r="I62" s="3">
-        <v>1382900</v>
+        <v>1462300</v>
       </c>
       <c r="J62" s="3">
+        <v>1425000</v>
+      </c>
+      <c r="K62" s="3">
         <v>917600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1073500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1051300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>833100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>896500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>840100</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2958300</v>
+        <v>3105800</v>
       </c>
       <c r="E66" s="3">
-        <v>3320200</v>
+        <v>3048500</v>
       </c>
       <c r="F66" s="3">
-        <v>3589000</v>
+        <v>3421400</v>
       </c>
       <c r="G66" s="3">
-        <v>3605800</v>
+        <v>3698400</v>
       </c>
       <c r="H66" s="3">
-        <v>3711800</v>
+        <v>3715700</v>
       </c>
       <c r="I66" s="3">
-        <v>4341200</v>
+        <v>3824900</v>
       </c>
       <c r="J66" s="3">
+        <v>4473500</v>
+      </c>
+      <c r="K66" s="3">
         <v>2197100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2813600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2939800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3230400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2814000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2676800</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6959600</v>
+        <v>7262300</v>
       </c>
       <c r="E72" s="3">
-        <v>7125000</v>
+        <v>7171700</v>
       </c>
       <c r="F72" s="3">
-        <v>5819700</v>
+        <v>7342200</v>
       </c>
       <c r="G72" s="3">
-        <v>5479800</v>
+        <v>5997100</v>
       </c>
       <c r="H72" s="3">
-        <v>5503000</v>
+        <v>5646800</v>
       </c>
       <c r="I72" s="3">
-        <v>3775100</v>
+        <v>5670800</v>
       </c>
       <c r="J72" s="3">
+        <v>3890200</v>
+      </c>
+      <c r="K72" s="3">
         <v>2891100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2844900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2319200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2480100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2384400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2503600</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10153100</v>
+        <v>10373400</v>
       </c>
       <c r="E76" s="3">
-        <v>11064200</v>
+        <v>10462600</v>
       </c>
       <c r="F76" s="3">
-        <v>9894600</v>
+        <v>11401500</v>
       </c>
       <c r="G76" s="3">
-        <v>9602500</v>
+        <v>10196300</v>
       </c>
       <c r="H76" s="3">
-        <v>10131100</v>
+        <v>9895300</v>
       </c>
       <c r="I76" s="3">
-        <v>8547900</v>
+        <v>10440000</v>
       </c>
       <c r="J76" s="3">
+        <v>8808500</v>
+      </c>
+      <c r="K76" s="3">
         <v>3202600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3673200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3147500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3348800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3173200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3310400</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>984800</v>
+        <v>287700</v>
       </c>
       <c r="E81" s="3">
-        <v>1408700</v>
+        <v>1014800</v>
       </c>
       <c r="F81" s="3">
-        <v>431700</v>
+        <v>1451700</v>
       </c>
       <c r="G81" s="3">
-        <v>594500</v>
+        <v>444800</v>
       </c>
       <c r="H81" s="3">
-        <v>1923100</v>
+        <v>612600</v>
       </c>
       <c r="I81" s="3">
-        <v>859400</v>
+        <v>1981700</v>
       </c>
       <c r="J81" s="3">
+        <v>885600</v>
+      </c>
+      <c r="K81" s="3">
         <v>364500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>341800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>44600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>11500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-53900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-57700</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,49 +3627,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>186100</v>
+        <v>186500</v>
       </c>
       <c r="E83" s="3">
-        <v>202900</v>
+        <v>191800</v>
       </c>
       <c r="F83" s="3">
-        <v>197700</v>
+        <v>209100</v>
       </c>
       <c r="G83" s="3">
-        <v>190000</v>
+        <v>203800</v>
       </c>
       <c r="H83" s="3">
-        <v>209400</v>
+        <v>195800</v>
       </c>
       <c r="I83" s="3">
-        <v>157700</v>
+        <v>215800</v>
       </c>
       <c r="J83" s="3">
+        <v>162500</v>
+      </c>
+      <c r="K83" s="3">
         <v>91800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>86100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>82800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>89200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>84700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>83400</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1375100</v>
+        <v>576700</v>
       </c>
       <c r="E89" s="3">
-        <v>727600</v>
+        <v>1417000</v>
       </c>
       <c r="F89" s="3">
-        <v>374800</v>
+        <v>749800</v>
       </c>
       <c r="G89" s="3">
-        <v>1181300</v>
+        <v>386200</v>
       </c>
       <c r="H89" s="3">
-        <v>2437500</v>
+        <v>1217300</v>
       </c>
       <c r="I89" s="3">
-        <v>597100</v>
+        <v>2511800</v>
       </c>
       <c r="J89" s="3">
+        <v>615300</v>
+      </c>
+      <c r="K89" s="3">
         <v>471700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>799600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>519900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-115900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>51300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>148800</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,49 +3953,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-113700</v>
+        <v>-195800</v>
       </c>
       <c r="E91" s="3">
-        <v>-120200</v>
+        <v>-117200</v>
       </c>
       <c r="F91" s="3">
-        <v>-518300</v>
+        <v>-123900</v>
       </c>
       <c r="G91" s="3">
-        <v>-137000</v>
+        <v>-534100</v>
       </c>
       <c r="H91" s="3">
-        <v>-85300</v>
+        <v>-141200</v>
       </c>
       <c r="I91" s="3">
-        <v>-80100</v>
+        <v>-87900</v>
       </c>
       <c r="J91" s="3">
+        <v>-82600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-58200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-61300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-54800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-57300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-111600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-170600</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,49 +4083,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-111100</v>
+        <v>-189100</v>
       </c>
       <c r="E94" s="3">
-        <v>-118900</v>
+        <v>-114500</v>
       </c>
       <c r="F94" s="3">
-        <v>-903400</v>
+        <v>-122500</v>
       </c>
       <c r="G94" s="3">
-        <v>-135700</v>
+        <v>-930900</v>
       </c>
       <c r="H94" s="3">
-        <v>-82700</v>
+        <v>-139800</v>
       </c>
       <c r="I94" s="3">
-        <v>752200</v>
+        <v>-85200</v>
       </c>
       <c r="J94" s="3">
+        <v>775100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-54300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-54800</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-52200</v>
       </c>
       <c r="M94" s="3">
         <v>-52200</v>
       </c>
       <c r="N94" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="O94" s="3">
         <v>-111600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-162900</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,49 +4147,53 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-33600</v>
+        <v>-36000</v>
       </c>
       <c r="E96" s="3">
-        <v>-27100</v>
+        <v>-34600</v>
       </c>
       <c r="F96" s="3">
-        <v>-27100</v>
+        <v>-28000</v>
       </c>
       <c r="G96" s="3">
-        <v>-31000</v>
+        <v>-28000</v>
       </c>
       <c r="H96" s="3">
-        <v>-24600</v>
+        <v>-32000</v>
       </c>
       <c r="I96" s="3">
+        <v>-25300</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-14200</v>
       </c>
-      <c r="J96" s="3">
-        <v>-14200</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-13000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-12700</v>
       </c>
       <c r="M96" s="3">
         <v>-12700</v>
       </c>
       <c r="N96" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="O96" s="3">
         <v>-11500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-21800</v>
       </c>
     </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,127 +4321,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1958000</v>
+        <v>-290300</v>
       </c>
       <c r="E100" s="3">
-        <v>-280500</v>
+        <v>-2017700</v>
       </c>
       <c r="F100" s="3">
-        <v>-168000</v>
+        <v>-289000</v>
       </c>
       <c r="G100" s="3">
-        <v>-1195500</v>
+        <v>-173100</v>
       </c>
       <c r="H100" s="3">
-        <v>-1292400</v>
+        <v>-1231900</v>
       </c>
       <c r="I100" s="3">
-        <v>-140900</v>
+        <v>-1331800</v>
       </c>
       <c r="J100" s="3">
+        <v>-145200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-25800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-369100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-425600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>361800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>39800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>57700</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2600</v>
+        <v>-41300</v>
       </c>
       <c r="E101" s="3">
-        <v>-7800</v>
+        <v>2700</v>
       </c>
       <c r="F101" s="3">
-        <v>2600</v>
+        <v>-8000</v>
       </c>
       <c r="G101" s="3">
-        <v>-12900</v>
+        <v>2700</v>
       </c>
       <c r="H101" s="3">
-        <v>11600</v>
+        <v>-13300</v>
       </c>
       <c r="I101" s="3">
-        <v>5200</v>
+        <v>12000</v>
       </c>
       <c r="J101" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K101" s="3">
         <v>16800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-5100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-691400</v>
+        <v>55900</v>
       </c>
       <c r="E102" s="3">
-        <v>320500</v>
+        <v>-712500</v>
       </c>
       <c r="F102" s="3">
-        <v>-694000</v>
+        <v>330300</v>
       </c>
       <c r="G102" s="3">
-        <v>-162800</v>
+        <v>-715200</v>
       </c>
       <c r="H102" s="3">
-        <v>1074000</v>
+        <v>-167800</v>
       </c>
       <c r="I102" s="3">
-        <v>1213600</v>
+        <v>1106700</v>
       </c>
       <c r="J102" s="3">
+        <v>1250600</v>
+      </c>
+      <c r="K102" s="3">
         <v>354100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>242600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>42100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>119700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-16700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>42300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WFG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WFG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>WFG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,218 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2780800</v>
+        <v>2234400</v>
       </c>
       <c r="E8" s="3">
-        <v>3844900</v>
+        <v>2887100</v>
       </c>
       <c r="F8" s="3">
-        <v>4141900</v>
+        <v>3991900</v>
       </c>
       <c r="G8" s="3">
-        <v>2714200</v>
+        <v>4300200</v>
       </c>
       <c r="H8" s="3">
-        <v>3140400</v>
+        <v>2817900</v>
       </c>
       <c r="I8" s="3">
-        <v>5032900</v>
+        <v>3260400</v>
       </c>
       <c r="J8" s="3">
+        <v>5225200</v>
+      </c>
+      <c r="K8" s="3">
         <v>3120400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1672400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1654000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1173600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1133700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1448100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1526300</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1825900</v>
+        <v>1671700</v>
       </c>
       <c r="E9" s="3">
-        <v>1844500</v>
+        <v>1895700</v>
       </c>
       <c r="F9" s="3">
-        <v>1567500</v>
+        <v>1915000</v>
       </c>
       <c r="G9" s="3">
-        <v>1542200</v>
+        <v>1627400</v>
       </c>
       <c r="H9" s="3">
-        <v>1615500</v>
+        <v>1601200</v>
       </c>
       <c r="I9" s="3">
-        <v>1644800</v>
+        <v>1677200</v>
       </c>
       <c r="J9" s="3">
+        <v>1707600</v>
+      </c>
+      <c r="K9" s="3">
         <v>1383700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>886600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>819200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>783700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>802500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1064600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1162000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>954900</v>
+        <v>562800</v>
       </c>
       <c r="E10" s="3">
-        <v>2000400</v>
+        <v>991400</v>
       </c>
       <c r="F10" s="3">
-        <v>2574400</v>
+        <v>2076800</v>
       </c>
       <c r="G10" s="3">
-        <v>1172000</v>
+        <v>2672800</v>
       </c>
       <c r="H10" s="3">
-        <v>1524900</v>
+        <v>1216800</v>
       </c>
       <c r="I10" s="3">
-        <v>3388100</v>
+        <v>1583200</v>
       </c>
       <c r="J10" s="3">
+        <v>3517600</v>
+      </c>
+      <c r="K10" s="3">
         <v>1736700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>785800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>834800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>389900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>331200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>383500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>364300</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,22 +985,25 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>65000</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>17300</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>18000</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -995,8 +1014,8 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1004,61 +1023,67 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>10300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>186500</v>
+        <v>204600</v>
       </c>
       <c r="E15" s="3">
-        <v>191800</v>
+        <v>193600</v>
       </c>
       <c r="F15" s="3">
-        <v>209100</v>
+        <v>199100</v>
       </c>
       <c r="G15" s="3">
-        <v>203800</v>
+        <v>217100</v>
       </c>
       <c r="H15" s="3">
-        <v>195800</v>
+        <v>211600</v>
       </c>
       <c r="I15" s="3">
-        <v>215800</v>
+        <v>203300</v>
       </c>
       <c r="J15" s="3">
+        <v>224000</v>
+      </c>
+      <c r="K15" s="3">
         <v>162500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>69800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>65200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>59900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>66200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>84700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>83400</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2406600</v>
+        <v>2414200</v>
       </c>
       <c r="E17" s="3">
-        <v>2538400</v>
+        <v>2498500</v>
       </c>
       <c r="F17" s="3">
-        <v>2241400</v>
+        <v>2635400</v>
       </c>
       <c r="G17" s="3">
-        <v>2114900</v>
+        <v>2327100</v>
       </c>
       <c r="H17" s="3">
-        <v>2301400</v>
+        <v>2195700</v>
       </c>
       <c r="I17" s="3">
-        <v>2387900</v>
+        <v>2389300</v>
       </c>
       <c r="J17" s="3">
+        <v>2479200</v>
+      </c>
+      <c r="K17" s="3">
         <v>1949800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1161900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1176600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1095900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1122200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1487800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1595600</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>374200</v>
+        <v>-179800</v>
       </c>
       <c r="E18" s="3">
-        <v>1306500</v>
+        <v>388500</v>
       </c>
       <c r="F18" s="3">
-        <v>1900500</v>
+        <v>1356400</v>
       </c>
       <c r="G18" s="3">
-        <v>599300</v>
+        <v>1973100</v>
       </c>
       <c r="H18" s="3">
-        <v>839000</v>
+        <v>622200</v>
       </c>
       <c r="I18" s="3">
-        <v>2645000</v>
+        <v>871100</v>
       </c>
       <c r="J18" s="3">
+        <v>2746000</v>
+      </c>
+      <c r="K18" s="3">
         <v>1170700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>510500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>477400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>77700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>11500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-39800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-69300</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,107 +1210,114 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>29300</v>
+        <v>15200</v>
       </c>
       <c r="E20" s="3">
-        <v>34600</v>
+        <v>30400</v>
       </c>
       <c r="F20" s="3">
-        <v>-9300</v>
+        <v>36000</v>
       </c>
       <c r="G20" s="3">
-        <v>-16000</v>
+        <v>-9700</v>
       </c>
       <c r="H20" s="3">
-        <v>-8000</v>
+        <v>-16600</v>
       </c>
       <c r="I20" s="3">
-        <v>-26600</v>
+        <v>-8300</v>
       </c>
       <c r="J20" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-12000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-12900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-20900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-15300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-19200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-12800</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>590000</v>
+        <v>40100</v>
       </c>
       <c r="E21" s="3">
-        <v>1532900</v>
+        <v>612500</v>
       </c>
       <c r="F21" s="3">
-        <v>2100200</v>
+        <v>1591500</v>
       </c>
       <c r="G21" s="3">
-        <v>787100</v>
+        <v>2180500</v>
       </c>
       <c r="H21" s="3">
-        <v>1026800</v>
+        <v>817200</v>
       </c>
       <c r="I21" s="3">
-        <v>2834100</v>
+        <v>1066100</v>
       </c>
       <c r="J21" s="3">
+        <v>2942400</v>
+      </c>
+      <c r="K21" s="3">
         <v>1321100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>567400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>521800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>122300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>73900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>25700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>9300</v>
+        <v>8300</v>
       </c>
       <c r="E22" s="3">
-        <v>6700</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
+        <v>9700</v>
+      </c>
+      <c r="F22" s="3">
+        <v>6900</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>8</v>
@@ -1295,8 +1334,8 @@
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1310,96 +1349,105 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>394200</v>
+        <v>-172800</v>
       </c>
       <c r="E23" s="3">
-        <v>1334500</v>
+        <v>409300</v>
       </c>
       <c r="F23" s="3">
-        <v>1891200</v>
+        <v>1385500</v>
       </c>
       <c r="G23" s="3">
-        <v>583300</v>
+        <v>1963400</v>
       </c>
       <c r="H23" s="3">
-        <v>831000</v>
+        <v>605600</v>
       </c>
       <c r="I23" s="3">
-        <v>2618300</v>
+        <v>862800</v>
       </c>
       <c r="J23" s="3">
+        <v>2718400</v>
+      </c>
+      <c r="K23" s="3">
         <v>1158700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>497600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>456500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>62400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>7600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-59000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-82100</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>106500</v>
+        <v>-44200</v>
       </c>
       <c r="E24" s="3">
-        <v>319600</v>
+        <v>110600</v>
       </c>
       <c r="F24" s="3">
-        <v>439500</v>
+        <v>331800</v>
       </c>
       <c r="G24" s="3">
-        <v>138500</v>
+        <v>456300</v>
       </c>
       <c r="H24" s="3">
-        <v>218400</v>
+        <v>143800</v>
       </c>
       <c r="I24" s="3">
-        <v>636600</v>
+        <v>226800</v>
       </c>
       <c r="J24" s="3">
+        <v>660900</v>
+      </c>
+      <c r="K24" s="3">
         <v>273000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>133100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>114800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>17800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-3800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-5100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-24400</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>287700</v>
+        <v>-128600</v>
       </c>
       <c r="E26" s="3">
-        <v>1014800</v>
+        <v>298700</v>
       </c>
       <c r="F26" s="3">
-        <v>1451700</v>
+        <v>1053600</v>
       </c>
       <c r="G26" s="3">
-        <v>444800</v>
+        <v>1507100</v>
       </c>
       <c r="H26" s="3">
-        <v>612600</v>
+        <v>461800</v>
       </c>
       <c r="I26" s="3">
-        <v>1981700</v>
+        <v>636000</v>
       </c>
       <c r="J26" s="3">
+        <v>2057500</v>
+      </c>
+      <c r="K26" s="3">
         <v>885600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>364500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>341800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>44600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>11500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-53900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-57700</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>287700</v>
+        <v>-128600</v>
       </c>
       <c r="E27" s="3">
-        <v>1014800</v>
+        <v>298700</v>
       </c>
       <c r="F27" s="3">
-        <v>1451700</v>
+        <v>1053600</v>
       </c>
       <c r="G27" s="3">
-        <v>444800</v>
+        <v>1507100</v>
       </c>
       <c r="H27" s="3">
-        <v>612600</v>
+        <v>461800</v>
       </c>
       <c r="I27" s="3">
-        <v>1981700</v>
+        <v>636000</v>
       </c>
       <c r="J27" s="3">
+        <v>2057500</v>
+      </c>
+      <c r="K27" s="3">
         <v>885600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>364500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>341800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>44600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>11500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-53900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-57700</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1772,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-29300</v>
+        <v>-15200</v>
       </c>
       <c r="E32" s="3">
-        <v>-34600</v>
+        <v>-30400</v>
       </c>
       <c r="F32" s="3">
-        <v>9300</v>
+        <v>-36000</v>
       </c>
       <c r="G32" s="3">
-        <v>16000</v>
+        <v>9700</v>
       </c>
       <c r="H32" s="3">
-        <v>8000</v>
+        <v>16600</v>
       </c>
       <c r="I32" s="3">
-        <v>26600</v>
+        <v>8300</v>
       </c>
       <c r="J32" s="3">
+        <v>27700</v>
+      </c>
+      <c r="K32" s="3">
         <v>12000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>12900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>20900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>15300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>19200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>287700</v>
+        <v>-128600</v>
       </c>
       <c r="E33" s="3">
-        <v>1014800</v>
+        <v>298700</v>
       </c>
       <c r="F33" s="3">
-        <v>1451700</v>
+        <v>1053600</v>
       </c>
       <c r="G33" s="3">
-        <v>444800</v>
+        <v>1507100</v>
       </c>
       <c r="H33" s="3">
-        <v>612600</v>
+        <v>461800</v>
       </c>
       <c r="I33" s="3">
-        <v>1981700</v>
+        <v>636000</v>
       </c>
       <c r="J33" s="3">
+        <v>2057500</v>
+      </c>
+      <c r="K33" s="3">
         <v>885600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>364500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>341800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>44600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>11500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-53900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-57700</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>287700</v>
+        <v>-128600</v>
       </c>
       <c r="E35" s="3">
-        <v>1014800</v>
+        <v>298700</v>
       </c>
       <c r="F35" s="3">
-        <v>1451700</v>
+        <v>1053600</v>
       </c>
       <c r="G35" s="3">
-        <v>444800</v>
+        <v>1507100</v>
       </c>
       <c r="H35" s="3">
-        <v>612600</v>
+        <v>461800</v>
       </c>
       <c r="I35" s="3">
-        <v>1981700</v>
+        <v>636000</v>
       </c>
       <c r="J35" s="3">
+        <v>2057500</v>
+      </c>
+      <c r="K35" s="3">
         <v>885600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>364500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>341800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>44600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>11500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-53900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-57700</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2052,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1762000</v>
+        <v>1606700</v>
       </c>
       <c r="E41" s="3">
-        <v>1706000</v>
+        <v>1829300</v>
       </c>
       <c r="F41" s="3">
-        <v>2418500</v>
+        <v>1771200</v>
       </c>
       <c r="G41" s="3">
-        <v>2088300</v>
+        <v>2511000</v>
       </c>
       <c r="H41" s="3">
-        <v>2803400</v>
+        <v>2168100</v>
       </c>
       <c r="I41" s="3">
-        <v>2971200</v>
+        <v>2910600</v>
       </c>
       <c r="J41" s="3">
+        <v>3084800</v>
+      </c>
+      <c r="K41" s="3">
         <v>1864500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>595800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>408300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>161800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>119700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>20500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,184 +2144,199 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>735200</v>
+        <v>684400</v>
       </c>
       <c r="E43" s="3">
-        <v>771100</v>
+        <v>763300</v>
       </c>
       <c r="F43" s="3">
-        <v>1077400</v>
+        <v>800600</v>
       </c>
       <c r="G43" s="3">
-        <v>732500</v>
+        <v>1118600</v>
       </c>
       <c r="H43" s="3">
-        <v>740500</v>
+        <v>760500</v>
       </c>
       <c r="I43" s="3">
-        <v>1064100</v>
+        <v>768800</v>
       </c>
       <c r="J43" s="3">
+        <v>1104800</v>
+      </c>
+      <c r="K43" s="3">
         <v>904300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>368300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>543900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>503300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>573200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>504100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>560500</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1373100</v>
+        <v>1426900</v>
       </c>
       <c r="E44" s="3">
-        <v>1449000</v>
+        <v>1425600</v>
       </c>
       <c r="F44" s="3">
-        <v>1811200</v>
+        <v>1504400</v>
       </c>
       <c r="G44" s="3">
-        <v>1413000</v>
+        <v>1880500</v>
       </c>
       <c r="H44" s="3">
-        <v>1249200</v>
+        <v>1467000</v>
       </c>
       <c r="I44" s="3">
-        <v>1286500</v>
+        <v>1297000</v>
       </c>
       <c r="J44" s="3">
+        <v>1335700</v>
+      </c>
+      <c r="K44" s="3">
         <v>1514300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>747000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>884400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>834700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1201200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>935000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>844000</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>133200</v>
+        <v>83000</v>
       </c>
       <c r="E45" s="3">
-        <v>101200</v>
+        <v>138300</v>
       </c>
       <c r="F45" s="3">
-        <v>46600</v>
+        <v>105100</v>
       </c>
       <c r="G45" s="3">
-        <v>50600</v>
+        <v>48400</v>
       </c>
       <c r="H45" s="3">
-        <v>70600</v>
+        <v>52500</v>
       </c>
       <c r="I45" s="3">
-        <v>82600</v>
+        <v>73300</v>
       </c>
       <c r="J45" s="3">
+        <v>85700</v>
+      </c>
+      <c r="K45" s="3">
         <v>38600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>15500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>23500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>26800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>17800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>11500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>23100</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4003400</v>
+        <v>3801000</v>
       </c>
       <c r="E46" s="3">
-        <v>4027400</v>
+        <v>4156400</v>
       </c>
       <c r="F46" s="3">
-        <v>5353800</v>
+        <v>4181300</v>
       </c>
       <c r="G46" s="3">
-        <v>4284400</v>
+        <v>5558500</v>
       </c>
       <c r="H46" s="3">
-        <v>4863700</v>
+        <v>4448100</v>
       </c>
       <c r="I46" s="3">
-        <v>5404400</v>
+        <v>5049600</v>
       </c>
       <c r="J46" s="3">
+        <v>5611000</v>
+      </c>
+      <c r="K46" s="3">
         <v>4321700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1726600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1860100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1526600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1912000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1471100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1449300</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,96 +2379,105 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5239300</v>
+        <v>5505900</v>
       </c>
       <c r="E48" s="3">
-        <v>5280600</v>
+        <v>5439500</v>
       </c>
       <c r="F48" s="3">
-        <v>5341800</v>
+        <v>5482400</v>
       </c>
       <c r="G48" s="3">
-        <v>5460400</v>
+        <v>5546000</v>
       </c>
       <c r="H48" s="3">
-        <v>4793100</v>
+        <v>5669100</v>
       </c>
       <c r="I48" s="3">
-        <v>4827800</v>
+        <v>4976300</v>
       </c>
       <c r="J48" s="3">
+        <v>5012300</v>
+      </c>
+      <c r="K48" s="3">
         <v>4911700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2141500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2811000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2775400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2844400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2744800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2799900</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3622500</v>
+        <v>3745700</v>
       </c>
       <c r="E49" s="3">
-        <v>3665100</v>
+        <v>3760900</v>
       </c>
       <c r="F49" s="3">
-        <v>3706400</v>
+        <v>3805200</v>
       </c>
       <c r="G49" s="3">
-        <v>3739700</v>
+        <v>3848100</v>
       </c>
       <c r="H49" s="3">
-        <v>3646500</v>
+        <v>3882600</v>
       </c>
       <c r="I49" s="3">
-        <v>3730400</v>
+        <v>3785800</v>
       </c>
       <c r="J49" s="3">
+        <v>3872900</v>
+      </c>
+      <c r="K49" s="3">
         <v>3759700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1244600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1635700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1620900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1654700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1622500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1587900</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2567,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>614000</v>
+        <v>737000</v>
       </c>
       <c r="E52" s="3">
-        <v>538000</v>
+        <v>637400</v>
       </c>
       <c r="F52" s="3">
-        <v>420800</v>
+        <v>558600</v>
       </c>
       <c r="G52" s="3">
-        <v>410200</v>
+        <v>436900</v>
       </c>
       <c r="H52" s="3">
-        <v>307600</v>
+        <v>425900</v>
       </c>
       <c r="I52" s="3">
-        <v>302300</v>
+        <v>319400</v>
       </c>
       <c r="J52" s="3">
+        <v>313900</v>
+      </c>
+      <c r="K52" s="3">
         <v>289000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>286900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>180000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>164400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>168100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>148800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>150100</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2661,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13479100</v>
+        <v>13789700</v>
       </c>
       <c r="E54" s="3">
-        <v>13511100</v>
+        <v>13994300</v>
       </c>
       <c r="F54" s="3">
-        <v>14822900</v>
+        <v>14027500</v>
       </c>
       <c r="G54" s="3">
-        <v>13894700</v>
+        <v>15389500</v>
       </c>
       <c r="H54" s="3">
-        <v>13611000</v>
+        <v>14425700</v>
       </c>
       <c r="I54" s="3">
-        <v>14264900</v>
+        <v>14131200</v>
       </c>
       <c r="J54" s="3">
+        <v>14810100</v>
+      </c>
+      <c r="K54" s="3">
         <v>13282000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5399600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6486800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6087300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6579200</v>
-      </c>
-      <c r="O54" s="3">
-        <v>5987200</v>
       </c>
       <c r="P54" s="3">
         <v>5987200</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>5987200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +2748,56 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1097400</v>
+        <v>998300</v>
       </c>
       <c r="E57" s="3">
-        <v>1010800</v>
+        <v>1139300</v>
       </c>
       <c r="F57" s="3">
-        <v>1185300</v>
+        <v>1049500</v>
       </c>
       <c r="G57" s="3">
-        <v>1129400</v>
+        <v>1230600</v>
       </c>
       <c r="H57" s="3">
-        <v>1150700</v>
+        <v>1172500</v>
       </c>
       <c r="I57" s="3">
-        <v>992200</v>
+        <v>1194700</v>
       </c>
       <c r="J57" s="3">
+        <v>1030100</v>
+      </c>
+      <c r="K57" s="3">
         <v>1068100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>502700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>710900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>494400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>555400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>507900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>504100</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2677,8 +2810,8 @@
       <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -2687,204 +2820,219 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>500800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>13000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>468900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>881500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>513000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>405300</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>93200</v>
+        <v>96800</v>
       </c>
       <c r="E59" s="3">
-        <v>111900</v>
+        <v>96800</v>
       </c>
       <c r="F59" s="3">
-        <v>322300</v>
+        <v>116100</v>
       </c>
       <c r="G59" s="3">
-        <v>476800</v>
+        <v>334600</v>
       </c>
       <c r="H59" s="3">
-        <v>552700</v>
+        <v>495000</v>
       </c>
       <c r="I59" s="3">
-        <v>705900</v>
+        <v>573800</v>
       </c>
       <c r="J59" s="3">
+        <v>732800</v>
+      </c>
+      <c r="K59" s="3">
         <v>362200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>170600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>146100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>56100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>56000</v>
-      </c>
-      <c r="O59" s="3">
-        <v>52600</v>
       </c>
       <c r="P59" s="3">
         <v>52600</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>52600</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1190600</v>
+        <v>1095100</v>
       </c>
       <c r="E60" s="3">
-        <v>1122700</v>
+        <v>1236100</v>
       </c>
       <c r="F60" s="3">
-        <v>1507600</v>
+        <v>1165600</v>
       </c>
       <c r="G60" s="3">
-        <v>1606200</v>
+        <v>1565200</v>
       </c>
       <c r="H60" s="3">
-        <v>1703400</v>
+        <v>1667500</v>
       </c>
       <c r="I60" s="3">
-        <v>1698000</v>
+        <v>1768500</v>
       </c>
       <c r="J60" s="3">
+        <v>1762900</v>
+      </c>
+      <c r="K60" s="3">
         <v>1931100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>682400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>870000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1019400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1492900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1073500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>962000</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>664600</v>
+        <v>690000</v>
       </c>
       <c r="E61" s="3">
-        <v>664600</v>
+        <v>690000</v>
       </c>
       <c r="F61" s="3">
-        <v>664600</v>
+        <v>690000</v>
       </c>
       <c r="G61" s="3">
-        <v>664600</v>
+        <v>690000</v>
       </c>
       <c r="H61" s="3">
-        <v>664600</v>
+        <v>690000</v>
       </c>
       <c r="I61" s="3">
-        <v>664600</v>
+        <v>690000</v>
       </c>
       <c r="J61" s="3">
+        <v>690000</v>
+      </c>
+      <c r="K61" s="3">
         <v>1117400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>646200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>870000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>869100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>904400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>844000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>874700</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1250600</v>
+        <v>1469800</v>
       </c>
       <c r="E62" s="3">
-        <v>1261200</v>
+        <v>1298400</v>
       </c>
       <c r="F62" s="3">
-        <v>1249200</v>
+        <v>1309400</v>
       </c>
       <c r="G62" s="3">
-        <v>1427700</v>
+        <v>1297000</v>
       </c>
       <c r="H62" s="3">
-        <v>1347800</v>
+        <v>1482300</v>
       </c>
       <c r="I62" s="3">
-        <v>1462300</v>
+        <v>1399300</v>
       </c>
       <c r="J62" s="3">
+        <v>1518200</v>
+      </c>
+      <c r="K62" s="3">
         <v>1425000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>917600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1073500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1051300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>833100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>896500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>840100</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3105800</v>
+        <v>3254900</v>
       </c>
       <c r="E66" s="3">
-        <v>3048500</v>
+        <v>3224500</v>
       </c>
       <c r="F66" s="3">
-        <v>3421400</v>
+        <v>3165000</v>
       </c>
       <c r="G66" s="3">
-        <v>3698400</v>
+        <v>3552200</v>
       </c>
       <c r="H66" s="3">
-        <v>3715700</v>
+        <v>3839800</v>
       </c>
       <c r="I66" s="3">
-        <v>3824900</v>
+        <v>3857700</v>
       </c>
       <c r="J66" s="3">
+        <v>3971100</v>
+      </c>
+      <c r="K66" s="3">
         <v>4473500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2197100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2813600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2939800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3230400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2814000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2676800</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7262300</v>
+        <v>7306200</v>
       </c>
       <c r="E72" s="3">
-        <v>7171700</v>
+        <v>7539900</v>
       </c>
       <c r="F72" s="3">
-        <v>7342200</v>
+        <v>7445800</v>
       </c>
       <c r="G72" s="3">
-        <v>5997100</v>
+        <v>7622800</v>
       </c>
       <c r="H72" s="3">
-        <v>5646800</v>
+        <v>6226300</v>
       </c>
       <c r="I72" s="3">
-        <v>5670800</v>
+        <v>5862600</v>
       </c>
       <c r="J72" s="3">
+        <v>5887500</v>
+      </c>
+      <c r="K72" s="3">
         <v>3890200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2891100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2844900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2319200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2480100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2384400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2503600</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10373400</v>
+        <v>10534800</v>
       </c>
       <c r="E76" s="3">
-        <v>10462600</v>
+        <v>10769900</v>
       </c>
       <c r="F76" s="3">
-        <v>11401500</v>
+        <v>10862500</v>
       </c>
       <c r="G76" s="3">
-        <v>10196300</v>
+        <v>11837300</v>
       </c>
       <c r="H76" s="3">
-        <v>9895300</v>
+        <v>10586000</v>
       </c>
       <c r="I76" s="3">
-        <v>10440000</v>
+        <v>10273500</v>
       </c>
       <c r="J76" s="3">
+        <v>10839000</v>
+      </c>
+      <c r="K76" s="3">
         <v>8808500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3202600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3673200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3147500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3348800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3173200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3310400</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>287700</v>
+        <v>-128600</v>
       </c>
       <c r="E81" s="3">
-        <v>1014800</v>
+        <v>298700</v>
       </c>
       <c r="F81" s="3">
-        <v>1451700</v>
+        <v>1053600</v>
       </c>
       <c r="G81" s="3">
-        <v>444800</v>
+        <v>1507100</v>
       </c>
       <c r="H81" s="3">
-        <v>612600</v>
+        <v>461800</v>
       </c>
       <c r="I81" s="3">
-        <v>1981700</v>
+        <v>636000</v>
       </c>
       <c r="J81" s="3">
+        <v>2057500</v>
+      </c>
+      <c r="K81" s="3">
         <v>885600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>364500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>341800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>44600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>11500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-53900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-57700</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +3825,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>186500</v>
+        <v>204600</v>
       </c>
       <c r="E83" s="3">
-        <v>191800</v>
+        <v>193600</v>
       </c>
       <c r="F83" s="3">
-        <v>209100</v>
+        <v>199100</v>
       </c>
       <c r="G83" s="3">
-        <v>203800</v>
+        <v>217100</v>
       </c>
       <c r="H83" s="3">
-        <v>195800</v>
+        <v>211600</v>
       </c>
       <c r="I83" s="3">
-        <v>215800</v>
+        <v>203300</v>
       </c>
       <c r="J83" s="3">
+        <v>224000</v>
+      </c>
+      <c r="K83" s="3">
         <v>162500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>91800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>86100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>82800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>89200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>84700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>83400</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>576700</v>
+        <v>203300</v>
       </c>
       <c r="E89" s="3">
-        <v>1417000</v>
+        <v>598700</v>
       </c>
       <c r="F89" s="3">
-        <v>749800</v>
+        <v>1471200</v>
       </c>
       <c r="G89" s="3">
-        <v>386200</v>
+        <v>778500</v>
       </c>
       <c r="H89" s="3">
-        <v>1217300</v>
+        <v>401000</v>
       </c>
       <c r="I89" s="3">
-        <v>2511800</v>
+        <v>1263800</v>
       </c>
       <c r="J89" s="3">
+        <v>2607800</v>
+      </c>
+      <c r="K89" s="3">
         <v>615300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>471700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>799600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>519900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-115900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>51300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>148800</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4173,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-195800</v>
+        <v>-206000</v>
       </c>
       <c r="E91" s="3">
-        <v>-117200</v>
+        <v>-203300</v>
       </c>
       <c r="F91" s="3">
-        <v>-123900</v>
+        <v>-121700</v>
       </c>
       <c r="G91" s="3">
-        <v>-534100</v>
+        <v>-128600</v>
       </c>
       <c r="H91" s="3">
-        <v>-141200</v>
+        <v>-554500</v>
       </c>
       <c r="I91" s="3">
-        <v>-87900</v>
+        <v>-146600</v>
       </c>
       <c r="J91" s="3">
+        <v>-91300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-82600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-58200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-61300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-54800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-57300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-111600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-170600</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4312,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-189100</v>
+        <v>-192200</v>
       </c>
       <c r="E94" s="3">
-        <v>-114500</v>
+        <v>-196300</v>
       </c>
       <c r="F94" s="3">
-        <v>-122500</v>
+        <v>-118900</v>
       </c>
       <c r="G94" s="3">
-        <v>-930900</v>
+        <v>-127200</v>
       </c>
       <c r="H94" s="3">
-        <v>-139800</v>
+        <v>-966500</v>
       </c>
       <c r="I94" s="3">
-        <v>-85200</v>
+        <v>-145200</v>
       </c>
       <c r="J94" s="3">
+        <v>-88500</v>
+      </c>
+      <c r="K94" s="3">
         <v>775100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-54300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-54800</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-52200</v>
       </c>
       <c r="N94" s="3">
         <v>-52200</v>
       </c>
       <c r="O94" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="P94" s="3">
         <v>-111600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-162900</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,52 +4380,56 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-34600</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-37300</v>
+      </c>
+      <c r="F96" s="3">
         <v>-36000</v>
       </c>
-      <c r="E96" s="3">
-        <v>-34600</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-28000</v>
-      </c>
       <c r="G96" s="3">
-        <v>-28000</v>
+        <v>-29000</v>
       </c>
       <c r="H96" s="3">
-        <v>-32000</v>
+        <v>-29000</v>
       </c>
       <c r="I96" s="3">
-        <v>-25300</v>
+        <v>-33200</v>
       </c>
       <c r="J96" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-14600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-14200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-13000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-12700</v>
       </c>
       <c r="N96" s="3">
         <v>-12700</v>
       </c>
       <c r="O96" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="P96" s="3">
         <v>-11500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-21800</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4566,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-290300</v>
+        <v>-243400</v>
       </c>
       <c r="E100" s="3">
-        <v>-2017700</v>
+        <v>-301400</v>
       </c>
       <c r="F100" s="3">
-        <v>-289000</v>
+        <v>-2094800</v>
       </c>
       <c r="G100" s="3">
-        <v>-173100</v>
+        <v>-300000</v>
       </c>
       <c r="H100" s="3">
-        <v>-1231900</v>
+        <v>-179800</v>
       </c>
       <c r="I100" s="3">
-        <v>-1331800</v>
+        <v>-1279000</v>
       </c>
       <c r="J100" s="3">
+        <v>-1382700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-145200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-25800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-369100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-425600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>361800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>39800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>57700</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-41300</v>
+        <v>9700</v>
       </c>
       <c r="E101" s="3">
-        <v>2700</v>
+        <v>-42900</v>
       </c>
       <c r="F101" s="3">
-        <v>-8000</v>
+        <v>2800</v>
       </c>
       <c r="G101" s="3">
-        <v>2700</v>
+        <v>-8300</v>
       </c>
       <c r="H101" s="3">
-        <v>-13300</v>
+        <v>2800</v>
       </c>
       <c r="I101" s="3">
-        <v>12000</v>
+        <v>-13800</v>
       </c>
       <c r="J101" s="3">
+        <v>12400</v>
+      </c>
+      <c r="K101" s="3">
         <v>5300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>16800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-5100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>55900</v>
+        <v>-222600</v>
       </c>
       <c r="E102" s="3">
-        <v>-712500</v>
+        <v>58100</v>
       </c>
       <c r="F102" s="3">
-        <v>330300</v>
+        <v>-739700</v>
       </c>
       <c r="G102" s="3">
-        <v>-715200</v>
+        <v>342900</v>
       </c>
       <c r="H102" s="3">
-        <v>-167800</v>
+        <v>-742500</v>
       </c>
       <c r="I102" s="3">
-        <v>1106700</v>
+        <v>-174200</v>
       </c>
       <c r="J102" s="3">
+        <v>1149000</v>
+      </c>
+      <c r="K102" s="3">
         <v>1250600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>354100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>242600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>42100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>119700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-16700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>42300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WFG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WFG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>WFG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2234400</v>
+        <v>2196500</v>
       </c>
       <c r="E8" s="3">
-        <v>2887100</v>
+        <v>2181600</v>
       </c>
       <c r="F8" s="3">
-        <v>3991900</v>
+        <v>2818800</v>
       </c>
       <c r="G8" s="3">
-        <v>4300200</v>
+        <v>3897500</v>
       </c>
       <c r="H8" s="3">
-        <v>2817900</v>
+        <v>4198500</v>
       </c>
       <c r="I8" s="3">
-        <v>3260400</v>
+        <v>2751300</v>
       </c>
       <c r="J8" s="3">
+        <v>3183300</v>
+      </c>
+      <c r="K8" s="3">
         <v>5225200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3120400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1672400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1654000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1173600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1133700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1448100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1526300</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1671700</v>
+        <v>1680800</v>
       </c>
       <c r="E9" s="3">
-        <v>1895700</v>
+        <v>1632200</v>
       </c>
       <c r="F9" s="3">
-        <v>1915000</v>
+        <v>1850900</v>
       </c>
       <c r="G9" s="3">
-        <v>1627400</v>
+        <v>1869800</v>
       </c>
       <c r="H9" s="3">
-        <v>1601200</v>
+        <v>1589000</v>
       </c>
       <c r="I9" s="3">
-        <v>1677200</v>
+        <v>1563300</v>
       </c>
       <c r="J9" s="3">
+        <v>1637600</v>
+      </c>
+      <c r="K9" s="3">
         <v>1707600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1383700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>886600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>819200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>783700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>802500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1064600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1162000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>562800</v>
+        <v>515700</v>
       </c>
       <c r="E10" s="3">
-        <v>991400</v>
+        <v>549500</v>
       </c>
       <c r="F10" s="3">
-        <v>2076800</v>
+        <v>968000</v>
       </c>
       <c r="G10" s="3">
-        <v>2672800</v>
+        <v>2027700</v>
       </c>
       <c r="H10" s="3">
-        <v>1216800</v>
+        <v>2609600</v>
       </c>
       <c r="I10" s="3">
-        <v>1583200</v>
+        <v>1188000</v>
       </c>
       <c r="J10" s="3">
+        <v>1545800</v>
+      </c>
+      <c r="K10" s="3">
         <v>3517600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1736700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>785800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>834800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>389900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>331200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>383500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>364300</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,25 +1005,28 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>65000</v>
+        <v>4100</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>63500</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>18000</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>17600</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1017,8 +1037,8 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1026,64 +1046,70 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>10300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>204600</v>
+        <v>186300</v>
       </c>
       <c r="E15" s="3">
-        <v>193600</v>
+        <v>199800</v>
       </c>
       <c r="F15" s="3">
-        <v>199100</v>
+        <v>189000</v>
       </c>
       <c r="G15" s="3">
-        <v>217100</v>
+        <v>194400</v>
       </c>
       <c r="H15" s="3">
-        <v>211600</v>
+        <v>212000</v>
       </c>
       <c r="I15" s="3">
-        <v>203300</v>
+        <v>206600</v>
       </c>
       <c r="J15" s="3">
+        <v>198500</v>
+      </c>
+      <c r="K15" s="3">
         <v>224000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>162500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>69800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>65200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>59900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>66200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>84700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>83400</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2414200</v>
+        <v>2311200</v>
       </c>
       <c r="E17" s="3">
-        <v>2498500</v>
+        <v>2357100</v>
       </c>
       <c r="F17" s="3">
-        <v>2635400</v>
+        <v>2439500</v>
       </c>
       <c r="G17" s="3">
-        <v>2327100</v>
+        <v>2573100</v>
       </c>
       <c r="H17" s="3">
-        <v>2195700</v>
+        <v>2272100</v>
       </c>
       <c r="I17" s="3">
-        <v>2389300</v>
+        <v>2143800</v>
       </c>
       <c r="J17" s="3">
+        <v>2332800</v>
+      </c>
+      <c r="K17" s="3">
         <v>2479200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1949800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1161900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1176600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1095900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1122200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1487800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1595600</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-179800</v>
+        <v>-114800</v>
       </c>
       <c r="E18" s="3">
-        <v>388500</v>
+        <v>-175500</v>
       </c>
       <c r="F18" s="3">
-        <v>1356400</v>
+        <v>379400</v>
       </c>
       <c r="G18" s="3">
-        <v>1973100</v>
+        <v>1324400</v>
       </c>
       <c r="H18" s="3">
-        <v>622200</v>
+        <v>1926500</v>
       </c>
       <c r="I18" s="3">
-        <v>871100</v>
+        <v>607500</v>
       </c>
       <c r="J18" s="3">
+        <v>850500</v>
+      </c>
+      <c r="K18" s="3">
         <v>2746000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1170700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>510500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>477400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>77700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>11500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-39800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-69300</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,116 +1244,123 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>15200</v>
+        <v>37800</v>
       </c>
       <c r="E20" s="3">
-        <v>30400</v>
+        <v>14900</v>
       </c>
       <c r="F20" s="3">
-        <v>36000</v>
+        <v>29700</v>
       </c>
       <c r="G20" s="3">
-        <v>-9700</v>
+        <v>35100</v>
       </c>
       <c r="H20" s="3">
-        <v>-16600</v>
+        <v>-9400</v>
       </c>
       <c r="I20" s="3">
-        <v>-8300</v>
+        <v>-16200</v>
       </c>
       <c r="J20" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-27700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-12000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-12900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-20900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-15300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-19200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-12800</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>40100</v>
+        <v>109400</v>
       </c>
       <c r="E21" s="3">
-        <v>612500</v>
+        <v>39200</v>
       </c>
       <c r="F21" s="3">
-        <v>1591500</v>
+        <v>598100</v>
       </c>
       <c r="G21" s="3">
-        <v>2180500</v>
+        <v>1553900</v>
       </c>
       <c r="H21" s="3">
-        <v>817200</v>
+        <v>2129000</v>
       </c>
       <c r="I21" s="3">
-        <v>1066100</v>
+        <v>797900</v>
       </c>
       <c r="J21" s="3">
+        <v>1040900</v>
+      </c>
+      <c r="K21" s="3">
         <v>2942400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1321100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>567400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>521800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>122300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>73900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>25700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>8300</v>
+        <v>8100</v>
       </c>
       <c r="E22" s="3">
-        <v>9700</v>
+        <v>8100</v>
       </c>
       <c r="F22" s="3">
-        <v>6900</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
+        <v>9500</v>
+      </c>
+      <c r="G22" s="3">
+        <v>6800</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>8</v>
@@ -1337,8 +1377,8 @@
       <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1352,102 +1392,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-172800</v>
+        <v>-85100</v>
       </c>
       <c r="E23" s="3">
-        <v>409300</v>
+        <v>-168800</v>
       </c>
       <c r="F23" s="3">
-        <v>1385500</v>
+        <v>399600</v>
       </c>
       <c r="G23" s="3">
-        <v>1963400</v>
+        <v>1352700</v>
       </c>
       <c r="H23" s="3">
-        <v>605600</v>
+        <v>1917000</v>
       </c>
       <c r="I23" s="3">
-        <v>862800</v>
+        <v>591300</v>
       </c>
       <c r="J23" s="3">
+        <v>842400</v>
+      </c>
+      <c r="K23" s="3">
         <v>2718400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1158700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>497600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>456500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>62400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>7600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-59000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-82100</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-44200</v>
+        <v>-28400</v>
       </c>
       <c r="E24" s="3">
-        <v>110600</v>
+        <v>-43200</v>
       </c>
       <c r="F24" s="3">
-        <v>331800</v>
+        <v>108000</v>
       </c>
       <c r="G24" s="3">
-        <v>456300</v>
+        <v>324000</v>
       </c>
       <c r="H24" s="3">
-        <v>143800</v>
+        <v>445500</v>
       </c>
       <c r="I24" s="3">
-        <v>226800</v>
+        <v>140400</v>
       </c>
       <c r="J24" s="3">
+        <v>221400</v>
+      </c>
+      <c r="K24" s="3">
         <v>660900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>273000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>133100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>114800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>17800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-3800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-24400</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-128600</v>
+        <v>-56700</v>
       </c>
       <c r="E26" s="3">
-        <v>298700</v>
+        <v>-125600</v>
       </c>
       <c r="F26" s="3">
-        <v>1053600</v>
+        <v>291600</v>
       </c>
       <c r="G26" s="3">
-        <v>1507100</v>
+        <v>1028700</v>
       </c>
       <c r="H26" s="3">
-        <v>461800</v>
+        <v>1471500</v>
       </c>
       <c r="I26" s="3">
-        <v>636000</v>
+        <v>450900</v>
       </c>
       <c r="J26" s="3">
+        <v>621000</v>
+      </c>
+      <c r="K26" s="3">
         <v>2057500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>885600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>364500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>341800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>44600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>11500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-53900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-57700</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-128600</v>
+        <v>-56700</v>
       </c>
       <c r="E27" s="3">
-        <v>298700</v>
+        <v>-125600</v>
       </c>
       <c r="F27" s="3">
-        <v>1053600</v>
+        <v>291600</v>
       </c>
       <c r="G27" s="3">
-        <v>1507100</v>
+        <v>1028700</v>
       </c>
       <c r="H27" s="3">
-        <v>461800</v>
+        <v>1471500</v>
       </c>
       <c r="I27" s="3">
-        <v>636000</v>
+        <v>450900</v>
       </c>
       <c r="J27" s="3">
+        <v>621000</v>
+      </c>
+      <c r="K27" s="3">
         <v>2057500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>885600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>364500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>341800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>44600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>11500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-53900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-57700</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-15200</v>
+        <v>-37800</v>
       </c>
       <c r="E32" s="3">
-        <v>-30400</v>
+        <v>-14900</v>
       </c>
       <c r="F32" s="3">
-        <v>-36000</v>
+        <v>-29700</v>
       </c>
       <c r="G32" s="3">
-        <v>9700</v>
+        <v>-35100</v>
       </c>
       <c r="H32" s="3">
-        <v>16600</v>
+        <v>9400</v>
       </c>
       <c r="I32" s="3">
-        <v>8300</v>
+        <v>16200</v>
       </c>
       <c r="J32" s="3">
+        <v>8100</v>
+      </c>
+      <c r="K32" s="3">
         <v>27700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>12000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>12900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>20900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>15300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>19200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-128600</v>
+        <v>-56700</v>
       </c>
       <c r="E33" s="3">
-        <v>298700</v>
+        <v>-125600</v>
       </c>
       <c r="F33" s="3">
-        <v>1053600</v>
+        <v>291600</v>
       </c>
       <c r="G33" s="3">
-        <v>1507100</v>
+        <v>1028700</v>
       </c>
       <c r="H33" s="3">
-        <v>461800</v>
+        <v>1471500</v>
       </c>
       <c r="I33" s="3">
-        <v>636000</v>
+        <v>450900</v>
       </c>
       <c r="J33" s="3">
+        <v>621000</v>
+      </c>
+      <c r="K33" s="3">
         <v>2057500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>885600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>364500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>341800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>44600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>11500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-53900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-57700</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-128600</v>
+        <v>-56700</v>
       </c>
       <c r="E35" s="3">
-        <v>298700</v>
+        <v>-125600</v>
       </c>
       <c r="F35" s="3">
-        <v>1053600</v>
+        <v>291600</v>
       </c>
       <c r="G35" s="3">
-        <v>1507100</v>
+        <v>1028700</v>
       </c>
       <c r="H35" s="3">
-        <v>461800</v>
+        <v>1471500</v>
       </c>
       <c r="I35" s="3">
-        <v>636000</v>
+        <v>450900</v>
       </c>
       <c r="J35" s="3">
+        <v>621000</v>
+      </c>
+      <c r="K35" s="3">
         <v>2057500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>885600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>364500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>341800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>44600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>11500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-53900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-57700</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,55 +2139,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1606700</v>
+        <v>1143500</v>
       </c>
       <c r="E41" s="3">
-        <v>1829300</v>
+        <v>1568700</v>
       </c>
       <c r="F41" s="3">
-        <v>1771200</v>
+        <v>1786100</v>
       </c>
       <c r="G41" s="3">
-        <v>2511000</v>
+        <v>1729400</v>
       </c>
       <c r="H41" s="3">
-        <v>2168100</v>
+        <v>2451600</v>
       </c>
       <c r="I41" s="3">
-        <v>2910600</v>
+        <v>2116800</v>
       </c>
       <c r="J41" s="3">
+        <v>2841800</v>
+      </c>
+      <c r="K41" s="3">
         <v>3084800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1864500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>595800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>408300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>161800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>119700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>20500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,196 +2237,211 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>684400</v>
+        <v>833000</v>
       </c>
       <c r="E43" s="3">
-        <v>763300</v>
+        <v>668300</v>
       </c>
       <c r="F43" s="3">
-        <v>800600</v>
+        <v>745200</v>
       </c>
       <c r="G43" s="3">
-        <v>1118600</v>
+        <v>781700</v>
       </c>
       <c r="H43" s="3">
-        <v>760500</v>
+        <v>1092200</v>
       </c>
       <c r="I43" s="3">
-        <v>768800</v>
+        <v>742500</v>
       </c>
       <c r="J43" s="3">
+        <v>750600</v>
+      </c>
+      <c r="K43" s="3">
         <v>1104800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>904300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>368300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>543900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>503300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>573200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>504100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>560500</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1426900</v>
+        <v>1541700</v>
       </c>
       <c r="E44" s="3">
-        <v>1425600</v>
+        <v>1393200</v>
       </c>
       <c r="F44" s="3">
-        <v>1504400</v>
+        <v>1391900</v>
       </c>
       <c r="G44" s="3">
-        <v>1880500</v>
+        <v>1468800</v>
       </c>
       <c r="H44" s="3">
-        <v>1467000</v>
+        <v>1836000</v>
       </c>
       <c r="I44" s="3">
-        <v>1297000</v>
+        <v>1432400</v>
       </c>
       <c r="J44" s="3">
+        <v>1266300</v>
+      </c>
+      <c r="K44" s="3">
         <v>1335700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1514300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>747000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>884400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>834700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1201200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>935000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>844000</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>83000</v>
+        <v>74300</v>
       </c>
       <c r="E45" s="3">
-        <v>138300</v>
+        <v>81000</v>
       </c>
       <c r="F45" s="3">
-        <v>105100</v>
+        <v>135000</v>
       </c>
       <c r="G45" s="3">
-        <v>48400</v>
+        <v>102600</v>
       </c>
       <c r="H45" s="3">
-        <v>52500</v>
+        <v>47300</v>
       </c>
       <c r="I45" s="3">
-        <v>73300</v>
+        <v>51300</v>
       </c>
       <c r="J45" s="3">
+        <v>71600</v>
+      </c>
+      <c r="K45" s="3">
         <v>85700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>38600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>15500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>23500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>26800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>17800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>11500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>23100</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3801000</v>
+        <v>3592400</v>
       </c>
       <c r="E46" s="3">
-        <v>4156400</v>
+        <v>3711200</v>
       </c>
       <c r="F46" s="3">
-        <v>4181300</v>
+        <v>4058100</v>
       </c>
       <c r="G46" s="3">
-        <v>5558500</v>
+        <v>4082400</v>
       </c>
       <c r="H46" s="3">
-        <v>4448100</v>
+        <v>5427000</v>
       </c>
       <c r="I46" s="3">
-        <v>5049600</v>
+        <v>4343000</v>
       </c>
       <c r="J46" s="3">
+        <v>4930200</v>
+      </c>
+      <c r="K46" s="3">
         <v>5611000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4321700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1726600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1860100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1526600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1912000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1471100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1449300</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,102 +2487,111 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5505900</v>
+        <v>5351400</v>
       </c>
       <c r="E48" s="3">
-        <v>5439500</v>
+        <v>5375700</v>
       </c>
       <c r="F48" s="3">
-        <v>5482400</v>
+        <v>5310900</v>
       </c>
       <c r="G48" s="3">
-        <v>5546000</v>
+        <v>5352800</v>
       </c>
       <c r="H48" s="3">
-        <v>5669100</v>
+        <v>5414900</v>
       </c>
       <c r="I48" s="3">
-        <v>4976300</v>
+        <v>5535000</v>
       </c>
       <c r="J48" s="3">
+        <v>4858700</v>
+      </c>
+      <c r="K48" s="3">
         <v>5012300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4911700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2141500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2811000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2775400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2844400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2744800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2799900</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3745700</v>
+        <v>3635600</v>
       </c>
       <c r="E49" s="3">
-        <v>3760900</v>
+        <v>3657200</v>
       </c>
       <c r="F49" s="3">
-        <v>3805200</v>
+        <v>3672000</v>
       </c>
       <c r="G49" s="3">
-        <v>3848100</v>
+        <v>3715200</v>
       </c>
       <c r="H49" s="3">
-        <v>3882600</v>
+        <v>3757100</v>
       </c>
       <c r="I49" s="3">
-        <v>3785800</v>
+        <v>3790800</v>
       </c>
       <c r="J49" s="3">
+        <v>3696300</v>
+      </c>
+      <c r="K49" s="3">
         <v>3872900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3759700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1244600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1635700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1620900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1654700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1622500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1587900</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2687,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>737000</v>
+        <v>754700</v>
       </c>
       <c r="E52" s="3">
-        <v>637400</v>
+        <v>719600</v>
       </c>
       <c r="F52" s="3">
-        <v>558600</v>
+        <v>622400</v>
       </c>
       <c r="G52" s="3">
-        <v>436900</v>
+        <v>545400</v>
       </c>
       <c r="H52" s="3">
-        <v>425900</v>
+        <v>426600</v>
       </c>
       <c r="I52" s="3">
-        <v>319400</v>
+        <v>415800</v>
       </c>
       <c r="J52" s="3">
+        <v>311900</v>
+      </c>
+      <c r="K52" s="3">
         <v>313900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>289000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>286900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>180000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>164400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>168100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>148800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>150100</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13789700</v>
+        <v>13334000</v>
       </c>
       <c r="E54" s="3">
-        <v>13994300</v>
+        <v>13463600</v>
       </c>
       <c r="F54" s="3">
-        <v>14027500</v>
+        <v>13663400</v>
       </c>
       <c r="G54" s="3">
-        <v>15389500</v>
+        <v>13695800</v>
       </c>
       <c r="H54" s="3">
-        <v>14425700</v>
+        <v>15025500</v>
       </c>
       <c r="I54" s="3">
-        <v>14131200</v>
+        <v>14084600</v>
       </c>
       <c r="J54" s="3">
+        <v>13797000</v>
+      </c>
+      <c r="K54" s="3">
         <v>14810100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13282000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5399600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6486800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6087300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6579200</v>
-      </c>
-      <c r="P54" s="3">
-        <v>5987200</v>
       </c>
       <c r="Q54" s="3">
         <v>5987200</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>5987200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,69 +2879,73 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>998300</v>
+        <v>888300</v>
       </c>
       <c r="E57" s="3">
-        <v>1139300</v>
+        <v>974700</v>
       </c>
       <c r="F57" s="3">
-        <v>1049500</v>
+        <v>1112400</v>
       </c>
       <c r="G57" s="3">
-        <v>1230600</v>
+        <v>1024700</v>
       </c>
       <c r="H57" s="3">
-        <v>1172500</v>
+        <v>1201500</v>
       </c>
       <c r="I57" s="3">
-        <v>1194700</v>
+        <v>1144800</v>
       </c>
       <c r="J57" s="3">
+        <v>1166400</v>
+      </c>
+      <c r="K57" s="3">
         <v>1030100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1068100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>502700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>710900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>494400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>555400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>507900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>504100</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -2823,216 +2957,231 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>500800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>9000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>13000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>468900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>881500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>513000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>405300</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>96800</v>
+        <v>93200</v>
       </c>
       <c r="E59" s="3">
-        <v>96800</v>
+        <v>94500</v>
       </c>
       <c r="F59" s="3">
-        <v>116100</v>
+        <v>94500</v>
       </c>
       <c r="G59" s="3">
-        <v>334600</v>
+        <v>113400</v>
       </c>
       <c r="H59" s="3">
-        <v>495000</v>
+        <v>326700</v>
       </c>
       <c r="I59" s="3">
-        <v>573800</v>
+        <v>483300</v>
       </c>
       <c r="J59" s="3">
+        <v>560300</v>
+      </c>
+      <c r="K59" s="3">
         <v>732800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>362200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>170600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>146100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>56100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>56000</v>
-      </c>
-      <c r="P59" s="3">
-        <v>52600</v>
       </c>
       <c r="Q59" s="3">
         <v>52600</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>52600</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1095100</v>
+        <v>981500</v>
       </c>
       <c r="E60" s="3">
-        <v>1236100</v>
+        <v>1069200</v>
       </c>
       <c r="F60" s="3">
-        <v>1165600</v>
+        <v>1206900</v>
       </c>
       <c r="G60" s="3">
-        <v>1565200</v>
+        <v>1138100</v>
       </c>
       <c r="H60" s="3">
-        <v>1667500</v>
+        <v>1528200</v>
       </c>
       <c r="I60" s="3">
-        <v>1768500</v>
+        <v>1628100</v>
       </c>
       <c r="J60" s="3">
+        <v>1726700</v>
+      </c>
+      <c r="K60" s="3">
         <v>1762900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1931100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>682400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>870000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1019400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1492900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1073500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>962000</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>708800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>673700</v>
+      </c>
+      <c r="F61" s="3">
+        <v>673700</v>
+      </c>
+      <c r="G61" s="3">
+        <v>673700</v>
+      </c>
+      <c r="H61" s="3">
+        <v>673700</v>
+      </c>
+      <c r="I61" s="3">
+        <v>673700</v>
+      </c>
+      <c r="J61" s="3">
+        <v>673700</v>
+      </c>
+      <c r="K61" s="3">
         <v>690000</v>
       </c>
-      <c r="E61" s="3">
-        <v>690000</v>
-      </c>
-      <c r="F61" s="3">
-        <v>690000</v>
-      </c>
-      <c r="G61" s="3">
-        <v>690000</v>
-      </c>
-      <c r="H61" s="3">
-        <v>690000</v>
-      </c>
-      <c r="I61" s="3">
-        <v>690000</v>
-      </c>
-      <c r="J61" s="3">
-        <v>690000</v>
-      </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1117400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>646200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>870000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>869100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>904400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>844000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>874700</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1469800</v>
+        <v>1420200</v>
       </c>
       <c r="E62" s="3">
-        <v>1298400</v>
+        <v>1435100</v>
       </c>
       <c r="F62" s="3">
-        <v>1309400</v>
+        <v>1267700</v>
       </c>
       <c r="G62" s="3">
-        <v>1297000</v>
+        <v>1278500</v>
       </c>
       <c r="H62" s="3">
-        <v>1482300</v>
+        <v>1266300</v>
       </c>
       <c r="I62" s="3">
-        <v>1399300</v>
+        <v>1447200</v>
       </c>
       <c r="J62" s="3">
+        <v>1366200</v>
+      </c>
+      <c r="K62" s="3">
         <v>1518200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1425000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>917600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1073500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1051300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>833100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>896500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>840100</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3254900</v>
+        <v>3110400</v>
       </c>
       <c r="E66" s="3">
-        <v>3224500</v>
+        <v>3177900</v>
       </c>
       <c r="F66" s="3">
-        <v>3165000</v>
+        <v>3148200</v>
       </c>
       <c r="G66" s="3">
-        <v>3552200</v>
+        <v>3090200</v>
       </c>
       <c r="H66" s="3">
-        <v>3839800</v>
+        <v>3468200</v>
       </c>
       <c r="I66" s="3">
-        <v>3857700</v>
+        <v>3749000</v>
       </c>
       <c r="J66" s="3">
+        <v>3766500</v>
+      </c>
+      <c r="K66" s="3">
         <v>3971100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4473500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2197100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2813600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2939800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3230400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2814000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2676800</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7306200</v>
+        <v>7052400</v>
       </c>
       <c r="E72" s="3">
-        <v>7539900</v>
+        <v>7133400</v>
       </c>
       <c r="F72" s="3">
-        <v>7445800</v>
+        <v>7361600</v>
       </c>
       <c r="G72" s="3">
-        <v>7622800</v>
+        <v>7269800</v>
       </c>
       <c r="H72" s="3">
-        <v>6226300</v>
+        <v>7442600</v>
       </c>
       <c r="I72" s="3">
-        <v>5862600</v>
+        <v>6079100</v>
       </c>
       <c r="J72" s="3">
+        <v>5724000</v>
+      </c>
+      <c r="K72" s="3">
         <v>5887500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3890200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2891100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2844900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2319200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2480100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2384400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2503600</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10534800</v>
+        <v>10223600</v>
       </c>
       <c r="E76" s="3">
-        <v>10769900</v>
+        <v>10285700</v>
       </c>
       <c r="F76" s="3">
-        <v>10862500</v>
+        <v>10515200</v>
       </c>
       <c r="G76" s="3">
-        <v>11837300</v>
+        <v>10605600</v>
       </c>
       <c r="H76" s="3">
-        <v>10586000</v>
+        <v>11557400</v>
       </c>
       <c r="I76" s="3">
-        <v>10273500</v>
+        <v>10335600</v>
       </c>
       <c r="J76" s="3">
+        <v>10030500</v>
+      </c>
+      <c r="K76" s="3">
         <v>10839000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8808500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3202600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3673200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3147500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3348800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3173200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3310400</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-128600</v>
+        <v>-56700</v>
       </c>
       <c r="E81" s="3">
-        <v>298700</v>
+        <v>-125600</v>
       </c>
       <c r="F81" s="3">
-        <v>1053600</v>
+        <v>291600</v>
       </c>
       <c r="G81" s="3">
-        <v>1507100</v>
+        <v>1028700</v>
       </c>
       <c r="H81" s="3">
-        <v>461800</v>
+        <v>1471500</v>
       </c>
       <c r="I81" s="3">
-        <v>636000</v>
+        <v>450900</v>
       </c>
       <c r="J81" s="3">
+        <v>621000</v>
+      </c>
+      <c r="K81" s="3">
         <v>2057500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>885600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>364500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>341800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>44600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>11500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-53900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-57700</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4024,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>204600</v>
+        <v>186300</v>
       </c>
       <c r="E83" s="3">
-        <v>193600</v>
+        <v>199800</v>
       </c>
       <c r="F83" s="3">
-        <v>199100</v>
+        <v>189000</v>
       </c>
       <c r="G83" s="3">
-        <v>217100</v>
+        <v>194400</v>
       </c>
       <c r="H83" s="3">
-        <v>211600</v>
+        <v>212000</v>
       </c>
       <c r="I83" s="3">
-        <v>203300</v>
+        <v>206600</v>
       </c>
       <c r="J83" s="3">
+        <v>198500</v>
+      </c>
+      <c r="K83" s="3">
         <v>224000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>162500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>91800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>86100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>82800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>89200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>84700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>83400</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>203300</v>
+        <v>-267300</v>
       </c>
       <c r="E89" s="3">
-        <v>598700</v>
+        <v>198500</v>
       </c>
       <c r="F89" s="3">
-        <v>1471200</v>
+        <v>584600</v>
       </c>
       <c r="G89" s="3">
-        <v>778500</v>
+        <v>1436400</v>
       </c>
       <c r="H89" s="3">
-        <v>401000</v>
+        <v>760100</v>
       </c>
       <c r="I89" s="3">
-        <v>1263800</v>
+        <v>391500</v>
       </c>
       <c r="J89" s="3">
+        <v>1233900</v>
+      </c>
+      <c r="K89" s="3">
         <v>2607800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>615300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>471700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>799600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>519900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-115900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>51300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>148800</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-206000</v>
+        <v>-99000</v>
       </c>
       <c r="E91" s="3">
-        <v>-203300</v>
+        <v>-149000</v>
       </c>
       <c r="F91" s="3">
-        <v>-121700</v>
+        <v>-147000</v>
       </c>
       <c r="G91" s="3">
-        <v>-128600</v>
+        <v>-88000</v>
       </c>
       <c r="H91" s="3">
-        <v>-554500</v>
+        <v>-93000</v>
       </c>
       <c r="I91" s="3">
-        <v>-146600</v>
+        <v>-401000</v>
       </c>
       <c r="J91" s="3">
+        <v>-106000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-91300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-82600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-58200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-61300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-54800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-57300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-111600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-170600</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-192200</v>
+        <v>-120200</v>
       </c>
       <c r="E94" s="3">
-        <v>-196300</v>
+        <v>-187700</v>
       </c>
       <c r="F94" s="3">
-        <v>-118900</v>
+        <v>-191700</v>
       </c>
       <c r="G94" s="3">
-        <v>-127200</v>
+        <v>-116100</v>
       </c>
       <c r="H94" s="3">
-        <v>-966500</v>
+        <v>-124200</v>
       </c>
       <c r="I94" s="3">
-        <v>-145200</v>
+        <v>-943700</v>
       </c>
       <c r="J94" s="3">
+        <v>-141800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-88500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>775100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-54300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-54800</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-52200</v>
       </c>
       <c r="O94" s="3">
         <v>-52200</v>
       </c>
       <c r="P94" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-111600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-162900</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,55 +4614,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-34600</v>
+        <v>-33800</v>
       </c>
       <c r="E96" s="3">
-        <v>-37300</v>
+        <v>-33800</v>
       </c>
       <c r="F96" s="3">
-        <v>-36000</v>
+        <v>-36500</v>
       </c>
       <c r="G96" s="3">
-        <v>-29000</v>
+        <v>-35100</v>
       </c>
       <c r="H96" s="3">
-        <v>-29000</v>
+        <v>-28400</v>
       </c>
       <c r="I96" s="3">
-        <v>-33200</v>
+        <v>-28400</v>
       </c>
       <c r="J96" s="3">
+        <v>-32400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-26300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-14600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-14200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-13000</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-12700</v>
       </c>
       <c r="O96" s="3">
         <v>-12700</v>
       </c>
       <c r="P96" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-11500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-21800</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,145 +4812,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-243400</v>
+        <v>-43200</v>
       </c>
       <c r="E100" s="3">
-        <v>-301400</v>
+        <v>-237600</v>
       </c>
       <c r="F100" s="3">
-        <v>-2094800</v>
+        <v>-294300</v>
       </c>
       <c r="G100" s="3">
-        <v>-300000</v>
+        <v>-2045300</v>
       </c>
       <c r="H100" s="3">
-        <v>-179800</v>
+        <v>-293000</v>
       </c>
       <c r="I100" s="3">
-        <v>-1279000</v>
+        <v>-175500</v>
       </c>
       <c r="J100" s="3">
+        <v>-1248800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1382700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-145200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-25800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-369100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-425600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>361800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>39800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>57700</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>9700</v>
+        <v>4100</v>
       </c>
       <c r="E101" s="3">
-        <v>-42900</v>
+        <v>9500</v>
       </c>
       <c r="F101" s="3">
-        <v>2800</v>
+        <v>-41900</v>
       </c>
       <c r="G101" s="3">
-        <v>-8300</v>
+        <v>2700</v>
       </c>
       <c r="H101" s="3">
-        <v>2800</v>
+        <v>-8100</v>
       </c>
       <c r="I101" s="3">
-        <v>-13800</v>
+        <v>2700</v>
       </c>
       <c r="J101" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="K101" s="3">
         <v>12400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>5300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>16800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-5100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-222600</v>
+        <v>-426600</v>
       </c>
       <c r="E102" s="3">
-        <v>58100</v>
+        <v>-217400</v>
       </c>
       <c r="F102" s="3">
-        <v>-739700</v>
+        <v>56700</v>
       </c>
       <c r="G102" s="3">
-        <v>342900</v>
+        <v>-722300</v>
       </c>
       <c r="H102" s="3">
-        <v>-742500</v>
+        <v>334800</v>
       </c>
       <c r="I102" s="3">
-        <v>-174200</v>
+        <v>-725000</v>
       </c>
       <c r="J102" s="3">
+        <v>-170100</v>
+      </c>
+      <c r="K102" s="3">
         <v>1149000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1250600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>354100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>242600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>42100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>119700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-16700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>42300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WFG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WFG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>WFG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2196500</v>
+        <v>2171900</v>
       </c>
       <c r="E8" s="3">
-        <v>2181600</v>
+        <v>2197600</v>
       </c>
       <c r="F8" s="3">
-        <v>2818800</v>
+        <v>2182700</v>
       </c>
       <c r="G8" s="3">
-        <v>3897500</v>
+        <v>2820300</v>
       </c>
       <c r="H8" s="3">
-        <v>4198500</v>
+        <v>3899500</v>
       </c>
       <c r="I8" s="3">
-        <v>2751300</v>
+        <v>4200700</v>
       </c>
       <c r="J8" s="3">
+        <v>2752700</v>
+      </c>
+      <c r="K8" s="3">
         <v>3183300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5225200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3120400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1672400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1654000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1173600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1133700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1448100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1526300</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1680800</v>
+        <v>1612700</v>
       </c>
       <c r="E9" s="3">
-        <v>1632200</v>
+        <v>1681600</v>
       </c>
       <c r="F9" s="3">
-        <v>1850900</v>
+        <v>1633000</v>
       </c>
       <c r="G9" s="3">
-        <v>1869800</v>
+        <v>1851800</v>
       </c>
       <c r="H9" s="3">
-        <v>1589000</v>
+        <v>1870700</v>
       </c>
       <c r="I9" s="3">
-        <v>1563300</v>
+        <v>1589800</v>
       </c>
       <c r="J9" s="3">
+        <v>1564100</v>
+      </c>
+      <c r="K9" s="3">
         <v>1637600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1707600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1383700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>886600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>819200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>783700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>802500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1064600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1162000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>515700</v>
+        <v>559200</v>
       </c>
       <c r="E10" s="3">
-        <v>549500</v>
+        <v>516000</v>
       </c>
       <c r="F10" s="3">
-        <v>968000</v>
+        <v>549700</v>
       </c>
       <c r="G10" s="3">
-        <v>2027700</v>
+        <v>968500</v>
       </c>
       <c r="H10" s="3">
-        <v>2609600</v>
+        <v>2028800</v>
       </c>
       <c r="I10" s="3">
-        <v>1188000</v>
+        <v>2610900</v>
       </c>
       <c r="J10" s="3">
+        <v>1188600</v>
+      </c>
+      <c r="K10" s="3">
         <v>1545800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3517600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1736700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>785800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>834800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>389900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>331200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>383500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>364300</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,28 +1025,31 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>174200</v>
+      </c>
+      <c r="E14" s="3">
         <v>4100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>63500</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>17600</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1040,8 +1060,8 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1049,67 +1069,73 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>10300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>186300</v>
+        <v>182300</v>
       </c>
       <c r="E15" s="3">
-        <v>199800</v>
+        <v>186400</v>
       </c>
       <c r="F15" s="3">
-        <v>189000</v>
+        <v>199900</v>
       </c>
       <c r="G15" s="3">
-        <v>194400</v>
+        <v>189100</v>
       </c>
       <c r="H15" s="3">
-        <v>212000</v>
+        <v>194500</v>
       </c>
       <c r="I15" s="3">
-        <v>206600</v>
+        <v>212100</v>
       </c>
       <c r="J15" s="3">
+        <v>206700</v>
+      </c>
+      <c r="K15" s="3">
         <v>198500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>224000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>162500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>69800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>65200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>59900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>66200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>84700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>83400</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2311200</v>
+        <v>2436700</v>
       </c>
       <c r="E17" s="3">
-        <v>2357100</v>
+        <v>2312400</v>
       </c>
       <c r="F17" s="3">
-        <v>2439500</v>
+        <v>2358300</v>
       </c>
       <c r="G17" s="3">
-        <v>2573100</v>
+        <v>2440700</v>
       </c>
       <c r="H17" s="3">
-        <v>2272100</v>
+        <v>2574400</v>
       </c>
       <c r="I17" s="3">
-        <v>2143800</v>
+        <v>2273200</v>
       </c>
       <c r="J17" s="3">
+        <v>2144900</v>
+      </c>
+      <c r="K17" s="3">
         <v>2332800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2479200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1949800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1161900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1176600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1095900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1122200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1487800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1595600</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-264700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-114800</v>
       </c>
-      <c r="E18" s="3">
-        <v>-175500</v>
-      </c>
       <c r="F18" s="3">
-        <v>379400</v>
+        <v>-175600</v>
       </c>
       <c r="G18" s="3">
-        <v>1324400</v>
+        <v>379500</v>
       </c>
       <c r="H18" s="3">
-        <v>1926500</v>
+        <v>1325000</v>
       </c>
       <c r="I18" s="3">
-        <v>607500</v>
+        <v>1927400</v>
       </c>
       <c r="J18" s="3">
+        <v>607800</v>
+      </c>
+      <c r="K18" s="3">
         <v>850500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2746000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1170700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>510500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>477400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>77700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>11500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-39800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-69300</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,125 +1278,132 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E20" s="3">
         <v>37800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>14900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>29700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>35100</v>
       </c>
-      <c r="H20" s="3">
-        <v>-9400</v>
-      </c>
       <c r="I20" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="J20" s="3">
         <v>-16200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-8100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-27700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-12000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-12900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-20900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-15300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-19200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-12800</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="E21" s="3">
         <v>109400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>39200</v>
       </c>
-      <c r="F21" s="3">
-        <v>598100</v>
-      </c>
       <c r="G21" s="3">
-        <v>1553900</v>
+        <v>598400</v>
       </c>
       <c r="H21" s="3">
-        <v>2129000</v>
+        <v>1554700</v>
       </c>
       <c r="I21" s="3">
-        <v>797900</v>
+        <v>2130100</v>
       </c>
       <c r="J21" s="3">
+        <v>798300</v>
+      </c>
+      <c r="K21" s="3">
         <v>1040900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2942400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1321100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>567400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>521800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>122300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>73900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>25700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>8100</v>
+        <v>6800</v>
       </c>
       <c r="E22" s="3">
         <v>8100</v>
       </c>
       <c r="F22" s="3">
+        <v>8100</v>
+      </c>
+      <c r="G22" s="3">
         <v>9500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>6800</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
@@ -1380,8 +1420,8 @@
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1395,108 +1435,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-239100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-85100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-168800</v>
       </c>
-      <c r="F23" s="3">
-        <v>399600</v>
-      </c>
       <c r="G23" s="3">
-        <v>1352700</v>
+        <v>399800</v>
       </c>
       <c r="H23" s="3">
-        <v>1917000</v>
+        <v>1353400</v>
       </c>
       <c r="I23" s="3">
-        <v>591300</v>
+        <v>1918000</v>
       </c>
       <c r="J23" s="3">
+        <v>591600</v>
+      </c>
+      <c r="K23" s="3">
         <v>842400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2718400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1158700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>497600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>456500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>62400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>7600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-59000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-82100</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-62100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-28400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-43200</v>
       </c>
-      <c r="F24" s="3">
-        <v>108000</v>
-      </c>
       <c r="G24" s="3">
-        <v>324000</v>
+        <v>108100</v>
       </c>
       <c r="H24" s="3">
-        <v>445500</v>
+        <v>324200</v>
       </c>
       <c r="I24" s="3">
-        <v>140400</v>
+        <v>445700</v>
       </c>
       <c r="J24" s="3">
+        <v>140500</v>
+      </c>
+      <c r="K24" s="3">
         <v>221400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>660900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>273000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>133100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>114800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>17800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-5100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-24400</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-176900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-56700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-125600</v>
       </c>
-      <c r="F26" s="3">
-        <v>291600</v>
-      </c>
       <c r="G26" s="3">
-        <v>1028700</v>
+        <v>291800</v>
       </c>
       <c r="H26" s="3">
-        <v>1471500</v>
+        <v>1029200</v>
       </c>
       <c r="I26" s="3">
-        <v>450900</v>
+        <v>1472300</v>
       </c>
       <c r="J26" s="3">
+        <v>451100</v>
+      </c>
+      <c r="K26" s="3">
         <v>621000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2057500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>885600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>364500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>341800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>44600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>11500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-53900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-57700</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-176900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-56700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-125600</v>
       </c>
-      <c r="F27" s="3">
-        <v>291600</v>
-      </c>
       <c r="G27" s="3">
-        <v>1028700</v>
+        <v>291800</v>
       </c>
       <c r="H27" s="3">
-        <v>1471500</v>
+        <v>1029200</v>
       </c>
       <c r="I27" s="3">
-        <v>450900</v>
+        <v>1472300</v>
       </c>
       <c r="J27" s="3">
+        <v>451100</v>
+      </c>
+      <c r="K27" s="3">
         <v>621000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2057500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>885600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>364500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>341800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>44600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>11500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-53900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-57700</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-32400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-37800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-14900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-29700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-35100</v>
       </c>
-      <c r="H32" s="3">
-        <v>9400</v>
-      </c>
       <c r="I32" s="3">
+        <v>9500</v>
+      </c>
+      <c r="J32" s="3">
         <v>16200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>8100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>27700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>12000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>12900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>20900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>15300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>19200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-176900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-56700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-125600</v>
       </c>
-      <c r="F33" s="3">
-        <v>291600</v>
-      </c>
       <c r="G33" s="3">
-        <v>1028700</v>
+        <v>291800</v>
       </c>
       <c r="H33" s="3">
-        <v>1471500</v>
+        <v>1029200</v>
       </c>
       <c r="I33" s="3">
-        <v>450900</v>
+        <v>1472300</v>
       </c>
       <c r="J33" s="3">
+        <v>451100</v>
+      </c>
+      <c r="K33" s="3">
         <v>621000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2057500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>885600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>364500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>341800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>44600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>11500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-53900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-57700</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-176900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-56700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-125600</v>
       </c>
-      <c r="F35" s="3">
-        <v>291600</v>
-      </c>
       <c r="G35" s="3">
-        <v>1028700</v>
+        <v>291800</v>
       </c>
       <c r="H35" s="3">
-        <v>1471500</v>
+        <v>1029200</v>
       </c>
       <c r="I35" s="3">
-        <v>450900</v>
+        <v>1472300</v>
       </c>
       <c r="J35" s="3">
+        <v>451100</v>
+      </c>
+      <c r="K35" s="3">
         <v>621000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2057500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>885600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>364500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>341800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>44600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>11500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-53900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-57700</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1143500</v>
+        <v>1342600</v>
       </c>
       <c r="E41" s="3">
-        <v>1568700</v>
+        <v>1144000</v>
       </c>
       <c r="F41" s="3">
-        <v>1786100</v>
+        <v>1569500</v>
       </c>
       <c r="G41" s="3">
-        <v>1729400</v>
+        <v>1787000</v>
       </c>
       <c r="H41" s="3">
-        <v>2451600</v>
+        <v>1730200</v>
       </c>
       <c r="I41" s="3">
-        <v>2116800</v>
+        <v>2452900</v>
       </c>
       <c r="J41" s="3">
+        <v>2117900</v>
+      </c>
+      <c r="K41" s="3">
         <v>2841800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3084800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1864500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>595800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>408300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>161800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>119700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>20500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,208 +2330,223 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>833000</v>
+        <v>768500</v>
       </c>
       <c r="E43" s="3">
-        <v>668300</v>
+        <v>833400</v>
       </c>
       <c r="F43" s="3">
-        <v>745200</v>
+        <v>668600</v>
       </c>
       <c r="G43" s="3">
-        <v>781700</v>
+        <v>745600</v>
       </c>
       <c r="H43" s="3">
-        <v>1092200</v>
+        <v>782100</v>
       </c>
       <c r="I43" s="3">
-        <v>742500</v>
+        <v>1092700</v>
       </c>
       <c r="J43" s="3">
+        <v>742900</v>
+      </c>
+      <c r="K43" s="3">
         <v>750600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1104800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>904300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>368300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>543900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>503300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>573200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>504100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>560500</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1541700</v>
+        <v>1218300</v>
       </c>
       <c r="E44" s="3">
-        <v>1393200</v>
+        <v>1542500</v>
       </c>
       <c r="F44" s="3">
-        <v>1391900</v>
+        <v>1393900</v>
       </c>
       <c r="G44" s="3">
-        <v>1468800</v>
+        <v>1392600</v>
       </c>
       <c r="H44" s="3">
-        <v>1836000</v>
+        <v>1469600</v>
       </c>
       <c r="I44" s="3">
-        <v>1432400</v>
+        <v>1837000</v>
       </c>
       <c r="J44" s="3">
+        <v>1433100</v>
+      </c>
+      <c r="K44" s="3">
         <v>1266300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1335700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1514300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>747000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>884400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>834700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1201200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>935000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>844000</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>151300</v>
+      </c>
+      <c r="E45" s="3">
         <v>74300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>81000</v>
       </c>
-      <c r="F45" s="3">
-        <v>135000</v>
-      </c>
       <c r="G45" s="3">
-        <v>102600</v>
+        <v>135100</v>
       </c>
       <c r="H45" s="3">
+        <v>102700</v>
+      </c>
+      <c r="I45" s="3">
         <v>47300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>51300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>71600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>85700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>38600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>15500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>23500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>26800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>17800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>11500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>23100</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3592400</v>
+        <v>3480800</v>
       </c>
       <c r="E46" s="3">
-        <v>3711200</v>
+        <v>3594200</v>
       </c>
       <c r="F46" s="3">
-        <v>4058100</v>
+        <v>3713100</v>
       </c>
       <c r="G46" s="3">
-        <v>4082400</v>
+        <v>4060200</v>
       </c>
       <c r="H46" s="3">
-        <v>5427000</v>
+        <v>4084500</v>
       </c>
       <c r="I46" s="3">
-        <v>4343000</v>
+        <v>5429800</v>
       </c>
       <c r="J46" s="3">
+        <v>4345200</v>
+      </c>
+      <c r="K46" s="3">
         <v>4930200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5611000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4321700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1726600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1860100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1526600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1912000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1471100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1449300</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,108 +2595,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5351400</v>
+        <v>5261000</v>
       </c>
       <c r="E48" s="3">
-        <v>5375700</v>
+        <v>5354200</v>
       </c>
       <c r="F48" s="3">
-        <v>5310900</v>
+        <v>5378500</v>
       </c>
       <c r="G48" s="3">
-        <v>5352800</v>
+        <v>5313700</v>
       </c>
       <c r="H48" s="3">
-        <v>5414900</v>
+        <v>5355500</v>
       </c>
       <c r="I48" s="3">
-        <v>5535000</v>
+        <v>5417700</v>
       </c>
       <c r="J48" s="3">
+        <v>5537900</v>
+      </c>
+      <c r="K48" s="3">
         <v>4858700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5012300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4911700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2141500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2811000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2775400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2844400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2744800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2799900</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3635600</v>
+        <v>3618500</v>
       </c>
       <c r="E49" s="3">
-        <v>3657200</v>
+        <v>3637400</v>
       </c>
       <c r="F49" s="3">
-        <v>3672000</v>
+        <v>3659000</v>
       </c>
       <c r="G49" s="3">
-        <v>3715200</v>
+        <v>3673900</v>
       </c>
       <c r="H49" s="3">
-        <v>3757100</v>
+        <v>3717100</v>
       </c>
       <c r="I49" s="3">
-        <v>3790800</v>
+        <v>3759000</v>
       </c>
       <c r="J49" s="3">
+        <v>3792800</v>
+      </c>
+      <c r="K49" s="3">
         <v>3696300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3872900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3759700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1244600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1635700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1620900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1654700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1622500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1587900</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>754700</v>
+        <v>763100</v>
       </c>
       <c r="E52" s="3">
-        <v>719600</v>
+        <v>755000</v>
       </c>
       <c r="F52" s="3">
-        <v>622400</v>
+        <v>719900</v>
       </c>
       <c r="G52" s="3">
-        <v>545400</v>
+        <v>622700</v>
       </c>
       <c r="H52" s="3">
-        <v>426600</v>
+        <v>545700</v>
       </c>
       <c r="I52" s="3">
-        <v>415800</v>
+        <v>426800</v>
       </c>
       <c r="J52" s="3">
+        <v>416000</v>
+      </c>
+      <c r="K52" s="3">
         <v>311900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>313900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>289000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>286900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>180000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>164400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>168100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>148800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>150100</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13334000</v>
+        <v>13123400</v>
       </c>
       <c r="E54" s="3">
-        <v>13463600</v>
+        <v>13340900</v>
       </c>
       <c r="F54" s="3">
-        <v>13663400</v>
+        <v>13470500</v>
       </c>
       <c r="G54" s="3">
-        <v>13695800</v>
+        <v>13670400</v>
       </c>
       <c r="H54" s="3">
-        <v>15025500</v>
+        <v>13702900</v>
       </c>
       <c r="I54" s="3">
-        <v>14084600</v>
+        <v>15033300</v>
       </c>
       <c r="J54" s="3">
+        <v>14091900</v>
+      </c>
+      <c r="K54" s="3">
         <v>13797000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>14810100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>13282000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5399600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6486800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6087300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6579200</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>5987200</v>
       </c>
       <c r="R54" s="3">
         <v>5987200</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>5987200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,58 +3010,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>888300</v>
+        <v>838800</v>
       </c>
       <c r="E57" s="3">
-        <v>974700</v>
+        <v>888800</v>
       </c>
       <c r="F57" s="3">
-        <v>1112400</v>
+        <v>975200</v>
       </c>
       <c r="G57" s="3">
-        <v>1024700</v>
+        <v>1113000</v>
       </c>
       <c r="H57" s="3">
-        <v>1201500</v>
+        <v>1025200</v>
       </c>
       <c r="I57" s="3">
-        <v>1144800</v>
+        <v>1202100</v>
       </c>
       <c r="J57" s="3">
+        <v>1145400</v>
+      </c>
+      <c r="K57" s="3">
         <v>1166400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1030100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1068100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>502700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>710900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>494400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>555400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>507900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>504100</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2960,228 +3094,243 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>500800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>9000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>13000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>468900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>881500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>513000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>405300</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>140500</v>
+      </c>
+      <c r="E59" s="3">
         <v>93200</v>
-      </c>
-      <c r="E59" s="3">
-        <v>94500</v>
       </c>
       <c r="F59" s="3">
         <v>94500</v>
       </c>
       <c r="G59" s="3">
-        <v>113400</v>
+        <v>94500</v>
       </c>
       <c r="H59" s="3">
-        <v>326700</v>
+        <v>113500</v>
       </c>
       <c r="I59" s="3">
-        <v>483300</v>
+        <v>326900</v>
       </c>
       <c r="J59" s="3">
+        <v>483600</v>
+      </c>
+      <c r="K59" s="3">
         <v>560300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>732800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>362200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>170600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>146100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>56100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>56000</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>52600</v>
       </c>
       <c r="R59" s="3">
         <v>52600</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>52600</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>981500</v>
+        <v>979300</v>
       </c>
       <c r="E60" s="3">
-        <v>1069200</v>
+        <v>982000</v>
       </c>
       <c r="F60" s="3">
-        <v>1206900</v>
+        <v>1069800</v>
       </c>
       <c r="G60" s="3">
-        <v>1138100</v>
+        <v>1207500</v>
       </c>
       <c r="H60" s="3">
-        <v>1528200</v>
+        <v>1138600</v>
       </c>
       <c r="I60" s="3">
-        <v>1628100</v>
+        <v>1529000</v>
       </c>
       <c r="J60" s="3">
+        <v>1628900</v>
+      </c>
+      <c r="K60" s="3">
         <v>1726700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1762900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1931100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>682400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>870000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1019400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1492900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1073500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>962000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>708800</v>
+        <v>721300</v>
       </c>
       <c r="E61" s="3">
+        <v>709100</v>
+      </c>
+      <c r="F61" s="3">
+        <v>674000</v>
+      </c>
+      <c r="G61" s="3">
+        <v>674000</v>
+      </c>
+      <c r="H61" s="3">
+        <v>674000</v>
+      </c>
+      <c r="I61" s="3">
+        <v>674000</v>
+      </c>
+      <c r="J61" s="3">
+        <v>674000</v>
+      </c>
+      <c r="K61" s="3">
         <v>673700</v>
       </c>
-      <c r="F61" s="3">
-        <v>673700</v>
-      </c>
-      <c r="G61" s="3">
-        <v>673700</v>
-      </c>
-      <c r="H61" s="3">
-        <v>673700</v>
-      </c>
-      <c r="I61" s="3">
-        <v>673700</v>
-      </c>
-      <c r="J61" s="3">
-        <v>673700</v>
-      </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>690000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1117400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>646200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>870000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>869100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>904400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>844000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>874700</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1420200</v>
+        <v>1406100</v>
       </c>
       <c r="E62" s="3">
-        <v>1435100</v>
+        <v>1420900</v>
       </c>
       <c r="F62" s="3">
-        <v>1267700</v>
+        <v>1435800</v>
       </c>
       <c r="G62" s="3">
-        <v>1278500</v>
+        <v>1268300</v>
       </c>
       <c r="H62" s="3">
-        <v>1266300</v>
+        <v>1279100</v>
       </c>
       <c r="I62" s="3">
-        <v>1447200</v>
+        <v>1267000</v>
       </c>
       <c r="J62" s="3">
+        <v>1448000</v>
+      </c>
+      <c r="K62" s="3">
         <v>1366200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1518200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1425000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>917600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1073500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1051300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>833100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>896500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>840100</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3110400</v>
+        <v>3106600</v>
       </c>
       <c r="E66" s="3">
-        <v>3177900</v>
+        <v>3112000</v>
       </c>
       <c r="F66" s="3">
-        <v>3148200</v>
+        <v>3179500</v>
       </c>
       <c r="G66" s="3">
-        <v>3090200</v>
+        <v>3149800</v>
       </c>
       <c r="H66" s="3">
-        <v>3468200</v>
+        <v>3091800</v>
       </c>
       <c r="I66" s="3">
-        <v>3749000</v>
+        <v>3469900</v>
       </c>
       <c r="J66" s="3">
+        <v>3750900</v>
+      </c>
+      <c r="K66" s="3">
         <v>3766500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3971100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4473500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2197100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2813600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2939800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3230400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2814000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2676800</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7052400</v>
+        <v>6825100</v>
       </c>
       <c r="E72" s="3">
-        <v>7133400</v>
+        <v>7056100</v>
       </c>
       <c r="F72" s="3">
-        <v>7361600</v>
+        <v>7137100</v>
       </c>
       <c r="G72" s="3">
-        <v>7269800</v>
+        <v>7365400</v>
       </c>
       <c r="H72" s="3">
-        <v>7442600</v>
+        <v>7273500</v>
       </c>
       <c r="I72" s="3">
-        <v>6079100</v>
+        <v>7446400</v>
       </c>
       <c r="J72" s="3">
+        <v>6082200</v>
+      </c>
+      <c r="K72" s="3">
         <v>5724000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5887500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3890200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2891100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2844900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2319200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2480100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2384400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2503600</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10223600</v>
+        <v>10016800</v>
       </c>
       <c r="E76" s="3">
-        <v>10285700</v>
+        <v>10228900</v>
       </c>
       <c r="F76" s="3">
-        <v>10515200</v>
+        <v>10291000</v>
       </c>
       <c r="G76" s="3">
-        <v>10605600</v>
+        <v>10520600</v>
       </c>
       <c r="H76" s="3">
-        <v>11557400</v>
+        <v>10611100</v>
       </c>
       <c r="I76" s="3">
-        <v>10335600</v>
+        <v>11563300</v>
       </c>
       <c r="J76" s="3">
+        <v>10341000</v>
+      </c>
+      <c r="K76" s="3">
         <v>10030500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10839000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8808500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3202600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3673200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3147500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3348800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3173200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3310400</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-176900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-56700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-125600</v>
       </c>
-      <c r="F81" s="3">
-        <v>291600</v>
-      </c>
       <c r="G81" s="3">
-        <v>1028700</v>
+        <v>291800</v>
       </c>
       <c r="H81" s="3">
-        <v>1471500</v>
+        <v>1029200</v>
       </c>
       <c r="I81" s="3">
-        <v>450900</v>
+        <v>1472300</v>
       </c>
       <c r="J81" s="3">
+        <v>451100</v>
+      </c>
+      <c r="K81" s="3">
         <v>621000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2057500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>885600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>364500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>341800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>44600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>11500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-53900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-57700</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>186300</v>
+        <v>182300</v>
       </c>
       <c r="E83" s="3">
-        <v>199800</v>
+        <v>186400</v>
       </c>
       <c r="F83" s="3">
-        <v>189000</v>
+        <v>199900</v>
       </c>
       <c r="G83" s="3">
-        <v>194400</v>
+        <v>189100</v>
       </c>
       <c r="H83" s="3">
-        <v>212000</v>
+        <v>194500</v>
       </c>
       <c r="I83" s="3">
-        <v>206600</v>
+        <v>212100</v>
       </c>
       <c r="J83" s="3">
+        <v>206700</v>
+      </c>
+      <c r="K83" s="3">
         <v>198500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>224000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>162500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>91800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>86100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>82800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>89200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>84700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>83400</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-267300</v>
+        <v>366000</v>
       </c>
       <c r="E89" s="3">
-        <v>198500</v>
+        <v>-267400</v>
       </c>
       <c r="F89" s="3">
-        <v>584600</v>
+        <v>198600</v>
       </c>
       <c r="G89" s="3">
-        <v>1436400</v>
+        <v>584900</v>
       </c>
       <c r="H89" s="3">
-        <v>760100</v>
+        <v>1437100</v>
       </c>
       <c r="I89" s="3">
-        <v>391500</v>
+        <v>760400</v>
       </c>
       <c r="J89" s="3">
+        <v>391700</v>
+      </c>
+      <c r="K89" s="3">
         <v>1233900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2607800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>615300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>471700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>799600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>519900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-115900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>51300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>148800</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-106000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-99000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-149000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-147000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-88000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-93000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-401000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-106000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-91300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-82600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-58200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-61300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-54800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-57300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-111600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-170600</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-128300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-120200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-187700</v>
       </c>
-      <c r="F94" s="3">
-        <v>-191700</v>
-      </c>
       <c r="G94" s="3">
-        <v>-116100</v>
+        <v>-191800</v>
       </c>
       <c r="H94" s="3">
-        <v>-124200</v>
+        <v>-116200</v>
       </c>
       <c r="I94" s="3">
-        <v>-943700</v>
+        <v>-124300</v>
       </c>
       <c r="J94" s="3">
+        <v>-944100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-141800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-88500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>775100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-54300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-54800</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-52200</v>
       </c>
       <c r="P94" s="3">
         <v>-52200</v>
       </c>
       <c r="Q94" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="R94" s="3">
         <v>-111600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-162900</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4627,46 +4861,49 @@
         <v>-33800</v>
       </c>
       <c r="F96" s="3">
+        <v>-33800</v>
+      </c>
+      <c r="G96" s="3">
         <v>-36500</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-35100</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-28400</v>
       </c>
       <c r="I96" s="3">
         <v>-28400</v>
       </c>
       <c r="J96" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-32400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-26300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-14600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-14200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-13000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-12700</v>
       </c>
       <c r="P96" s="3">
         <v>-12700</v>
       </c>
       <c r="Q96" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="R96" s="3">
         <v>-11500</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-21800</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-51300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-43200</v>
       </c>
-      <c r="E100" s="3">
-        <v>-237600</v>
-      </c>
       <c r="F100" s="3">
-        <v>-294300</v>
+        <v>-237700</v>
       </c>
       <c r="G100" s="3">
-        <v>-2045300</v>
+        <v>-294500</v>
       </c>
       <c r="H100" s="3">
-        <v>-293000</v>
+        <v>-2046300</v>
       </c>
       <c r="I100" s="3">
-        <v>-175500</v>
+        <v>-293100</v>
       </c>
       <c r="J100" s="3">
+        <v>-175600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1248800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1382700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-145200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-25800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-369100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-425600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>361800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>39800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>57700</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E101" s="3">
         <v>4100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>9500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-41900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-8100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-13500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>12400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>5300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>16800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>3800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-426600</v>
+        <v>198600</v>
       </c>
       <c r="E102" s="3">
-        <v>-217400</v>
+        <v>-426800</v>
       </c>
       <c r="F102" s="3">
+        <v>-217500</v>
+      </c>
+      <c r="G102" s="3">
         <v>56700</v>
       </c>
-      <c r="G102" s="3">
-        <v>-722300</v>
-      </c>
       <c r="H102" s="3">
-        <v>334800</v>
+        <v>-722600</v>
       </c>
       <c r="I102" s="3">
-        <v>-725000</v>
+        <v>335000</v>
       </c>
       <c r="J102" s="3">
+        <v>-725300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-170100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1149000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1250600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>354100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>242600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>42100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>119700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-16700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>42300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WFG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WFG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>WFG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2171900</v>
+        <v>2345200</v>
       </c>
       <c r="E8" s="3">
-        <v>2197600</v>
+        <v>2211800</v>
       </c>
       <c r="F8" s="3">
-        <v>2182700</v>
+        <v>2237900</v>
       </c>
       <c r="G8" s="3">
-        <v>2820300</v>
+        <v>2222800</v>
       </c>
       <c r="H8" s="3">
-        <v>3899500</v>
+        <v>2872000</v>
       </c>
       <c r="I8" s="3">
-        <v>4200700</v>
+        <v>3971100</v>
       </c>
       <c r="J8" s="3">
+        <v>4277800</v>
+      </c>
+      <c r="K8" s="3">
         <v>2752700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3183300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5225200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3120400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1672400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1654000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1173600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1133700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1448100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1526300</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1612700</v>
+        <v>1551600</v>
       </c>
       <c r="E9" s="3">
-        <v>1681600</v>
+        <v>1642300</v>
       </c>
       <c r="F9" s="3">
-        <v>1633000</v>
+        <v>1712500</v>
       </c>
       <c r="G9" s="3">
-        <v>1851800</v>
+        <v>1663000</v>
       </c>
       <c r="H9" s="3">
-        <v>1870700</v>
+        <v>1885800</v>
       </c>
       <c r="I9" s="3">
-        <v>1589800</v>
+        <v>1905100</v>
       </c>
       <c r="J9" s="3">
+        <v>1619000</v>
+      </c>
+      <c r="K9" s="3">
         <v>1564100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1637600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1707600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1383700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>886600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>819200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>783700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>802500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1064600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1162000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>559200</v>
+        <v>793700</v>
       </c>
       <c r="E10" s="3">
-        <v>516000</v>
+        <v>569500</v>
       </c>
       <c r="F10" s="3">
-        <v>549700</v>
+        <v>525400</v>
       </c>
       <c r="G10" s="3">
-        <v>968500</v>
+        <v>559800</v>
       </c>
       <c r="H10" s="3">
-        <v>2028800</v>
+        <v>986200</v>
       </c>
       <c r="I10" s="3">
-        <v>2610900</v>
+        <v>2066000</v>
       </c>
       <c r="J10" s="3">
+        <v>2658800</v>
+      </c>
+      <c r="K10" s="3">
         <v>1188600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1545800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3517600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1736700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>785800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>834800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>389900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>331200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>383500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>364300</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,31 +1045,34 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>174200</v>
+        <v>17900</v>
       </c>
       <c r="E14" s="3">
+        <v>177400</v>
+      </c>
+      <c r="F14" s="3">
         <v>4100</v>
       </c>
-      <c r="F14" s="3">
-        <v>63500</v>
-      </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>64600</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>17600</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>17900</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1063,8 +1083,8 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1072,70 +1092,76 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>10300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>182300</v>
+        <v>181600</v>
       </c>
       <c r="E15" s="3">
-        <v>186400</v>
+        <v>185700</v>
       </c>
       <c r="F15" s="3">
-        <v>199900</v>
+        <v>189800</v>
       </c>
       <c r="G15" s="3">
-        <v>189100</v>
+        <v>203600</v>
       </c>
       <c r="H15" s="3">
-        <v>194500</v>
+        <v>192600</v>
       </c>
       <c r="I15" s="3">
-        <v>212100</v>
+        <v>198100</v>
       </c>
       <c r="J15" s="3">
+        <v>216000</v>
+      </c>
+      <c r="K15" s="3">
         <v>206700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>198500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>224000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>162500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>69800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>65200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>59900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>66200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>84700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>83400</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2436700</v>
+        <v>2092100</v>
       </c>
       <c r="E17" s="3">
-        <v>2312400</v>
+        <v>2481400</v>
       </c>
       <c r="F17" s="3">
-        <v>2358300</v>
+        <v>2354900</v>
       </c>
       <c r="G17" s="3">
-        <v>2440700</v>
+        <v>2401600</v>
       </c>
       <c r="H17" s="3">
-        <v>2574400</v>
+        <v>2485500</v>
       </c>
       <c r="I17" s="3">
-        <v>2273200</v>
+        <v>2621700</v>
       </c>
       <c r="J17" s="3">
+        <v>2315000</v>
+      </c>
+      <c r="K17" s="3">
         <v>2144900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2332800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2479200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1949800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1161900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1176600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1095900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1122200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1487800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1595600</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-264700</v>
+        <v>253100</v>
       </c>
       <c r="E18" s="3">
-        <v>-114800</v>
+        <v>-269600</v>
       </c>
       <c r="F18" s="3">
-        <v>-175600</v>
+        <v>-116900</v>
       </c>
       <c r="G18" s="3">
-        <v>379500</v>
+        <v>-178800</v>
       </c>
       <c r="H18" s="3">
-        <v>1325000</v>
+        <v>386500</v>
       </c>
       <c r="I18" s="3">
-        <v>1927400</v>
+        <v>1349400</v>
       </c>
       <c r="J18" s="3">
+        <v>1962800</v>
+      </c>
+      <c r="K18" s="3">
         <v>607800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>850500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2746000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1170700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>510500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>477400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>77700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>11500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-39800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-69300</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,134 +1312,141 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>32400</v>
+        <v>50900</v>
       </c>
       <c r="E20" s="3">
-        <v>37800</v>
+        <v>33000</v>
       </c>
       <c r="F20" s="3">
-        <v>14900</v>
+        <v>38500</v>
       </c>
       <c r="G20" s="3">
-        <v>29700</v>
+        <v>15100</v>
       </c>
       <c r="H20" s="3">
-        <v>35100</v>
+        <v>30300</v>
       </c>
       <c r="I20" s="3">
-        <v>-9500</v>
+        <v>35800</v>
       </c>
       <c r="J20" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-16200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-8100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-27700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-12000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-12900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-20900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-15300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-19200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-12800</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-50000</v>
+        <v>485600</v>
       </c>
       <c r="E21" s="3">
-        <v>109400</v>
+        <v>-50900</v>
       </c>
       <c r="F21" s="3">
-        <v>39200</v>
+        <v>111400</v>
       </c>
       <c r="G21" s="3">
-        <v>598400</v>
+        <v>39900</v>
       </c>
       <c r="H21" s="3">
-        <v>1554700</v>
+        <v>609300</v>
       </c>
       <c r="I21" s="3">
-        <v>2130100</v>
+        <v>1583200</v>
       </c>
       <c r="J21" s="3">
+        <v>2169200</v>
+      </c>
+      <c r="K21" s="3">
         <v>798300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1040900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2942400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1321100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>567400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>521800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>122300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>73900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>25700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>6800</v>
+        <v>8300</v>
       </c>
       <c r="E22" s="3">
-        <v>8100</v>
+        <v>6900</v>
       </c>
       <c r="F22" s="3">
-        <v>8100</v>
+        <v>8300</v>
       </c>
       <c r="G22" s="3">
-        <v>9500</v>
+        <v>8300</v>
       </c>
       <c r="H22" s="3">
-        <v>6800</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
+        <v>9600</v>
+      </c>
+      <c r="I22" s="3">
+        <v>6900</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
@@ -1423,8 +1463,8 @@
       <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1438,114 +1478,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-239100</v>
+        <v>295700</v>
       </c>
       <c r="E23" s="3">
-        <v>-85100</v>
+        <v>-243500</v>
       </c>
       <c r="F23" s="3">
-        <v>-168800</v>
+        <v>-86700</v>
       </c>
       <c r="G23" s="3">
-        <v>399800</v>
+        <v>-171900</v>
       </c>
       <c r="H23" s="3">
-        <v>1353400</v>
+        <v>407100</v>
       </c>
       <c r="I23" s="3">
-        <v>1918000</v>
+        <v>1378300</v>
       </c>
       <c r="J23" s="3">
+        <v>1953200</v>
+      </c>
+      <c r="K23" s="3">
         <v>591600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>842400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2718400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1158700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>497600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>456500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>62400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>7600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-59000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-82100</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-62100</v>
+        <v>77000</v>
       </c>
       <c r="E24" s="3">
-        <v>-28400</v>
+        <v>-63300</v>
       </c>
       <c r="F24" s="3">
-        <v>-43200</v>
+        <v>-28900</v>
       </c>
       <c r="G24" s="3">
-        <v>108100</v>
+        <v>-44000</v>
       </c>
       <c r="H24" s="3">
-        <v>324200</v>
+        <v>110000</v>
       </c>
       <c r="I24" s="3">
-        <v>445700</v>
+        <v>330100</v>
       </c>
       <c r="J24" s="3">
+        <v>453900</v>
+      </c>
+      <c r="K24" s="3">
         <v>140500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>221400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>660900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>273000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>133100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>114800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>17800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-3800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-5100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-24400</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-176900</v>
+        <v>218700</v>
       </c>
       <c r="E26" s="3">
-        <v>-56700</v>
+        <v>-180200</v>
       </c>
       <c r="F26" s="3">
-        <v>-125600</v>
+        <v>-57800</v>
       </c>
       <c r="G26" s="3">
-        <v>291800</v>
+        <v>-127900</v>
       </c>
       <c r="H26" s="3">
-        <v>1029200</v>
+        <v>297100</v>
       </c>
       <c r="I26" s="3">
-        <v>1472300</v>
+        <v>1048100</v>
       </c>
       <c r="J26" s="3">
+        <v>1499300</v>
+      </c>
+      <c r="K26" s="3">
         <v>451100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>621000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2057500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>885600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>364500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>341800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>44600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>11500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-53900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-57700</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-176900</v>
+        <v>218700</v>
       </c>
       <c r="E27" s="3">
-        <v>-56700</v>
+        <v>-180200</v>
       </c>
       <c r="F27" s="3">
-        <v>-125600</v>
+        <v>-57800</v>
       </c>
       <c r="G27" s="3">
-        <v>291800</v>
+        <v>-127900</v>
       </c>
       <c r="H27" s="3">
-        <v>1029200</v>
+        <v>297100</v>
       </c>
       <c r="I27" s="3">
-        <v>1472300</v>
+        <v>1048100</v>
       </c>
       <c r="J27" s="3">
+        <v>1499300</v>
+      </c>
+      <c r="K27" s="3">
         <v>451100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>621000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2057500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>885600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>364500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>341800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>44600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>11500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-53900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-57700</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-32400</v>
+        <v>-50900</v>
       </c>
       <c r="E32" s="3">
-        <v>-37800</v>
+        <v>-33000</v>
       </c>
       <c r="F32" s="3">
-        <v>-14900</v>
+        <v>-38500</v>
       </c>
       <c r="G32" s="3">
-        <v>-29700</v>
+        <v>-15100</v>
       </c>
       <c r="H32" s="3">
-        <v>-35100</v>
+        <v>-30300</v>
       </c>
       <c r="I32" s="3">
-        <v>9500</v>
+        <v>-35800</v>
       </c>
       <c r="J32" s="3">
+        <v>9600</v>
+      </c>
+      <c r="K32" s="3">
         <v>16200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>8100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>27700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>12000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>12900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>20900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>15300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>19200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-176900</v>
+        <v>218700</v>
       </c>
       <c r="E33" s="3">
-        <v>-56700</v>
+        <v>-180200</v>
       </c>
       <c r="F33" s="3">
-        <v>-125600</v>
+        <v>-57800</v>
       </c>
       <c r="G33" s="3">
-        <v>291800</v>
+        <v>-127900</v>
       </c>
       <c r="H33" s="3">
-        <v>1029200</v>
+        <v>297100</v>
       </c>
       <c r="I33" s="3">
-        <v>1472300</v>
+        <v>1048100</v>
       </c>
       <c r="J33" s="3">
+        <v>1499300</v>
+      </c>
+      <c r="K33" s="3">
         <v>451100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>621000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2057500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>885600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>364500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>341800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>44600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>11500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-53900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-57700</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-176900</v>
+        <v>218700</v>
       </c>
       <c r="E35" s="3">
-        <v>-56700</v>
+        <v>-180200</v>
       </c>
       <c r="F35" s="3">
-        <v>-125600</v>
+        <v>-57800</v>
       </c>
       <c r="G35" s="3">
-        <v>291800</v>
+        <v>-127900</v>
       </c>
       <c r="H35" s="3">
-        <v>1029200</v>
+        <v>297100</v>
       </c>
       <c r="I35" s="3">
-        <v>1472300</v>
+        <v>1048100</v>
       </c>
       <c r="J35" s="3">
+        <v>1499300</v>
+      </c>
+      <c r="K35" s="3">
         <v>451100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>621000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2057500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>885600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>364500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>341800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>44600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>11500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-53900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-57700</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1342600</v>
+        <v>1656100</v>
       </c>
       <c r="E41" s="3">
-        <v>1144000</v>
+        <v>1367200</v>
       </c>
       <c r="F41" s="3">
-        <v>1569500</v>
+        <v>1165000</v>
       </c>
       <c r="G41" s="3">
-        <v>1787000</v>
+        <v>1598300</v>
       </c>
       <c r="H41" s="3">
-        <v>1730200</v>
+        <v>1819800</v>
       </c>
       <c r="I41" s="3">
-        <v>2452900</v>
+        <v>1762000</v>
       </c>
       <c r="J41" s="3">
+        <v>2497900</v>
+      </c>
+      <c r="K41" s="3">
         <v>2117900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2841800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3084800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1864500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>595800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>408300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>161800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>119700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>20500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,220 +2423,235 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>768500</v>
+        <v>686400</v>
       </c>
       <c r="E43" s="3">
-        <v>833400</v>
+        <v>782700</v>
       </c>
       <c r="F43" s="3">
-        <v>668600</v>
+        <v>848700</v>
       </c>
       <c r="G43" s="3">
-        <v>745600</v>
+        <v>680900</v>
       </c>
       <c r="H43" s="3">
-        <v>782100</v>
+        <v>759300</v>
       </c>
       <c r="I43" s="3">
-        <v>1092700</v>
+        <v>796400</v>
       </c>
       <c r="J43" s="3">
+        <v>1112800</v>
+      </c>
+      <c r="K43" s="3">
         <v>742900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>750600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1104800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>904300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>368300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>543900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>503300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>573200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>504100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>560500</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1218300</v>
+        <v>1125200</v>
       </c>
       <c r="E44" s="3">
-        <v>1542500</v>
+        <v>1240700</v>
       </c>
       <c r="F44" s="3">
-        <v>1393900</v>
+        <v>1570800</v>
       </c>
       <c r="G44" s="3">
-        <v>1392600</v>
+        <v>1419500</v>
       </c>
       <c r="H44" s="3">
-        <v>1469600</v>
+        <v>1418100</v>
       </c>
       <c r="I44" s="3">
-        <v>1837000</v>
+        <v>1496500</v>
       </c>
       <c r="J44" s="3">
+        <v>1870700</v>
+      </c>
+      <c r="K44" s="3">
         <v>1433100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1266300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1335700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1514300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>747000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>884400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>834700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1201200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>935000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>844000</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>151300</v>
+        <v>320500</v>
       </c>
       <c r="E45" s="3">
-        <v>74300</v>
+        <v>154100</v>
       </c>
       <c r="F45" s="3">
-        <v>81000</v>
+        <v>75700</v>
       </c>
       <c r="G45" s="3">
-        <v>135100</v>
+        <v>82500</v>
       </c>
       <c r="H45" s="3">
-        <v>102700</v>
+        <v>137600</v>
       </c>
       <c r="I45" s="3">
-        <v>47300</v>
+        <v>104500</v>
       </c>
       <c r="J45" s="3">
+        <v>48100</v>
+      </c>
+      <c r="K45" s="3">
         <v>51300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>71600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>85700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>38600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>15500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>23500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>26800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>17800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>11500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>23100</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3480800</v>
+        <v>3788100</v>
       </c>
       <c r="E46" s="3">
-        <v>3594200</v>
+        <v>3544700</v>
       </c>
       <c r="F46" s="3">
-        <v>3713100</v>
+        <v>3660200</v>
       </c>
       <c r="G46" s="3">
-        <v>4060200</v>
+        <v>3781200</v>
       </c>
       <c r="H46" s="3">
-        <v>4084500</v>
+        <v>4134800</v>
       </c>
       <c r="I46" s="3">
-        <v>5429800</v>
+        <v>4159500</v>
       </c>
       <c r="J46" s="3">
+        <v>5529500</v>
+      </c>
+      <c r="K46" s="3">
         <v>4345200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4930200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5611000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4321700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1726600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1860100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1526600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1912000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1471100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1449300</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,114 +2703,123 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5261000</v>
+        <v>5255800</v>
       </c>
       <c r="E48" s="3">
-        <v>5354200</v>
+        <v>5357600</v>
       </c>
       <c r="F48" s="3">
-        <v>5378500</v>
+        <v>5452500</v>
       </c>
       <c r="G48" s="3">
-        <v>5313700</v>
+        <v>5477200</v>
       </c>
       <c r="H48" s="3">
-        <v>5355500</v>
+        <v>5411200</v>
       </c>
       <c r="I48" s="3">
-        <v>5417700</v>
+        <v>5453900</v>
       </c>
       <c r="J48" s="3">
+        <v>5517100</v>
+      </c>
+      <c r="K48" s="3">
         <v>5537900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4858700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5012300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4911700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2141500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2811000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2775400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2844400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2744800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2799900</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3618500</v>
+        <v>3650600</v>
       </c>
       <c r="E49" s="3">
-        <v>3637400</v>
+        <v>3685000</v>
       </c>
       <c r="F49" s="3">
-        <v>3659000</v>
+        <v>3704200</v>
       </c>
       <c r="G49" s="3">
-        <v>3673900</v>
+        <v>3726200</v>
       </c>
       <c r="H49" s="3">
-        <v>3717100</v>
+        <v>3741400</v>
       </c>
       <c r="I49" s="3">
-        <v>3759000</v>
+        <v>3785400</v>
       </c>
       <c r="J49" s="3">
+        <v>3828000</v>
+      </c>
+      <c r="K49" s="3">
         <v>3792800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3696300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3872900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3759700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1244600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1635700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1620900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1654700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1622500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1587900</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>763100</v>
+        <v>763400</v>
       </c>
       <c r="E52" s="3">
-        <v>755000</v>
+        <v>777200</v>
       </c>
       <c r="F52" s="3">
-        <v>719900</v>
+        <v>768900</v>
       </c>
       <c r="G52" s="3">
-        <v>622700</v>
+        <v>733100</v>
       </c>
       <c r="H52" s="3">
-        <v>545700</v>
+        <v>634100</v>
       </c>
       <c r="I52" s="3">
-        <v>426800</v>
+        <v>555700</v>
       </c>
       <c r="J52" s="3">
+        <v>434700</v>
+      </c>
+      <c r="K52" s="3">
         <v>416000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>311900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>313900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>289000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>286900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>180000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>164400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>168100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>148800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>150100</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13123400</v>
+        <v>13457900</v>
       </c>
       <c r="E54" s="3">
-        <v>13340900</v>
+        <v>13364400</v>
       </c>
       <c r="F54" s="3">
-        <v>13470500</v>
+        <v>13585800</v>
       </c>
       <c r="G54" s="3">
-        <v>13670400</v>
+        <v>13717900</v>
       </c>
       <c r="H54" s="3">
-        <v>13702900</v>
+        <v>13921400</v>
       </c>
       <c r="I54" s="3">
-        <v>15033300</v>
+        <v>13954400</v>
       </c>
       <c r="J54" s="3">
+        <v>15309300</v>
+      </c>
+      <c r="K54" s="3">
         <v>14091900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13797000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>14810100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>13282000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5399600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6486800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6087300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6579200</v>
-      </c>
-      <c r="R54" s="3">
-        <v>5987200</v>
       </c>
       <c r="S54" s="3">
         <v>5987200</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>5987200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,61 +3141,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>838800</v>
+        <v>931200</v>
       </c>
       <c r="E57" s="3">
-        <v>888800</v>
+        <v>854200</v>
       </c>
       <c r="F57" s="3">
-        <v>975200</v>
+        <v>905100</v>
       </c>
       <c r="G57" s="3">
-        <v>1113000</v>
+        <v>993100</v>
       </c>
       <c r="H57" s="3">
-        <v>1025200</v>
+        <v>1133400</v>
       </c>
       <c r="I57" s="3">
-        <v>1202100</v>
+        <v>1044000</v>
       </c>
       <c r="J57" s="3">
+        <v>1224200</v>
+      </c>
+      <c r="K57" s="3">
         <v>1145400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1166400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1030100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1068100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>502700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>710900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>494400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>555400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>507900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>504100</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3097,240 +3231,255 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>500800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>9000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>13000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>468900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>881500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>513000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>405300</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>140500</v>
+        <v>147200</v>
       </c>
       <c r="E59" s="3">
-        <v>93200</v>
+        <v>143100</v>
       </c>
       <c r="F59" s="3">
-        <v>94500</v>
+        <v>94900</v>
       </c>
       <c r="G59" s="3">
-        <v>94500</v>
+        <v>96300</v>
       </c>
       <c r="H59" s="3">
-        <v>113500</v>
+        <v>96300</v>
       </c>
       <c r="I59" s="3">
-        <v>326900</v>
+        <v>115500</v>
       </c>
       <c r="J59" s="3">
+        <v>332900</v>
+      </c>
+      <c r="K59" s="3">
         <v>483600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>560300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>732800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>362200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>170600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>146100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>56100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>56000</v>
-      </c>
-      <c r="R59" s="3">
-        <v>52600</v>
       </c>
       <c r="S59" s="3">
         <v>52600</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>52600</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>979300</v>
+        <v>1078400</v>
       </c>
       <c r="E60" s="3">
-        <v>982000</v>
+        <v>997200</v>
       </c>
       <c r="F60" s="3">
-        <v>1069800</v>
+        <v>1000000</v>
       </c>
       <c r="G60" s="3">
-        <v>1207500</v>
+        <v>1089400</v>
       </c>
       <c r="H60" s="3">
-        <v>1138600</v>
+        <v>1229700</v>
       </c>
       <c r="I60" s="3">
-        <v>1529000</v>
+        <v>1159500</v>
       </c>
       <c r="J60" s="3">
+        <v>1557100</v>
+      </c>
+      <c r="K60" s="3">
         <v>1628900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1726700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1762900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1931100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>682400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>870000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1019400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1492900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1073500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>962000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>721300</v>
+        <v>729000</v>
       </c>
       <c r="E61" s="3">
-        <v>709100</v>
+        <v>734500</v>
       </c>
       <c r="F61" s="3">
+        <v>722100</v>
+      </c>
+      <c r="G61" s="3">
+        <v>686400</v>
+      </c>
+      <c r="H61" s="3">
+        <v>686400</v>
+      </c>
+      <c r="I61" s="3">
+        <v>686400</v>
+      </c>
+      <c r="J61" s="3">
+        <v>686400</v>
+      </c>
+      <c r="K61" s="3">
         <v>674000</v>
       </c>
-      <c r="G61" s="3">
-        <v>674000</v>
-      </c>
-      <c r="H61" s="3">
-        <v>674000</v>
-      </c>
-      <c r="I61" s="3">
-        <v>674000</v>
-      </c>
-      <c r="J61" s="3">
-        <v>674000</v>
-      </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>673700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>690000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1117400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>646200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>870000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>869100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>904400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>844000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>874700</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1406100</v>
+        <v>1287500</v>
       </c>
       <c r="E62" s="3">
-        <v>1420900</v>
+        <v>1431900</v>
       </c>
       <c r="F62" s="3">
-        <v>1435800</v>
+        <v>1447000</v>
       </c>
       <c r="G62" s="3">
-        <v>1268300</v>
+        <v>1462200</v>
       </c>
       <c r="H62" s="3">
-        <v>1279100</v>
+        <v>1291600</v>
       </c>
       <c r="I62" s="3">
-        <v>1267000</v>
+        <v>1302600</v>
       </c>
       <c r="J62" s="3">
+        <v>1290200</v>
+      </c>
+      <c r="K62" s="3">
         <v>1448000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1366200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1518200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1425000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>917600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1073500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1051300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>833100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>896500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>840100</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3106600</v>
+        <v>3094900</v>
       </c>
       <c r="E66" s="3">
-        <v>3112000</v>
+        <v>3163700</v>
       </c>
       <c r="F66" s="3">
-        <v>3179500</v>
+        <v>3169200</v>
       </c>
       <c r="G66" s="3">
-        <v>3149800</v>
+        <v>3237900</v>
       </c>
       <c r="H66" s="3">
-        <v>3091800</v>
+        <v>3207700</v>
       </c>
       <c r="I66" s="3">
-        <v>3469900</v>
+        <v>3148500</v>
       </c>
       <c r="J66" s="3">
+        <v>3533700</v>
+      </c>
+      <c r="K66" s="3">
         <v>3750900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3766500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3971100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4473500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2197100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2813600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2939800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3230400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2814000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2676800</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6825100</v>
+        <v>7156700</v>
       </c>
       <c r="E72" s="3">
-        <v>7056100</v>
+        <v>6950400</v>
       </c>
       <c r="F72" s="3">
-        <v>7137100</v>
+        <v>7185600</v>
       </c>
       <c r="G72" s="3">
-        <v>7365400</v>
+        <v>7268100</v>
       </c>
       <c r="H72" s="3">
-        <v>7273500</v>
+        <v>7500600</v>
       </c>
       <c r="I72" s="3">
-        <v>7446400</v>
+        <v>7407100</v>
       </c>
       <c r="J72" s="3">
+        <v>7583100</v>
+      </c>
+      <c r="K72" s="3">
         <v>6082200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5724000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5887500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3890200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2891100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2844900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2319200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2480100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2384400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2503600</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10016800</v>
+        <v>10363000</v>
       </c>
       <c r="E76" s="3">
-        <v>10228900</v>
+        <v>10200700</v>
       </c>
       <c r="F76" s="3">
-        <v>10291000</v>
+        <v>10416700</v>
       </c>
       <c r="G76" s="3">
-        <v>10520600</v>
+        <v>10479900</v>
       </c>
       <c r="H76" s="3">
-        <v>10611100</v>
+        <v>10713800</v>
       </c>
       <c r="I76" s="3">
-        <v>11563300</v>
+        <v>10805900</v>
       </c>
       <c r="J76" s="3">
+        <v>11775700</v>
+      </c>
+      <c r="K76" s="3">
         <v>10341000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10030500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10839000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8808500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3202600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3673200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3147500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3348800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3173200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3310400</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-176900</v>
+        <v>218700</v>
       </c>
       <c r="E81" s="3">
-        <v>-56700</v>
+        <v>-180200</v>
       </c>
       <c r="F81" s="3">
-        <v>-125600</v>
+        <v>-57800</v>
       </c>
       <c r="G81" s="3">
-        <v>291800</v>
+        <v>-127900</v>
       </c>
       <c r="H81" s="3">
-        <v>1029200</v>
+        <v>297100</v>
       </c>
       <c r="I81" s="3">
-        <v>1472300</v>
+        <v>1048100</v>
       </c>
       <c r="J81" s="3">
+        <v>1499300</v>
+      </c>
+      <c r="K81" s="3">
         <v>451100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>621000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2057500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>885600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>364500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>341800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>44600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>11500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-53900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-57700</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>182300</v>
+        <v>181600</v>
       </c>
       <c r="E83" s="3">
-        <v>186400</v>
+        <v>185700</v>
       </c>
       <c r="F83" s="3">
-        <v>199900</v>
+        <v>189800</v>
       </c>
       <c r="G83" s="3">
-        <v>189100</v>
+        <v>203600</v>
       </c>
       <c r="H83" s="3">
-        <v>194500</v>
+        <v>192600</v>
       </c>
       <c r="I83" s="3">
-        <v>212100</v>
+        <v>198100</v>
       </c>
       <c r="J83" s="3">
+        <v>216000</v>
+      </c>
+      <c r="K83" s="3">
         <v>206700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>198500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>224000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>162500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>91800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>86100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>82800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>89200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>84700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>83400</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>366000</v>
+        <v>489700</v>
       </c>
       <c r="E89" s="3">
-        <v>-267400</v>
+        <v>372800</v>
       </c>
       <c r="F89" s="3">
-        <v>198600</v>
+        <v>-272300</v>
       </c>
       <c r="G89" s="3">
-        <v>584900</v>
+        <v>202200</v>
       </c>
       <c r="H89" s="3">
-        <v>1437100</v>
+        <v>595600</v>
       </c>
       <c r="I89" s="3">
-        <v>760400</v>
+        <v>1463500</v>
       </c>
       <c r="J89" s="3">
+        <v>774400</v>
+      </c>
+      <c r="K89" s="3">
         <v>391700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1233900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2607800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>615300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>471700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>799600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>519900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-115900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>51300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>148800</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-115000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-106000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-99000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-149000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-147000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-88000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-93000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-401000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-106000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-91300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-82600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-58200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-61300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-54800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-57300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-111600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-170600</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-128300</v>
+        <v>-143100</v>
       </c>
       <c r="E94" s="3">
-        <v>-120200</v>
+        <v>-130700</v>
       </c>
       <c r="F94" s="3">
-        <v>-187700</v>
+        <v>-122400</v>
       </c>
       <c r="G94" s="3">
-        <v>-191800</v>
+        <v>-191200</v>
       </c>
       <c r="H94" s="3">
-        <v>-116200</v>
+        <v>-195300</v>
       </c>
       <c r="I94" s="3">
-        <v>-124300</v>
+        <v>-118300</v>
       </c>
       <c r="J94" s="3">
+        <v>-126500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-944100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-141800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-88500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>775100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-54300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-54800</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-52200</v>
       </c>
       <c r="Q94" s="3">
         <v>-52200</v>
       </c>
       <c r="R94" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="S94" s="3">
         <v>-111600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-162900</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,61 +5082,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-33800</v>
+        <v>-34400</v>
       </c>
       <c r="E96" s="3">
-        <v>-33800</v>
+        <v>-34400</v>
       </c>
       <c r="F96" s="3">
-        <v>-33800</v>
+        <v>-34400</v>
       </c>
       <c r="G96" s="3">
-        <v>-36500</v>
+        <v>-34400</v>
       </c>
       <c r="H96" s="3">
-        <v>-35100</v>
+        <v>-37100</v>
       </c>
       <c r="I96" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-28900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-28400</v>
       </c>
-      <c r="J96" s="3">
-        <v>-28400</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-32400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-26300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-14600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-14200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-13000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-12700</v>
       </c>
       <c r="Q96" s="3">
         <v>-12700</v>
       </c>
       <c r="R96" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="S96" s="3">
         <v>-11500</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-21800</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-51300</v>
+        <v>-42600</v>
       </c>
       <c r="E100" s="3">
-        <v>-43200</v>
+        <v>-52300</v>
       </c>
       <c r="F100" s="3">
-        <v>-237700</v>
+        <v>-44000</v>
       </c>
       <c r="G100" s="3">
-        <v>-294500</v>
+        <v>-242100</v>
       </c>
       <c r="H100" s="3">
-        <v>-2046300</v>
+        <v>-299900</v>
       </c>
       <c r="I100" s="3">
-        <v>-293100</v>
+        <v>-2083900</v>
       </c>
       <c r="J100" s="3">
+        <v>-298500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-175600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1248800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1382700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-145200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-25800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-369100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-425600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>361800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>39800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>57700</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>12200</v>
+        <v>-13800</v>
       </c>
       <c r="E101" s="3">
+        <v>12400</v>
+      </c>
+      <c r="F101" s="3">
         <v>4100</v>
       </c>
-      <c r="F101" s="3">
-        <v>9500</v>
-      </c>
       <c r="G101" s="3">
-        <v>-41900</v>
+        <v>9600</v>
       </c>
       <c r="H101" s="3">
+        <v>-42600</v>
+      </c>
+      <c r="I101" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="K101" s="3">
         <v>2700</v>
       </c>
-      <c r="I101" s="3">
-        <v>-8100</v>
-      </c>
-      <c r="J101" s="3">
-        <v>2700</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-13500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>12400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>5300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>16800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-5100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>3800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>198600</v>
+        <v>290200</v>
       </c>
       <c r="E102" s="3">
-        <v>-426800</v>
+        <v>202200</v>
       </c>
       <c r="F102" s="3">
-        <v>-217500</v>
+        <v>-434700</v>
       </c>
       <c r="G102" s="3">
-        <v>56700</v>
+        <v>-221500</v>
       </c>
       <c r="H102" s="3">
-        <v>-722600</v>
+        <v>57800</v>
       </c>
       <c r="I102" s="3">
-        <v>335000</v>
+        <v>-735900</v>
       </c>
       <c r="J102" s="3">
+        <v>341100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-725300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-170100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1149000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1250600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>354100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>242600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>42100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>119700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-16700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>42300</v>
       </c>
     </row>
